--- a/10/10.xlsx
+++ b/10/10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA608A1-E711-4CBB-A1EB-66D6F791BA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B0907D-3AE9-4186-AA2D-A1100275CD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>φ, ◦</t>
   </si>
   <si>
     <t>i, μA</t>
+  </si>
+  <si>
+    <t>malus</t>
   </si>
 </sst>
 </file>
@@ -708,6 +711,268 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-20BC-452F-86A5-62D778AAE5A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Prawo malusa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Pomiar!$D$3:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.061750552411095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.651202849151765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.980831174438393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.071004432382701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.949367248147507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.212383304263584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.680198416769066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.519801583230934</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9876166957364161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5500000000000016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2506327518524922</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1289955676173009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.219168825561608</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54879715084823411</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13824944758890653</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8294987513706541E-32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13824944758890687</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54879715084823344</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2191688255616089</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1289955676172996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.25063275185249</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.5499999999999954</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.987616695736409</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.519801583230934</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.680198416769061</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.212383304263579</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.949367248147507</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.071004432382697</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.980831174438389</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.651202849151765</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18.061750552411095</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.061750552411095</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.651202849151765</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.980831174438396</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.071004432382701</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.94936724814751</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.212383304263593</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.680198416769066</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.1000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.5198015832309366</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.9876166957364196</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.5500000000000078</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.2506327518524998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.128995567617308</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2191688255616069</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.54879715084823355</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.13824944758890689</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.1465488762335887E-31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.13824944758890576</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.54879715084823122</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2191688255616118</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1289955676172925</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.2506327518524949</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.5500000000000016</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.9876166957364125</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.5198015832309322</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.0999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.680198416769059</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.212383304263579</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.649999999999991</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.949367248147498</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.071004432382701</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.980831174438393</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.651202849151758</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18.061750552411095</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A65-454C-9077-6F7A03B25C7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1460,10 +1725,10 @@
       <xdr:rowOff>117474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2512,10 +2777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C75"/>
+  <dimension ref="B2:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="59" workbookViewId="0">
-      <selection activeCell="M95" sqref="M95"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2523,596 +2788,891 @@
     <col min="1" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <f>MAX($C$3:$C$75)*(COS(B3*PI()/180)^2)</f>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D67" si="0">MAX($C$3:$C$75)*(COS(B4*PI()/180)^2)</f>
+        <v>18.061750552411095</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>17.651202849151765</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>16.980831174438393</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>16.071004432382701</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>14.949367248147507</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>13.650000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>35</v>
       </c>
       <c r="C10" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>12.212383304263584</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>40</v>
       </c>
       <c r="C11" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>10.680198416769066</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>45</v>
       </c>
       <c r="C12" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1000000000000014</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>50</v>
       </c>
       <c r="C13" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>7.519801583230934</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>55</v>
       </c>
       <c r="C14" s="1">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9876166957364161</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>60</v>
       </c>
       <c r="C15" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5500000000000016</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>65</v>
       </c>
       <c r="C16" s="1">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2506327518524922</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>70</v>
       </c>
       <c r="C17" s="1">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1289955676173009</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>75</v>
       </c>
       <c r="C18" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.219168825561608</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>80</v>
       </c>
       <c r="C19" s="1">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54879715084823411</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>85</v>
       </c>
       <c r="C20" s="1">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13824944758890653</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>90</v>
       </c>
       <c r="C21" s="1">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8294987513706541E-32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>95</v>
       </c>
       <c r="C22" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13824944758890687</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>100</v>
       </c>
       <c r="C23" s="1">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54879715084823344</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>105</v>
       </c>
       <c r="C24" s="1">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2191688255616089</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>110</v>
       </c>
       <c r="C25" s="1">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1289955676172996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>115</v>
       </c>
       <c r="C26" s="1">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>3.25063275185249</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>120</v>
       </c>
       <c r="C27" s="1">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5499999999999954</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>125</v>
       </c>
       <c r="C28" s="1">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>5.987616695736409</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>130</v>
       </c>
       <c r="C29" s="1">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>7.519801583230934</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>135</v>
       </c>
       <c r="C30" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0999999999999979</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>140</v>
       </c>
       <c r="C31" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>10.680198416769061</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>145</v>
       </c>
       <c r="C32" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>12.212383304263579</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <v>150</v>
       </c>
       <c r="C33" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>13.650000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
         <v>155</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>14.949367248147507</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="1">
         <v>160</v>
       </c>
       <c r="C35" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>16.071004432382697</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
         <v>165</v>
       </c>
       <c r="C36" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>16.980831174438389</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="1">
         <v>170</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>17.651202849151765</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="1">
         <v>175</v>
       </c>
       <c r="C38" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>18.061750552411095</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
         <v>180</v>
       </c>
       <c r="C39" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="1">
         <v>185</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>18.061750552411095</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="1">
         <v>190</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>17.651202849151765</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="1">
         <v>195</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>16.980831174438396</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="1">
         <v>200</v>
       </c>
       <c r="C43" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>16.071004432382701</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="1">
         <v>205</v>
       </c>
       <c r="C44" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>14.94936724814751</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="1">
         <v>210</v>
       </c>
       <c r="C45" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>13.649999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="1">
         <v>215</v>
       </c>
       <c r="C46" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>12.212383304263593</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="1">
         <v>220</v>
       </c>
       <c r="C47" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>10.680198416769066</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="1">
         <v>225</v>
       </c>
       <c r="C48" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1000000000000032</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="1">
         <v>230</v>
       </c>
       <c r="C49" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5198015832309366</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="1">
         <v>235</v>
       </c>
       <c r="C50" s="1">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9876166957364196</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="1">
         <v>240</v>
       </c>
       <c r="C51" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5500000000000078</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="1">
         <v>245</v>
       </c>
       <c r="C52" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2506327518524998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="1">
         <v>250</v>
       </c>
       <c r="C53" s="1">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>2.128995567617308</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="1">
         <v>255</v>
       </c>
       <c r="C54" s="1">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D54" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2191688255616069</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="1">
         <v>260</v>
       </c>
       <c r="C55" s="1">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D55" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54879715084823355</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="1">
         <v>265</v>
       </c>
       <c r="C56" s="1">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D56" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13824944758890689</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="1">
         <v>270</v>
       </c>
       <c r="C57" s="1">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D57" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1465488762335887E-31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="1">
         <v>275</v>
       </c>
       <c r="C58" s="1">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D58" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13824944758890576</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="1">
         <v>280</v>
       </c>
       <c r="C59" s="1">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D59" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54879715084823122</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="1">
         <v>285</v>
       </c>
       <c r="C60" s="1">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D60" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2191688255616118</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" s="1">
         <v>290</v>
       </c>
       <c r="C61" s="1">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D61" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1289955676172925</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" s="1">
         <v>295</v>
       </c>
       <c r="C62" s="1">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D62" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2506327518524949</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" s="1">
         <v>300</v>
       </c>
       <c r="C63" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D63" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5500000000000016</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" s="1">
         <v>305</v>
       </c>
       <c r="C64" s="1">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D64" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9876166957364125</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="1">
         <v>310</v>
       </c>
       <c r="C65" s="1">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D65" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5198015832309322</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" s="1">
         <v>315</v>
       </c>
       <c r="C66" s="1">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D66" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0999999999999961</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" s="1">
         <v>320</v>
       </c>
       <c r="C67" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D67" s="2">
+        <f t="shared" si="0"/>
+        <v>10.680198416769059</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="1">
         <v>325</v>
       </c>
       <c r="C68" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D68" s="2">
+        <f t="shared" ref="D68:D75" si="1">MAX($C$3:$C$75)*(COS(B68*PI()/180)^2)</f>
+        <v>12.212383304263579</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" s="1">
         <v>330</v>
       </c>
       <c r="C69" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D69" s="2">
+        <f t="shared" si="1"/>
+        <v>13.649999999999991</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" s="1">
         <v>335</v>
       </c>
       <c r="C70" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D70" s="2">
+        <f t="shared" si="1"/>
+        <v>14.949367248147498</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" s="1">
         <v>340</v>
       </c>
       <c r="C71" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D71" s="2">
+        <f t="shared" si="1"/>
+        <v>16.071004432382701</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" s="1">
         <v>345</v>
       </c>
       <c r="C72" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D72" s="2">
+        <f t="shared" si="1"/>
+        <v>16.980831174438393</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" s="1">
         <v>350</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D73" s="2">
+        <f t="shared" si="1"/>
+        <v>17.651202849151758</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" s="1">
         <v>355</v>
       </c>
       <c r="C74" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D74" s="2">
+        <f t="shared" si="1"/>
+        <v>18.061750552411095</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" s="1">
         <v>360</v>
       </c>
       <c r="C75" s="1">
         <v>0.1</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="1"/>
+        <v>18.2</v>
       </c>
     </row>
   </sheetData>

--- a/10/10.xlsx
+++ b/10/10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B0907D-3AE9-4186-AA2D-A1100275CD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558F06B-30E5-4602-81AF-514424A80720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadania" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>φ, ◦</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>malus</t>
+  </si>
+  <si>
+    <t>stare</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -499,103 +502,103 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.7</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -607,103 +610,103 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>2.1</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13.3</c:v>
-                </c:pt>
                 <c:pt idx="52">
-                  <c:v>14.7</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>15.9</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.7</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17.3</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>16.899999999999999</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>16.100000000000001</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>13.7</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12.1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.4</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.6999999999999993</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.5</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.7</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.7</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,223 +752,223 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>18.2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.061750552411095</c:v>
+                  <c:v>2.9772116295183122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.651202849151765</c:v>
+                  <c:v>2.9095389311788624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.980831174438393</c:v>
+                  <c:v>2.799038105676658</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.071004432382701</c:v>
+                  <c:v>2.6490666646784673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.949367248147507</c:v>
+                  <c:v>2.4641814145298087</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.650000000000002</c:v>
+                  <c:v>2.2500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.212383304263584</c:v>
+                  <c:v>2.0130302149885031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.680198416769066</c:v>
+                  <c:v>1.7604722665003956</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1000000000000014</c:v>
+                  <c:v>1.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.519801583230934</c:v>
+                  <c:v>1.2395277334996044</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9876166957364161</c:v>
+                  <c:v>0.98696978501149712</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5500000000000016</c:v>
+                  <c:v>0.75000000000000033</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2506327518524922</c:v>
+                  <c:v>0.53581858547019101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1289955676173009</c:v>
+                  <c:v>0.35093333532153315</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.219168825561608</c:v>
+                  <c:v>0.20096189432334199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.54879715084823411</c:v>
+                  <c:v>9.0461068821137497E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13824944758890653</c:v>
+                  <c:v>2.2788370481687893E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.8294987513706541E-32</c:v>
+                  <c:v>1.1257415524237342E-32</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13824944758890687</c:v>
+                  <c:v>2.2788370481687942E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.54879715084823344</c:v>
+                  <c:v>9.0461068821137386E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2191688255616089</c:v>
+                  <c:v>0.20096189432334216</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1289955676172996</c:v>
+                  <c:v>0.35093333532153292</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.25063275185249</c:v>
+                  <c:v>0.53581858547019068</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.5499999999999954</c:v>
+                  <c:v>0.74999999999999933</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.987616695736409</c:v>
+                  <c:v>0.98696978501149601</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.519801583230934</c:v>
+                  <c:v>1.2395277334996044</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.0999999999999979</c:v>
+                  <c:v>1.4999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.680198416769061</c:v>
+                  <c:v>1.7604722665003947</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.212383304263579</c:v>
+                  <c:v>2.0130302149885022</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.650000000000002</c:v>
+                  <c:v>2.2500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.949367248147507</c:v>
+                  <c:v>2.4641814145298087</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16.071004432382697</c:v>
+                  <c:v>2.6490666646784664</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.980831174438389</c:v>
+                  <c:v>2.7990381056766576</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17.651202849151765</c:v>
+                  <c:v>2.9095389311788624</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.061750552411095</c:v>
+                  <c:v>2.9772116295183122</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18.2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.061750552411095</c:v>
+                  <c:v>2.9772116295183122</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17.651202849151765</c:v>
+                  <c:v>2.9095389311788624</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16.980831174438396</c:v>
+                  <c:v>2.7990381056766589</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16.071004432382701</c:v>
+                  <c:v>2.6490666646784673</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.94936724814751</c:v>
+                  <c:v>2.4641814145298095</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.649999999999997</c:v>
+                  <c:v>2.2499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.212383304263593</c:v>
+                  <c:v>2.0130302149885044</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10.680198416769066</c:v>
+                  <c:v>1.7604722665003956</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.1000000000000032</c:v>
+                  <c:v>1.5000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.5198015832309366</c:v>
+                  <c:v>1.2395277334996051</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.9876166957364196</c:v>
+                  <c:v>0.98696978501149779</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.5500000000000078</c:v>
+                  <c:v>0.75000000000000133</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.2506327518524998</c:v>
+                  <c:v>0.53581858547019223</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.128995567617308</c:v>
+                  <c:v>0.35093333532153426</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2191688255616069</c:v>
+                  <c:v>0.20096189432334183</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.54879715084823355</c:v>
+                  <c:v>9.0461068821137414E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.13824944758890689</c:v>
+                  <c:v>2.2788370481687952E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.1465488762335887E-31</c:v>
+                  <c:v>1.0131673971813608E-31</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.13824944758890576</c:v>
+                  <c:v>2.2788370481687761E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.54879715084823122</c:v>
+                  <c:v>9.0461068821137025E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2191688255616118</c:v>
+                  <c:v>0.2009618943233426</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1289955676172925</c:v>
+                  <c:v>0.35093333532153176</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.2506327518524949</c:v>
+                  <c:v>0.53581858547019146</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.5500000000000016</c:v>
+                  <c:v>0.75000000000000033</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.9876166957364125</c:v>
+                  <c:v>0.98696978501149668</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.5198015832309322</c:v>
+                  <c:v>1.2395277334996042</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.0999999999999961</c:v>
+                  <c:v>1.4999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.680198416769059</c:v>
+                  <c:v>1.7604722665003945</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>12.212383304263579</c:v>
+                  <c:v>2.0130302149885022</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>13.649999999999991</c:v>
+                  <c:v>2.2499999999999987</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>14.949367248147498</c:v>
+                  <c:v>2.4641814145298078</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>16.071004432382701</c:v>
+                  <c:v>2.6490666646784673</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>16.980831174438393</c:v>
+                  <c:v>2.799038105676658</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>17.651202849151758</c:v>
+                  <c:v>2.9095389311788615</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>18.061750552411095</c:v>
+                  <c:v>2.9772116295183122</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>18.2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,7 +1173,1096 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wykres zależności i, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>μ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>A od </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>φ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>◦</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pomiar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Pomiar!$B$3:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pomiar!$G$3:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2706-4F14-9077-1735D7BCF680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Prawo malusa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Pomiar!$H$3:$H$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>9.0461068821137497E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2788370481687893E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1257415524237342E-32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2788370481687942E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0461068821137386E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20096189432334216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35093333532153292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53581858547019068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74999999999999933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98696978501149601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2395277334996044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7604722665003947</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0130302149885022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4641814145298087</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6490666646784664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7990381056766576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7990381056766589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4641814145298095</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0130302149885044</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7604722665003956</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2395277334996051</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98696978501149779</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.75000000000000133</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53581858547019223</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35093333532153426</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.20096189432334183</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0461068821137414E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2788370481687952E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0131673971813608E-31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2788370481687761E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0461068821137025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2009618943233426</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.35093333532153176</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.53581858547019146</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98696978501149668</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2395277334996042</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7604722665003945</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0130302149885022</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.2499999999999987</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.4641814145298078</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.799038105676658</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9095389311788615</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.799038105676658</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.4641814145298087</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0130302149885031</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7604722665003956</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2395277334996044</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98696978501149712</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.53581858547019101</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.35093333532153315</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.20096189432334199</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.0461068821137497E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2706-4F14-9077-1735D7BCF680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366415888"/>
+        <c:axId val="366414928"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="366415888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366414928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="366414928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366415888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1715,6 +2807,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1725,7 +3322,7 @@
       <xdr:rowOff>117474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>396875</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
@@ -1748,6 +3345,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>81204</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FCCEA8-46B3-4CC5-90DC-1EC920A147BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2019,10 +3654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C08F191-1D21-45DB-A272-73B58BDC1F32}">
-  <dimension ref="B2:C75"/>
+  <dimension ref="B2:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2030,743 +3665,817 @@
     <col min="1" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="str">
-        <f>Pomiar!B2</f>
-        <v>φ, ◦</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>Pomiar!C2</f>
-        <v>i, μA</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
-        <f>Pomiar!B3</f>
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <f>Pomiar!C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
-        <f>Pomiar!B4</f>
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <f>Pomiar!C4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
-        <f>Pomiar!B5</f>
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <f>Pomiar!C5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
-        <f>Pomiar!B6</f>
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <f>Pomiar!C6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
-        <f>Pomiar!B7</f>
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <f>Pomiar!C7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
-        <f>Pomiar!B8</f>
         <v>25</v>
       </c>
       <c r="C8" s="1">
-        <f>Pomiar!C8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
-        <f>Pomiar!B9</f>
         <v>30</v>
       </c>
       <c r="C9" s="1">
-        <f>Pomiar!C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
-        <f>Pomiar!B10</f>
         <v>35</v>
       </c>
       <c r="C10" s="1">
-        <f>Pomiar!C10</f>
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
-        <f>Pomiar!B11</f>
         <v>40</v>
       </c>
       <c r="C11" s="1">
-        <f>Pomiar!C11</f>
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
-        <f>Pomiar!B12</f>
         <v>45</v>
       </c>
       <c r="C12" s="1">
-        <f>Pomiar!C12</f>
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
-        <f>Pomiar!B13</f>
         <v>50</v>
       </c>
       <c r="C13" s="1">
-        <f>Pomiar!C13</f>
+        <v>0.7</v>
+      </c>
+      <c r="F13" s="2">
         <v>5.3</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
-        <f>Pomiar!B14</f>
         <v>55</v>
       </c>
       <c r="C14" s="1">
-        <f>Pomiar!C14</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
         <v>7.1</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
-        <f>Pomiar!B15</f>
         <v>60</v>
       </c>
       <c r="C15" s="1">
-        <f>Pomiar!C15</f>
+        <v>1.3</v>
+      </c>
+      <c r="F15" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
-        <f>Pomiar!B16</f>
         <v>65</v>
       </c>
       <c r="C16" s="1">
-        <f>Pomiar!C16</f>
+        <v>1.6</v>
+      </c>
+      <c r="F16" s="2">
         <v>10.7</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
-        <f>Pomiar!B17</f>
         <v>70</v>
       </c>
       <c r="C17" s="1">
-        <f>Pomiar!C17</f>
+        <v>1.9</v>
+      </c>
+      <c r="F17" s="2">
         <v>12.4</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
-        <f>Pomiar!B18</f>
         <v>75</v>
       </c>
       <c r="C18" s="1">
-        <f>Pomiar!C18</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F18" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
-        <f>Pomiar!B19</f>
         <v>80</v>
       </c>
       <c r="C19" s="1">
-        <f>Pomiar!C19</f>
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="2">
         <v>15.4</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
-        <f>Pomiar!B20</f>
         <v>85</v>
       </c>
       <c r="C20" s="1">
-        <f>Pomiar!C20</f>
+        <v>2.7</v>
+      </c>
+      <c r="F20" s="2">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
-        <f>Pomiar!B21</f>
         <v>90</v>
       </c>
       <c r="C21" s="1">
-        <f>Pomiar!C21</f>
+        <v>2.8</v>
+      </c>
+      <c r="F21" s="2">
         <v>17.5</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
-        <f>Pomiar!B22</f>
         <v>95</v>
       </c>
       <c r="C22" s="1">
-        <f>Pomiar!C22</f>
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
-        <f>Pomiar!B23</f>
         <v>100</v>
       </c>
       <c r="C23" s="1">
-        <f>Pomiar!C23</f>
+        <v>3</v>
+      </c>
+      <c r="F23" s="2">
         <v>18.2</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
-        <f>Pomiar!B24</f>
         <v>105</v>
       </c>
       <c r="C24" s="1">
-        <f>Pomiar!C24</f>
+        <v>3</v>
+      </c>
+      <c r="F24" s="2">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
-        <f>Pomiar!B25</f>
         <v>110</v>
       </c>
       <c r="C25" s="1">
-        <f>Pomiar!C25</f>
+        <v>2.9</v>
+      </c>
+      <c r="F25" s="2">
         <v>17.3</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
-        <f>Pomiar!B26</f>
         <v>115</v>
       </c>
       <c r="C26" s="1">
-        <f>Pomiar!C26</f>
+        <v>2.8</v>
+      </c>
+      <c r="F26" s="2">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
-        <f>Pomiar!B27</f>
         <v>120</v>
       </c>
       <c r="C27" s="1">
-        <f>Pomiar!C27</f>
+        <v>2.6</v>
+      </c>
+      <c r="F27" s="2">
         <v>15.3</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
-        <f>Pomiar!B28</f>
         <v>125</v>
       </c>
       <c r="C28" s="1">
-        <f>Pomiar!C28</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F28" s="2">
         <v>13.8</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
-        <f>Pomiar!B29</f>
         <v>130</v>
       </c>
       <c r="C29" s="1">
-        <f>Pomiar!C29</f>
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
         <v>12.2</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
-        <f>Pomiar!B30</f>
         <v>135</v>
       </c>
       <c r="C30" s="1">
-        <f>Pomiar!C30</f>
+        <v>1.7</v>
+      </c>
+      <c r="F30" s="2">
         <v>10.6</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
-        <f>Pomiar!B31</f>
         <v>140</v>
       </c>
       <c r="C31" s="1">
-        <f>Pomiar!C31</f>
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
-        <f>Pomiar!B32</f>
         <v>145</v>
       </c>
       <c r="C32" s="1">
-        <f>Pomiar!C32</f>
+        <v>1.2</v>
+      </c>
+      <c r="F32" s="2">
         <v>7.2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
-        <f>Pomiar!B33</f>
         <v>150</v>
       </c>
       <c r="C33" s="1">
-        <f>Pomiar!C33</f>
+        <v>0.9</v>
+      </c>
+      <c r="F33" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
-        <f>Pomiar!B34</f>
         <v>155</v>
       </c>
       <c r="C34" s="1">
-        <f>Pomiar!C34</f>
+        <v>0.7</v>
+      </c>
+      <c r="F34" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="1">
-        <f>Pomiar!B35</f>
         <v>160</v>
       </c>
       <c r="C35" s="1">
-        <f>Pomiar!C35</f>
+        <v>0.4</v>
+      </c>
+      <c r="F35" s="2">
         <v>2.7</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
-        <f>Pomiar!B36</f>
         <v>165</v>
       </c>
       <c r="C36" s="1">
-        <f>Pomiar!C36</f>
+        <v>0.3</v>
+      </c>
+      <c r="F36" s="2">
         <v>1.7</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="1">
-        <f>Pomiar!B37</f>
         <v>170</v>
       </c>
       <c r="C37" s="1">
-        <f>Pomiar!C37</f>
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="1">
-        <f>Pomiar!B38</f>
         <v>175</v>
       </c>
       <c r="C38" s="1">
-        <f>Pomiar!C38</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
-        <f>Pomiar!B39</f>
         <v>180</v>
       </c>
       <c r="C39" s="1">
-        <f>Pomiar!C39</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="1">
-        <f>Pomiar!B40</f>
         <v>185</v>
       </c>
       <c r="C40" s="1">
-        <f>Pomiar!C40</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="1">
-        <f>Pomiar!B41</f>
         <v>190</v>
       </c>
       <c r="C41" s="1">
-        <f>Pomiar!C41</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="1">
-        <f>Pomiar!B42</f>
         <v>195</v>
       </c>
       <c r="C42" s="1">
-        <f>Pomiar!C42</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="1">
-        <f>Pomiar!B43</f>
         <v>200</v>
       </c>
       <c r="C43" s="1">
-        <f>Pomiar!C43</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="1">
-        <f>Pomiar!B44</f>
         <v>205</v>
       </c>
       <c r="C44" s="1">
-        <f>Pomiar!C44</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="1">
-        <f>Pomiar!B45</f>
         <v>210</v>
       </c>
       <c r="C45" s="1">
-        <f>Pomiar!C45</f>
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="1">
-        <f>Pomiar!B46</f>
         <v>215</v>
       </c>
       <c r="C46" s="1">
-        <f>Pomiar!C46</f>
+        <v>0.2</v>
+      </c>
+      <c r="F46" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="1">
-        <f>Pomiar!B47</f>
         <v>220</v>
       </c>
       <c r="C47" s="1">
-        <f>Pomiar!C47</f>
+        <v>0.3</v>
+      </c>
+      <c r="F47" s="2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="1">
-        <f>Pomiar!B48</f>
         <v>225</v>
       </c>
       <c r="C48" s="1">
-        <f>Pomiar!C48</f>
+        <v>0.4</v>
+      </c>
+      <c r="F48" s="2">
         <v>3.3</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="1">
-        <f>Pomiar!B49</f>
         <v>230</v>
       </c>
       <c r="C49" s="1">
-        <f>Pomiar!C49</f>
+        <v>0.7</v>
+      </c>
+      <c r="F49" s="2">
         <v>4.7</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="1">
-        <f>Pomiar!B50</f>
         <v>235</v>
       </c>
       <c r="C50" s="1">
-        <f>Pomiar!C50</f>
+        <v>0.9</v>
+      </c>
+      <c r="F50" s="2">
         <v>6.7</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="1">
-        <f>Pomiar!B51</f>
         <v>240</v>
       </c>
       <c r="C51" s="1">
-        <f>Pomiar!C51</f>
+        <v>1.2</v>
+      </c>
+      <c r="F51" s="2">
         <v>8.1</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="1">
-        <f>Pomiar!B52</f>
         <v>245</v>
       </c>
       <c r="C52" s="1">
-        <f>Pomiar!C52</f>
+        <v>1.5</v>
+      </c>
+      <c r="F52" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="1">
-        <f>Pomiar!B53</f>
         <v>250</v>
       </c>
       <c r="C53" s="1">
-        <f>Pomiar!C53</f>
+        <v>1.8</v>
+      </c>
+      <c r="F53" s="2">
         <v>11.7</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="1">
-        <f>Pomiar!B54</f>
         <v>255</v>
       </c>
       <c r="C54" s="1">
-        <f>Pomiar!C54</f>
+        <v>2.1</v>
+      </c>
+      <c r="F54" s="2">
         <v>13.3</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="1">
-        <f>Pomiar!B55</f>
         <v>260</v>
       </c>
       <c r="C55" s="1">
-        <f>Pomiar!C55</f>
+        <v>2.4</v>
+      </c>
+      <c r="F55" s="2">
         <v>14.7</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="1">
-        <f>Pomiar!B56</f>
         <v>265</v>
       </c>
       <c r="C56" s="1">
-        <f>Pomiar!C56</f>
+        <v>2.6</v>
+      </c>
+      <c r="F56" s="2">
         <v>15.9</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="1">
-        <f>Pomiar!B57</f>
         <v>270</v>
       </c>
       <c r="C57" s="1">
-        <f>Pomiar!C57</f>
+        <v>2.8</v>
+      </c>
+      <c r="F57" s="2">
         <v>16.7</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="1">
-        <f>Pomiar!B58</f>
         <v>275</v>
       </c>
       <c r="C58" s="1">
-        <f>Pomiar!C58</f>
+        <v>2.8</v>
+      </c>
+      <c r="F58" s="2">
         <v>17.3</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="1">
-        <f>Pomiar!B59</f>
         <v>280</v>
       </c>
       <c r="C59" s="1">
-        <f>Pomiar!C59</f>
+        <v>2.9</v>
+      </c>
+      <c r="F59" s="2">
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="1">
-        <f>Pomiar!B60</f>
         <v>285</v>
       </c>
       <c r="C60" s="1">
-        <f>Pomiar!C60</f>
+        <v>2.9</v>
+      </c>
+      <c r="F60" s="2">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="1">
-        <f>Pomiar!B61</f>
         <v>290</v>
       </c>
       <c r="C61" s="1">
-        <f>Pomiar!C61</f>
+        <v>2.8</v>
+      </c>
+      <c r="F61" s="2">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="1">
-        <f>Pomiar!B62</f>
         <v>295</v>
       </c>
       <c r="C62" s="1">
-        <f>Pomiar!C62</f>
+        <v>2.7</v>
+      </c>
+      <c r="F62" s="2">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" s="1">
-        <f>Pomiar!B63</f>
         <v>300</v>
       </c>
       <c r="C63" s="1">
-        <f>Pomiar!C63</f>
+        <v>2.5</v>
+      </c>
+      <c r="F63" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="1">
-        <f>Pomiar!B64</f>
         <v>305</v>
       </c>
       <c r="C64" s="1">
-        <f>Pomiar!C64</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F64" s="2">
         <v>13.7</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="1">
-        <f>Pomiar!B65</f>
         <v>310</v>
       </c>
       <c r="C65" s="1">
-        <f>Pomiar!C65</f>
+        <v>2</v>
+      </c>
+      <c r="F65" s="2">
         <v>12.1</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="1">
-        <f>Pomiar!B66</f>
         <v>315</v>
       </c>
       <c r="C66" s="1">
-        <f>Pomiar!C66</f>
+        <v>1.7</v>
+      </c>
+      <c r="F66" s="2">
         <v>10.4</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="1">
-        <f>Pomiar!B67</f>
         <v>320</v>
       </c>
       <c r="C67" s="1">
-        <f>Pomiar!C67</f>
+        <v>1.4</v>
+      </c>
+      <c r="F67" s="2">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="1">
-        <f>Pomiar!B68</f>
         <v>325</v>
       </c>
       <c r="C68" s="1">
-        <f>Pomiar!C68</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F68" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="1">
-        <f>Pomiar!B69</f>
         <v>330</v>
       </c>
       <c r="C69" s="1">
-        <f>Pomiar!C69</f>
+        <v>0.9</v>
+      </c>
+      <c r="F69" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="1">
-        <f>Pomiar!B70</f>
         <v>335</v>
       </c>
       <c r="C70" s="1">
-        <f>Pomiar!C70</f>
+        <v>0.7</v>
+      </c>
+      <c r="F70" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="1">
-        <f>Pomiar!B71</f>
         <v>340</v>
       </c>
       <c r="C71" s="1">
-        <f>Pomiar!C71</f>
+        <v>0.5</v>
+      </c>
+      <c r="F71" s="2">
         <v>2.7</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="1">
-        <f>Pomiar!B72</f>
         <v>345</v>
       </c>
       <c r="C72" s="1">
-        <f>Pomiar!C72</f>
+        <v>0.3</v>
+      </c>
+      <c r="F72" s="2">
         <v>1.7</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="1">
-        <f>Pomiar!B73</f>
         <v>350</v>
       </c>
       <c r="C73" s="1">
-        <f>Pomiar!C73</f>
+        <v>0.1</v>
+      </c>
+      <c r="F73" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="1">
-        <f>Pomiar!B74</f>
         <v>355</v>
       </c>
       <c r="C74" s="1">
-        <f>Pomiar!C74</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75" s="1">
-        <f>Pomiar!B75</f>
         <v>360</v>
       </c>
       <c r="C75" s="1">
-        <f>Pomiar!C75</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
         <v>0.1</v>
       </c>
     </row>
@@ -2777,10 +4486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D75"/>
+  <dimension ref="B2:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D75"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="66" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2788,891 +4497,1926 @@
     <col min="1" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="str">
+        <f>Zadania!B2</f>
+        <v>φ, ◦</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>Zadania!C2</f>
+        <v>i, μA</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f t="shared" ref="F2:F33" si="0">B2</f>
+        <v>φ, ◦</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" ref="G2:G33" si="1">C2</f>
+        <v>i, μA</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <f>Zadania!B3</f>
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1">
+        <f>Zadania!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <f>MAX($C$3:$C$75)*(COS(B3*PI()/180)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <f>MOD(B3+80,360)</f>
+        <v>80</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f>MAX($G$3:$G$75)*(COS(F3*PI()/180)^2)</f>
+        <v>9.0461068821137497E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <f>Zadania!B4</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Zadania!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D67" si="2">MAX($C$3:$C$75)*(COS(B4*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F67" si="3">MOD(B4+80,360)</f>
+        <v>85</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H67" si="4">MAX($G$3:$G$75)*(COS(F4*PI()/180)^2)</f>
+        <v>2.2788370481687893E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <f>Zadania!B5</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Zadania!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1257415524237342E-32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <f>Zadania!B6</f>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Zadania!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>2.799038105676658</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2788370481687942E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <f>Zadania!B7</f>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Zadania!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="4"/>
+        <v>9.0461068821137386E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <f>Zadania!B8</f>
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Zadania!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4641814145298087</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20096189432334216</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <f>Zadania!B9</f>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Zadania!C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35093333532153292</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <f>Zadania!B10</f>
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <f>Zadania!C10</f>
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0130302149885031</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.53581858547019068</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <f>Zadania!B11</f>
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <f>Zadania!C11</f>
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7604722665003956</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>0.74999999999999933</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <f>Zadania!B12</f>
+        <v>45</v>
+      </c>
+      <c r="C12" s="1">
+        <f>Zadania!C12</f>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98696978501149601</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <f>Zadania!B13</f>
+        <v>50</v>
+      </c>
+      <c r="C13" s="1">
+        <f>Zadania!C13</f>
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2395277334996044</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2395277334996044</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <f>Zadania!B14</f>
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Zadania!C14</f>
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98696978501149712</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <f>Zadania!B15</f>
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <f>Zadania!C15</f>
+        <v>1.3</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7604722665003947</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <f>Zadania!B16</f>
+        <v>65</v>
+      </c>
+      <c r="C16" s="1">
+        <f>Zadania!C16</f>
+        <v>1.6</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53581858547019101</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0130302149885022</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <f>Zadania!B17</f>
+        <v>70</v>
+      </c>
+      <c r="C17" s="1">
+        <f>Zadania!C17</f>
+        <v>1.9</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35093333532153315</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <f>Zadania!B18</f>
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <f>Zadania!C18</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20096189432334199</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4641814145298087</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <f>Zadania!B19</f>
+        <v>80</v>
+      </c>
+      <c r="C19" s="1">
+        <f>Zadania!C19</f>
+        <v>2.5</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0461068821137497E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6490666646784664</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
+        <f>Zadania!B20</f>
+        <v>85</v>
+      </c>
+      <c r="C20" s="1">
+        <f>Zadania!C20</f>
+        <v>2.7</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2788370481687893E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7990381056766576</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <f>Zadania!B21</f>
+        <v>90</v>
+      </c>
+      <c r="C21" s="1">
+        <f>Zadania!C21</f>
+        <v>2.8</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1257415524237342E-32</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9095389311788624</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <f>Zadania!B22</f>
+        <v>95</v>
+      </c>
+      <c r="C22" s="1">
+        <f>Zadania!C22</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2788370481687942E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
+        <f>Zadania!B23</f>
+        <v>100</v>
+      </c>
+      <c r="C23" s="1">
+        <f>Zadania!C23</f>
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0461068821137386E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
+        <f>Zadania!B24</f>
+        <v>105</v>
+      </c>
+      <c r="C24" s="1">
+        <f>Zadania!C24</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20096189432334216</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <f>Zadania!B25</f>
+        <v>110</v>
+      </c>
+      <c r="C25" s="1">
+        <f>Zadania!C25</f>
+        <v>2.9</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35093333532153292</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9095389311788624</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <f>Zadania!B26</f>
+        <v>115</v>
+      </c>
+      <c r="C26" s="1">
+        <f>Zadania!C26</f>
+        <v>2.8</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53581858547019068</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7990381056766589</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <f>Zadania!B27</f>
+        <v>120</v>
+      </c>
+      <c r="C27" s="1">
+        <f>Zadania!C27</f>
+        <v>2.6</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74999999999999933</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6490666646784673</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="1">
+        <f>Zadania!B28</f>
+        <v>125</v>
+      </c>
+      <c r="C28" s="1">
+        <f>Zadania!C28</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98696978501149601</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4641814145298095</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <f>Zadania!B29</f>
+        <v>130</v>
+      </c>
+      <c r="C29" s="1">
+        <f>Zadania!C29</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="1">
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2395277334996044</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2499999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <f>Zadania!B30</f>
+        <v>135</v>
+      </c>
+      <c r="C30" s="1">
+        <f>Zadania!C30</f>
+        <v>1.7</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999996</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0130302149885044</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="1">
+        <f>Zadania!B31</f>
+        <v>140</v>
+      </c>
+      <c r="C31" s="1">
+        <f>Zadania!C31</f>
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7604722665003947</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7604722665003956</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="1">
+        <f>Zadania!B32</f>
+        <v>145</v>
+      </c>
+      <c r="C32" s="1">
+        <f>Zadania!C32</f>
+        <v>1.2</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0130302149885022</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="1">
+        <f>Zadania!B33</f>
+        <v>150</v>
+      </c>
+      <c r="C33" s="1">
+        <f>Zadania!C33</f>
+        <v>0.9</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2395277334996051</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="1">
+        <f>Zadania!B34</f>
+        <v>155</v>
+      </c>
+      <c r="C34" s="1">
+        <f>Zadania!C34</f>
+        <v>0.7</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4641814145298087</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ref="G34:G65" si="5">C34</f>
+        <v>0.7</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98696978501149779</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="1">
+        <f>Zadania!B35</f>
+        <v>160</v>
+      </c>
+      <c r="C35" s="1">
+        <f>Zadania!C35</f>
+        <v>0.4</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6490666646784664</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75000000000000133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="1">
+        <f>Zadania!B36</f>
+        <v>165</v>
+      </c>
+      <c r="C36" s="1">
+        <f>Zadania!C36</f>
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7990381056766576</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="4"/>
+        <v>0.53581858547019223</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="1">
+        <f>Zadania!B37</f>
+        <v>170</v>
+      </c>
+      <c r="C37" s="1">
+        <f>Zadania!C37</f>
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35093333532153426</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="1">
+        <f>Zadania!B38</f>
+        <v>175</v>
+      </c>
+      <c r="C38" s="1">
+        <f>Zadania!C38</f>
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D38" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20096189432334183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="1">
+        <f>Zadania!B39</f>
+        <v>180</v>
+      </c>
+      <c r="C39" s="1">
+        <f>Zadania!C39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="4"/>
+        <v>9.0461068821137414E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="1">
+        <f>Zadania!B40</f>
+        <v>185</v>
+      </c>
+      <c r="C40" s="1">
+        <f>Zadania!C40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="3"/>
+        <v>265</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2788370481687952E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="1">
+        <f>Zadania!B41</f>
+        <v>190</v>
+      </c>
+      <c r="C41" s="1">
+        <f>Zadania!C41</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0131673971813608E-31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="1">
+        <f>Zadania!B42</f>
+        <v>195</v>
+      </c>
+      <c r="C42" s="1">
+        <f>Zadania!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7990381056766589</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2788370481687761E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="1">
+        <f>Zadania!B43</f>
+        <v>200</v>
+      </c>
+      <c r="C43" s="1">
+        <f>Zadania!C43</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="4"/>
+        <v>9.0461068821137025E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="1">
+        <f>Zadania!B44</f>
+        <v>205</v>
+      </c>
+      <c r="C44" s="1">
+        <f>Zadania!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4641814145298095</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="3"/>
+        <v>285</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2009618943233426</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="1">
+        <f>Zadania!B45</f>
+        <v>210</v>
+      </c>
+      <c r="C45" s="1">
+        <f>Zadania!C45</f>
         <v>0.1</v>
       </c>
-      <c r="D3" s="2">
-        <f>MAX($C$3:$C$75)*(COS(B3*PI()/180)^2)</f>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="1">
+      <c r="D45" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2499999999999996</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="3"/>
+        <v>290</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35093333532153176</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="1">
+        <f>Zadania!B46</f>
+        <v>215</v>
+      </c>
+      <c r="C46" s="1">
+        <f>Zadania!C46</f>
+        <v>0.2</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0130302149885044</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="3"/>
+        <v>295</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="4"/>
+        <v>0.53581858547019146</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
+        <f>Zadania!B47</f>
+        <v>220</v>
+      </c>
+      <c r="C47" s="1">
+        <f>Zadania!C47</f>
+        <v>0.3</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7604722665003956</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75000000000000033</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="1">
+        <f>Zadania!B48</f>
+        <v>225</v>
+      </c>
+      <c r="C48" s="1">
+        <f>Zadania!C48</f>
+        <v>0.4</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000007</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="3"/>
+        <v>305</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98696978501149668</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="1">
+        <f>Zadania!B49</f>
+        <v>230</v>
+      </c>
+      <c r="C49" s="1">
+        <f>Zadania!C49</f>
+        <v>0.7</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2395277334996051</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2395277334996042</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="1">
+        <f>Zadania!B50</f>
+        <v>235</v>
+      </c>
+      <c r="C50" s="1">
+        <f>Zadania!C50</f>
+        <v>0.9</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98696978501149779</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <f>Zadania!B51</f>
+        <v>240</v>
+      </c>
+      <c r="C51" s="1">
+        <f>Zadania!C51</f>
+        <v>1.2</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000133</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7604722665003945</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="1">
+        <f>Zadania!B52</f>
+        <v>245</v>
+      </c>
+      <c r="C52" s="1">
+        <f>Zadania!C52</f>
+        <v>1.5</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53581858547019223</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0130302149885022</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
+        <f>Zadania!B53</f>
+        <v>250</v>
+      </c>
+      <c r="C53" s="1">
+        <f>Zadania!C53</f>
+        <v>1.8</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35093333532153426</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2499999999999987</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="1">
+        <f>Zadania!B54</f>
+        <v>255</v>
+      </c>
+      <c r="C54" s="1">
+        <f>Zadania!C54</f>
+        <v>2.1</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20096189432334183</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="3"/>
+        <v>335</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4641814145298078</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="1">
+        <f>Zadania!B55</f>
+        <v>260</v>
+      </c>
+      <c r="C55" s="1">
+        <f>Zadania!C55</f>
+        <v>2.4</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0461068821137414E-2</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6490666646784673</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" s="1">
+        <f>Zadania!B56</f>
+        <v>265</v>
+      </c>
+      <c r="C56" s="1">
+        <f>Zadania!C56</f>
+        <v>2.6</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2788370481687952E-2</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="4"/>
+        <v>2.799038105676658</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="1">
+        <f>Zadania!B57</f>
+        <v>270</v>
+      </c>
+      <c r="C57" s="1">
+        <f>Zadania!C57</f>
+        <v>2.8</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0131673971813608E-31</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9095389311788615</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" s="1">
+        <f>Zadania!B58</f>
+        <v>275</v>
+      </c>
+      <c r="C58" s="1">
+        <f>Zadania!C58</f>
+        <v>2.8</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2788370481687761E-2</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="3"/>
+        <v>355</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" s="1">
+        <f>Zadania!B59</f>
+        <v>280</v>
+      </c>
+      <c r="C59" s="1">
+        <f>Zadania!C59</f>
+        <v>2.9</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0461068821137025E-2</v>
+      </c>
+      <c r="F59" s="1">
+        <f>360</f>
+        <v>360</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="1">
+        <f>Zadania!B60</f>
+        <v>285</v>
+      </c>
+      <c r="C60" s="1">
+        <f>Zadania!C60</f>
+        <v>2.9</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2009618943233426</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="G60" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="1">
+        <f>Zadania!B61</f>
+        <v>290</v>
+      </c>
+      <c r="C61" s="1">
+        <f>Zadania!C61</f>
+        <v>2.8</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35093333532153176</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9095389311788624</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B62" s="1">
+        <f>Zadania!B62</f>
+        <v>295</v>
+      </c>
+      <c r="C62" s="1">
+        <f>Zadania!C62</f>
+        <v>2.7</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53581858547019146</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="4"/>
+        <v>2.799038105676658</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B63" s="1">
+        <f>Zadania!B63</f>
+        <v>300</v>
+      </c>
+      <c r="C63" s="1">
+        <f>Zadania!C63</f>
+        <v>2.5</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6490666646784673</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B64" s="1">
+        <f>Zadania!B64</f>
+        <v>305</v>
+      </c>
+      <c r="C64" s="1">
+        <f>Zadania!C64</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98696978501149668</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4641814145298087</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B65" s="1">
+        <f>Zadania!B65</f>
+        <v>310</v>
+      </c>
+      <c r="C65" s="1">
+        <f>Zadania!C65</f>
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2395277334996042</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B66" s="1">
+        <f>Zadania!B66</f>
+        <v>315</v>
+      </c>
+      <c r="C66" s="1">
+        <f>Zadania!C66</f>
+        <v>1.7</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999993</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" ref="G66:G75" si="6">C66</f>
+        <v>1.7</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0130302149885031</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B67" s="1">
+        <f>Zadania!B67</f>
+        <v>320</v>
+      </c>
+      <c r="C67" s="1">
+        <f>Zadania!C67</f>
+        <v>1.4</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7604722665003945</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7604722665003956</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B68" s="1">
+        <f>Zadania!B68</f>
+        <v>325</v>
+      </c>
+      <c r="C68" s="1">
+        <f>Zadania!C68</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" ref="D68:D75" si="7">MAX($C$3:$C$75)*(COS(B68*PI()/180)^2)</f>
+        <v>2.0130302149885022</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" ref="F68:F75" si="8">MOD(B68+80,360)</f>
+        <v>45</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" ref="H68:H75" si="9">MAX($G$3:$G$75)*(COS(F68*PI()/180)^2)</f>
+        <v>1.5000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B69" s="1">
+        <f>Zadania!B69</f>
+        <v>330</v>
+      </c>
+      <c r="C69" s="1">
+        <f>Zadania!C69</f>
+        <v>0.9</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="7"/>
+        <v>2.2499999999999987</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="9"/>
+        <v>1.2395277334996044</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" s="1">
+        <f>Zadania!B70</f>
+        <v>335</v>
+      </c>
+      <c r="C70" s="1">
+        <f>Zadania!C70</f>
+        <v>0.7</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="7"/>
+        <v>2.4641814145298078</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="9"/>
+        <v>0.98696978501149712</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="1">
+        <f>Zadania!B71</f>
+        <v>340</v>
+      </c>
+      <c r="C71" s="1">
+        <f>Zadania!C71</f>
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="7"/>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="9"/>
+        <v>0.75000000000000033</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="1">
+        <f>Zadania!B72</f>
+        <v>345</v>
+      </c>
+      <c r="C72" s="1">
+        <f>Zadania!C72</f>
+        <v>0.3</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="7"/>
+        <v>2.799038105676658</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="9"/>
+        <v>0.53581858547019101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="1">
+        <f>Zadania!B73</f>
+        <v>350</v>
+      </c>
+      <c r="C73" s="1">
+        <f>Zadania!C73</f>
+        <v>0.1</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="7"/>
+        <v>2.9095389311788615</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="9"/>
+        <v>0.35093333532153315</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="1">
+        <f>Zadania!B74</f>
+        <v>355</v>
+      </c>
+      <c r="C74" s="1">
+        <f>Zadania!C74</f>
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D67" si="0">MAX($C$3:$C$75)*(COS(B4*PI()/180)^2)</f>
-        <v>18.061750552411095</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="D74" s="1">
+        <f t="shared" si="7"/>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>17.651202849151765</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="H74" s="1">
+        <f t="shared" si="9"/>
+        <v>0.20096189432334199</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="1">
+        <f>Zadania!B75</f>
+        <v>360</v>
+      </c>
+      <c r="C75" s="1">
+        <f>Zadania!C75</f>
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>16.980831174438393</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="1">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>16.071004432382701</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>14.949367248147507</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="1">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>13.650000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="1">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>12.212383304263584</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="1">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>10.680198416769066</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="1">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>9.1000000000000014</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="1">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>7.519801583230934</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="1">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>5.9876166957364161</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="1">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5500000000000016</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="1">
-        <v>65</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2506327518524922</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="1">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1289955676173009</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="1">
-        <v>75</v>
-      </c>
-      <c r="C18" s="1">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>1.219168825561608</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="1">
+      <c r="D75" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="C19" s="1">
-        <v>15.4</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54879715084823411</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="1">
-        <v>85</v>
-      </c>
-      <c r="C20" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13824944758890653</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="1">
-        <v>90</v>
-      </c>
-      <c r="C21" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>6.8294987513706541E-32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="1">
-        <v>95</v>
-      </c>
-      <c r="C22" s="1">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13824944758890687</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="1">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54879715084823344</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="1">
-        <v>105</v>
-      </c>
-      <c r="C24" s="1">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2191688255616089</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="1">
-        <v>110</v>
-      </c>
-      <c r="C25" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1289955676172996</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="1">
-        <v>115</v>
-      </c>
-      <c r="C26" s="1">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>3.25063275185249</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="1">
-        <v>120</v>
-      </c>
-      <c r="C27" s="1">
-        <v>15.3</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5499999999999954</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="1">
-        <v>125</v>
-      </c>
-      <c r="C28" s="1">
-        <v>13.8</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>5.987616695736409</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="1">
-        <v>130</v>
-      </c>
-      <c r="C29" s="1">
-        <v>12.2</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>7.519801583230934</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="1">
-        <v>135</v>
-      </c>
-      <c r="C30" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>9.0999999999999979</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="1">
-        <v>140</v>
-      </c>
-      <c r="C31" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>10.680198416769061</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="1">
-        <v>145</v>
-      </c>
-      <c r="C32" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>12.212383304263579</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="1">
-        <v>150</v>
-      </c>
-      <c r="C33" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>13.650000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="1">
-        <v>155</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>14.949367248147507</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="1">
-        <v>160</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>16.071004432382697</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="1">
-        <v>165</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>16.980831174438389</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="1">
-        <v>170</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="0"/>
-        <v>17.651202849151765</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="1">
-        <v>175</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="0"/>
-        <v>18.061750552411095</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="1">
-        <v>180</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="0"/>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="1">
-        <v>185</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="G75" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D40" s="2">
-        <f t="shared" si="0"/>
-        <v>18.061750552411095</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="1">
-        <v>190</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="0"/>
-        <v>17.651202849151765</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="1">
-        <v>195</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="0"/>
-        <v>16.980831174438396</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="1">
-        <v>200</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="0"/>
-        <v>16.071004432382701</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="1">
-        <v>205</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="0"/>
-        <v>14.94936724814751</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="1">
-        <v>210</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="0"/>
-        <v>13.649999999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="1">
-        <v>215</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" si="0"/>
-        <v>12.212383304263593</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="1">
-        <v>220</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" si="0"/>
-        <v>10.680198416769066</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="1">
-        <v>225</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="0"/>
-        <v>9.1000000000000032</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="1">
-        <v>230</v>
-      </c>
-      <c r="C49" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" si="0"/>
-        <v>7.5198015832309366</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="1">
-        <v>235</v>
-      </c>
-      <c r="C50" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" si="0"/>
-        <v>5.9876166957364196</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="1">
-        <v>240</v>
-      </c>
-      <c r="C51" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5500000000000078</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="1">
-        <v>245</v>
-      </c>
-      <c r="C52" s="1">
-        <v>10</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2506327518524998</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="1">
-        <v>250</v>
-      </c>
-      <c r="C53" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="0"/>
-        <v>2.128995567617308</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B54" s="1">
-        <v>255</v>
-      </c>
-      <c r="C54" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2191688255616069</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B55" s="1">
-        <v>260</v>
-      </c>
-      <c r="C55" s="1">
-        <v>14.7</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54879715084823355</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="1">
-        <v>265</v>
-      </c>
-      <c r="C56" s="1">
-        <v>15.9</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13824944758890689</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B57" s="1">
-        <v>270</v>
-      </c>
-      <c r="C57" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="D57" s="2">
-        <f t="shared" si="0"/>
-        <v>6.1465488762335887E-31</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B58" s="1">
-        <v>275</v>
-      </c>
-      <c r="C58" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13824944758890576</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B59" s="1">
-        <v>280</v>
-      </c>
-      <c r="C59" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54879715084823122</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B60" s="1">
-        <v>285</v>
-      </c>
-      <c r="C60" s="1">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2191688255616118</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B61" s="1">
-        <v>290</v>
-      </c>
-      <c r="C61" s="1">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1289955676172925</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B62" s="1">
-        <v>295</v>
-      </c>
-      <c r="C62" s="1">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D62" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2506327518524949</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B63" s="1">
-        <v>300</v>
-      </c>
-      <c r="C63" s="1">
-        <v>15</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5500000000000016</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B64" s="1">
-        <v>305</v>
-      </c>
-      <c r="C64" s="1">
-        <v>13.7</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" si="0"/>
-        <v>5.9876166957364125</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B65" s="1">
-        <v>310</v>
-      </c>
-      <c r="C65" s="1">
-        <v>12.1</v>
-      </c>
-      <c r="D65" s="2">
-        <f t="shared" si="0"/>
-        <v>7.5198015832309322</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B66" s="1">
-        <v>315</v>
-      </c>
-      <c r="C66" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="D66" s="2">
-        <f t="shared" si="0"/>
-        <v>9.0999999999999961</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="1">
-        <v>320</v>
-      </c>
-      <c r="C67" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D67" s="2">
-        <f t="shared" si="0"/>
-        <v>10.680198416769059</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="1">
-        <v>325</v>
-      </c>
-      <c r="C68" s="1">
-        <v>7</v>
-      </c>
-      <c r="D68" s="2">
-        <f t="shared" ref="D68:D75" si="1">MAX($C$3:$C$75)*(COS(B68*PI()/180)^2)</f>
-        <v>12.212383304263579</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="1">
-        <v>330</v>
-      </c>
-      <c r="C69" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="D69" s="2">
-        <f t="shared" si="1"/>
-        <v>13.649999999999991</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B70" s="1">
-        <v>335</v>
-      </c>
-      <c r="C70" s="1">
-        <v>4</v>
-      </c>
-      <c r="D70" s="2">
-        <f t="shared" si="1"/>
-        <v>14.949367248147498</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="1">
-        <v>340</v>
-      </c>
-      <c r="C71" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="D71" s="2">
-        <f t="shared" si="1"/>
-        <v>16.071004432382701</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="1">
-        <v>345</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="D72" s="2">
-        <f t="shared" si="1"/>
-        <v>16.980831174438393</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="1">
-        <v>350</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="2">
-        <f t="shared" si="1"/>
-        <v>17.651202849151758</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="1">
-        <v>355</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D74" s="2">
-        <f t="shared" si="1"/>
-        <v>18.061750552411095</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="1">
-        <v>360</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D75" s="2">
-        <f t="shared" si="1"/>
-        <v>18.2</v>
+      <c r="H75" s="1">
+        <f t="shared" si="9"/>
+        <v>9.0461068821137497E-2</v>
       </c>
     </row>
   </sheetData>

--- a/10/10.xlsx
+++ b/10/10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558F06B-30E5-4602-81AF-514424A80720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F186A9-F92F-4ED7-A806-551FFB706108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadania" sheetId="2" r:id="rId1"/>
@@ -55,6 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,12 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -217,7 +223,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -749,7 +755,7 @@
             <c:numRef>
               <c:f>Pomiar!$D$3:$D$75</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
@@ -1031,7 +1037,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="366414928"/>
@@ -1090,7 +1096,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="366415888"/>
@@ -1132,7 +1138,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1162,7 +1168,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1266,7 +1272,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1798,7 +1804,7 @@
             <c:numRef>
               <c:f>Pomiar!$H$3:$H$75</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>9.0461068821137497E-2</c:v>
@@ -1972,52 +1978,52 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>2.9772116295183122</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>2.9095389311788624</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>2.799038105676658</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>2.6490666646784673</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>2.4641814145298087</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>2.2500000000000004</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>2.0130302149885031</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>1.7604722665003956</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>1.5000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>1.2395277334996044</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>0.98696978501149712</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>0.75000000000000033</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>0.53581858547019101</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>0.35093333532153315</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>0.20096189432334199</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9.0461068821137497E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2080,7 +2086,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="366414928"/>
@@ -2139,7 +2145,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="366415888"/>
@@ -2181,7 +2187,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2211,7 +2217,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3352,16 +3358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>81204</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>147879</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3660,12 +3666,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +3682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>5</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>10</v>
       </c>
@@ -3709,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>15</v>
       </c>
@@ -3720,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>20</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>25</v>
       </c>
@@ -3742,7 +3748,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>30</v>
       </c>
@@ -3753,7 +3759,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>35</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>40</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>45</v>
       </c>
@@ -3786,7 +3792,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>50</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>55</v>
       </c>
@@ -3808,7 +3814,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>60</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>65</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>70</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>75</v>
       </c>
@@ -3852,7 +3858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>80</v>
       </c>
@@ -3863,7 +3869,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>85</v>
       </c>
@@ -3874,7 +3880,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>90</v>
       </c>
@@ -3885,7 +3891,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>95</v>
       </c>
@@ -3896,7 +3902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>100</v>
       </c>
@@ -3907,7 +3913,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>105</v>
       </c>
@@ -3918,7 +3924,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>110</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>115</v>
       </c>
@@ -3940,7 +3946,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>120</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>125</v>
       </c>
@@ -3962,7 +3968,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>130</v>
       </c>
@@ -3973,7 +3979,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>135</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>140</v>
       </c>
@@ -3995,7 +4001,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>145</v>
       </c>
@@ -4006,7 +4012,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>150</v>
       </c>
@@ -4017,7 +4023,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>155</v>
       </c>
@@ -4028,7 +4034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>160</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>165</v>
       </c>
@@ -4050,7 +4056,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>170</v>
       </c>
@@ -4061,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>175</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>180</v>
       </c>
@@ -4083,7 +4089,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>185</v>
       </c>
@@ -4094,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>190</v>
       </c>
@@ -4105,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>195</v>
       </c>
@@ -4116,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>200</v>
       </c>
@@ -4127,7 +4133,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>205</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>210</v>
       </c>
@@ -4149,7 +4155,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>215</v>
       </c>
@@ -4160,7 +4166,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>220</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>225</v>
       </c>
@@ -4182,7 +4188,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>230</v>
       </c>
@@ -4193,7 +4199,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>235</v>
       </c>
@@ -4204,7 +4210,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>240</v>
       </c>
@@ -4215,7 +4221,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>245</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>250</v>
       </c>
@@ -4237,7 +4243,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>255</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>260</v>
       </c>
@@ -4259,7 +4265,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>265</v>
       </c>
@@ -4270,7 +4276,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>270</v>
       </c>
@@ -4281,7 +4287,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>275</v>
       </c>
@@ -4292,7 +4298,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>280</v>
       </c>
@@ -4303,7 +4309,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>285</v>
       </c>
@@ -4314,7 +4320,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>290</v>
       </c>
@@ -4325,7 +4331,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>295</v>
       </c>
@@ -4336,7 +4342,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>300</v>
       </c>
@@ -4347,7 +4353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>305</v>
       </c>
@@ -4358,7 +4364,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>310</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>315</v>
       </c>
@@ -4380,7 +4386,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>320</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>325</v>
       </c>
@@ -4402,7 +4408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>330</v>
       </c>
@@ -4413,7 +4419,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>335</v>
       </c>
@@ -4424,7 +4430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>340</v>
       </c>
@@ -4435,7 +4441,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>345</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>350</v>
       </c>
@@ -4457,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>355</v>
       </c>
@@ -4468,7 +4474,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>360</v>
       </c>
@@ -4488,16 +4494,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="66" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="3" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" style="2"/>
+    <col min="8" max="8" width="9.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="str">
         <f>Zadania!B2</f>
         <v>φ, ◦</v>
@@ -4510,18 +4520,18 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F33" si="0">B2</f>
+        <f t="shared" ref="F2" si="0">B2</f>
         <v>φ, ◦</v>
       </c>
       <c r="G2" s="1" t="str">
         <f t="shared" ref="G2:G33" si="1">C2</f>
         <v>i, μA</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f>Zadania!B3</f>
         <v>0</v>
@@ -4530,7 +4540,7 @@
         <f>Zadania!C3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <f>MAX($C$3:$C$75)*(COS(B3*PI()/180)^2)</f>
         <v>3</v>
       </c>
@@ -4542,12 +4552,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <f>MAX($G$3:$G$75)*(COS(F3*PI()/180)^2)</f>
         <v>9.0461068821137497E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>Zadania!B4</f>
         <v>5</v>
@@ -4556,7 +4566,7 @@
         <f>Zadania!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D67" si="2">MAX($C$3:$C$75)*(COS(B4*PI()/180)^2)</f>
         <v>2.9772116295183122</v>
       </c>
@@ -4568,12 +4578,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H67" si="4">MAX($G$3:$G$75)*(COS(F4*PI()/180)^2)</f>
         <v>2.2788370481687893E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>Zadania!B5</f>
         <v>10</v>
@@ -4582,7 +4592,7 @@
         <f>Zadania!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <f t="shared" si="2"/>
         <v>2.9095389311788624</v>
       </c>
@@ -4594,12 +4604,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <f t="shared" si="4"/>
         <v>1.1257415524237342E-32</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f>Zadania!B6</f>
         <v>15</v>
@@ -4608,7 +4618,7 @@
         <f>Zadania!C6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <f t="shared" si="2"/>
         <v>2.799038105676658</v>
       </c>
@@ -4620,12 +4630,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <f t="shared" si="4"/>
         <v>2.2788370481687942E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f>Zadania!B7</f>
         <v>20</v>
@@ -4634,7 +4644,7 @@
         <f>Zadania!C7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <f t="shared" si="2"/>
         <v>2.6490666646784673</v>
       </c>
@@ -4646,12 +4656,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <f t="shared" si="4"/>
         <v>9.0461068821137386E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f>Zadania!B8</f>
         <v>25</v>
@@ -4660,7 +4670,7 @@
         <f>Zadania!C8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <f t="shared" si="2"/>
         <v>2.4641814145298087</v>
       </c>
@@ -4672,12 +4682,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <f t="shared" si="4"/>
         <v>0.20096189432334216</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f>Zadania!B9</f>
         <v>30</v>
@@ -4686,7 +4696,7 @@
         <f>Zadania!C9</f>
         <v>0.1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <f t="shared" si="2"/>
         <v>2.2500000000000004</v>
       </c>
@@ -4698,12 +4708,12 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <f t="shared" si="4"/>
         <v>0.35093333532153292</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f>Zadania!B10</f>
         <v>35</v>
@@ -4712,7 +4722,7 @@
         <f>Zadania!C10</f>
         <v>0.2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <f t="shared" si="2"/>
         <v>2.0130302149885031</v>
       </c>
@@ -4724,12 +4734,12 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <f t="shared" si="4"/>
         <v>0.53581858547019068</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f>Zadania!B11</f>
         <v>40</v>
@@ -4738,7 +4748,7 @@
         <f>Zadania!C11</f>
         <v>0.3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <f t="shared" si="2"/>
         <v>1.7604722665003956</v>
       </c>
@@ -4750,12 +4760,12 @@
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="3">
         <f t="shared" si="4"/>
         <v>0.74999999999999933</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f>Zadania!B12</f>
         <v>45</v>
@@ -4764,7 +4774,7 @@
         <f>Zadania!C12</f>
         <v>0.5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <f t="shared" si="2"/>
         <v>1.5000000000000004</v>
       </c>
@@ -4776,12 +4786,12 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <f t="shared" si="4"/>
         <v>0.98696978501149601</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f>Zadania!B13</f>
         <v>50</v>
@@ -4790,7 +4800,7 @@
         <f>Zadania!C13</f>
         <v>0.7</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <f t="shared" si="2"/>
         <v>1.2395277334996044</v>
       </c>
@@ -4802,12 +4812,12 @@
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <f t="shared" si="4"/>
         <v>1.2395277334996044</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f>Zadania!B14</f>
         <v>55</v>
@@ -4816,7 +4826,7 @@
         <f>Zadania!C14</f>
         <v>1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <f t="shared" si="2"/>
         <v>0.98696978501149712</v>
       </c>
@@ -4828,12 +4838,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <f t="shared" si="4"/>
         <v>1.4999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f>Zadania!B15</f>
         <v>60</v>
@@ -4842,7 +4852,7 @@
         <f>Zadania!C15</f>
         <v>1.3</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <f t="shared" si="2"/>
         <v>0.75000000000000033</v>
       </c>
@@ -4854,12 +4864,12 @@
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <f t="shared" si="4"/>
         <v>1.7604722665003947</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f>Zadania!B16</f>
         <v>65</v>
@@ -4868,7 +4878,7 @@
         <f>Zadania!C16</f>
         <v>1.6</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <f t="shared" si="2"/>
         <v>0.53581858547019101</v>
       </c>
@@ -4880,12 +4890,12 @@
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <f t="shared" si="4"/>
         <v>2.0130302149885022</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f>Zadania!B17</f>
         <v>70</v>
@@ -4894,7 +4904,7 @@
         <f>Zadania!C17</f>
         <v>1.9</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <f t="shared" si="2"/>
         <v>0.35093333532153315</v>
       </c>
@@ -4906,12 +4916,12 @@
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <f t="shared" si="4"/>
         <v>2.2500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f>Zadania!B18</f>
         <v>75</v>
@@ -4920,7 +4930,7 @@
         <f>Zadania!C18</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <f t="shared" si="2"/>
         <v>0.20096189432334199</v>
       </c>
@@ -4932,12 +4942,12 @@
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="3">
         <f t="shared" si="4"/>
         <v>2.4641814145298087</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f>Zadania!B19</f>
         <v>80</v>
@@ -4946,7 +4956,7 @@
         <f>Zadania!C19</f>
         <v>2.5</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <f t="shared" si="2"/>
         <v>9.0461068821137497E-2</v>
       </c>
@@ -4958,12 +4968,12 @@
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="3">
         <f t="shared" si="4"/>
         <v>2.6490666646784664</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f>Zadania!B20</f>
         <v>85</v>
@@ -4972,7 +4982,7 @@
         <f>Zadania!C20</f>
         <v>2.7</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <f t="shared" si="2"/>
         <v>2.2788370481687893E-2</v>
       </c>
@@ -4984,12 +4994,12 @@
         <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="3">
         <f t="shared" si="4"/>
         <v>2.7990381056766576</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f>Zadania!B21</f>
         <v>90</v>
@@ -4998,7 +5008,7 @@
         <f>Zadania!C21</f>
         <v>2.8</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <f t="shared" si="2"/>
         <v>1.1257415524237342E-32</v>
       </c>
@@ -5010,12 +5020,12 @@
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="3">
         <f t="shared" si="4"/>
         <v>2.9095389311788624</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f>Zadania!B22</f>
         <v>95</v>
@@ -5024,7 +5034,7 @@
         <f>Zadania!C22</f>
         <v>3</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <f t="shared" si="2"/>
         <v>2.2788370481687942E-2</v>
       </c>
@@ -5036,12 +5046,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="3">
         <f t="shared" si="4"/>
         <v>2.9772116295183122</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f>Zadania!B23</f>
         <v>100</v>
@@ -5050,7 +5060,7 @@
         <f>Zadania!C23</f>
         <v>3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <f t="shared" si="2"/>
         <v>9.0461068821137386E-2</v>
       </c>
@@ -5062,12 +5072,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f>Zadania!B24</f>
         <v>105</v>
@@ -5076,7 +5086,7 @@
         <f>Zadania!C24</f>
         <v>3</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <f t="shared" si="2"/>
         <v>0.20096189432334216</v>
       </c>
@@ -5088,12 +5098,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="3">
         <f t="shared" si="4"/>
         <v>2.9772116295183122</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f>Zadania!B25</f>
         <v>110</v>
@@ -5102,7 +5112,7 @@
         <f>Zadania!C25</f>
         <v>2.9</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <f t="shared" si="2"/>
         <v>0.35093333532153292</v>
       </c>
@@ -5114,12 +5124,12 @@
         <f t="shared" si="1"/>
         <v>2.9</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="3">
         <f t="shared" si="4"/>
         <v>2.9095389311788624</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f>Zadania!B26</f>
         <v>115</v>
@@ -5128,7 +5138,7 @@
         <f>Zadania!C26</f>
         <v>2.8</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <f t="shared" si="2"/>
         <v>0.53581858547019068</v>
       </c>
@@ -5140,12 +5150,12 @@
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="3">
         <f t="shared" si="4"/>
         <v>2.7990381056766589</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f>Zadania!B27</f>
         <v>120</v>
@@ -5154,7 +5164,7 @@
         <f>Zadania!C27</f>
         <v>2.6</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <f t="shared" si="2"/>
         <v>0.74999999999999933</v>
       </c>
@@ -5166,12 +5176,12 @@
         <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="3">
         <f t="shared" si="4"/>
         <v>2.6490666646784673</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f>Zadania!B28</f>
         <v>125</v>
@@ -5180,7 +5190,7 @@
         <f>Zadania!C28</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <f t="shared" si="2"/>
         <v>0.98696978501149601</v>
       </c>
@@ -5192,12 +5202,12 @@
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="3">
         <f t="shared" si="4"/>
         <v>2.4641814145298095</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f>Zadania!B29</f>
         <v>130</v>
@@ -5206,7 +5216,7 @@
         <f>Zadania!C29</f>
         <v>2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <f t="shared" si="2"/>
         <v>1.2395277334996044</v>
       </c>
@@ -5218,12 +5228,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="3">
         <f t="shared" si="4"/>
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f>Zadania!B30</f>
         <v>135</v>
@@ -5232,7 +5242,7 @@
         <f>Zadania!C30</f>
         <v>1.7</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <f t="shared" si="2"/>
         <v>1.4999999999999996</v>
       </c>
@@ -5244,12 +5254,12 @@
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="3">
         <f t="shared" si="4"/>
         <v>2.0130302149885044</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f>Zadania!B31</f>
         <v>140</v>
@@ -5258,7 +5268,7 @@
         <f>Zadania!C31</f>
         <v>1.5</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <f t="shared" si="2"/>
         <v>1.7604722665003947</v>
       </c>
@@ -5270,12 +5280,12 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <f t="shared" si="4"/>
         <v>1.7604722665003956</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f>Zadania!B32</f>
         <v>145</v>
@@ -5284,7 +5294,7 @@
         <f>Zadania!C32</f>
         <v>1.2</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <f t="shared" si="2"/>
         <v>2.0130302149885022</v>
       </c>
@@ -5296,12 +5306,12 @@
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="3">
         <f t="shared" si="4"/>
         <v>1.5000000000000007</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f>Zadania!B33</f>
         <v>150</v>
@@ -5310,7 +5320,7 @@
         <f>Zadania!C33</f>
         <v>0.9</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <f t="shared" si="2"/>
         <v>2.2500000000000004</v>
       </c>
@@ -5322,12 +5332,12 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <f t="shared" si="4"/>
         <v>1.2395277334996051</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f>Zadania!B34</f>
         <v>155</v>
@@ -5336,7 +5346,7 @@
         <f>Zadania!C34</f>
         <v>0.7</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <f t="shared" si="2"/>
         <v>2.4641814145298087</v>
       </c>
@@ -5348,12 +5358,12 @@
         <f t="shared" ref="G34:G65" si="5">C34</f>
         <v>0.7</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="3">
         <f t="shared" si="4"/>
         <v>0.98696978501149779</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f>Zadania!B35</f>
         <v>160</v>
@@ -5362,7 +5372,7 @@
         <f>Zadania!C35</f>
         <v>0.4</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <f t="shared" si="2"/>
         <v>2.6490666646784664</v>
       </c>
@@ -5374,12 +5384,12 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="3">
         <f t="shared" si="4"/>
         <v>0.75000000000000133</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f>Zadania!B36</f>
         <v>165</v>
@@ -5388,7 +5398,7 @@
         <f>Zadania!C36</f>
         <v>0.3</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <f t="shared" si="2"/>
         <v>2.7990381056766576</v>
       </c>
@@ -5400,12 +5410,12 @@
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="3">
         <f t="shared" si="4"/>
         <v>0.53581858547019223</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f>Zadania!B37</f>
         <v>170</v>
@@ -5414,7 +5424,7 @@
         <f>Zadania!C37</f>
         <v>0.1</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <f t="shared" si="2"/>
         <v>2.9095389311788624</v>
       </c>
@@ -5426,12 +5436,12 @@
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="3">
         <f t="shared" si="4"/>
         <v>0.35093333532153426</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f>Zadania!B38</f>
         <v>175</v>
@@ -5440,7 +5450,7 @@
         <f>Zadania!C38</f>
         <v>0</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <f t="shared" si="2"/>
         <v>2.9772116295183122</v>
       </c>
@@ -5452,12 +5462,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <f t="shared" si="4"/>
         <v>0.20096189432334183</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f>Zadania!B39</f>
         <v>180</v>
@@ -5466,7 +5476,7 @@
         <f>Zadania!C39</f>
         <v>0</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -5478,12 +5488,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="3">
         <f t="shared" si="4"/>
         <v>9.0461068821137414E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f>Zadania!B40</f>
         <v>185</v>
@@ -5492,7 +5502,7 @@
         <f>Zadania!C40</f>
         <v>0</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3">
         <f t="shared" si="2"/>
         <v>2.9772116295183122</v>
       </c>
@@ -5504,12 +5514,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="3">
         <f t="shared" si="4"/>
         <v>2.2788370481687952E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f>Zadania!B41</f>
         <v>190</v>
@@ -5518,7 +5528,7 @@
         <f>Zadania!C41</f>
         <v>0</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="3">
         <f t="shared" si="2"/>
         <v>2.9095389311788624</v>
       </c>
@@ -5530,12 +5540,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="3">
         <f t="shared" si="4"/>
         <v>1.0131673971813608E-31</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f>Zadania!B42</f>
         <v>195</v>
@@ -5544,7 +5554,7 @@
         <f>Zadania!C42</f>
         <v>0</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <f t="shared" si="2"/>
         <v>2.7990381056766589</v>
       </c>
@@ -5556,12 +5566,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="3">
         <f t="shared" si="4"/>
         <v>2.2788370481687761E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <f>Zadania!B43</f>
         <v>200</v>
@@ -5570,7 +5580,7 @@
         <f>Zadania!C43</f>
         <v>0</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <f t="shared" si="2"/>
         <v>2.6490666646784673</v>
       </c>
@@ -5582,12 +5592,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="3">
         <f t="shared" si="4"/>
         <v>9.0461068821137025E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <f>Zadania!B44</f>
         <v>205</v>
@@ -5596,7 +5606,7 @@
         <f>Zadania!C44</f>
         <v>0</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <f t="shared" si="2"/>
         <v>2.4641814145298095</v>
       </c>
@@ -5608,12 +5618,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="3">
         <f t="shared" si="4"/>
         <v>0.2009618943233426</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f>Zadania!B45</f>
         <v>210</v>
@@ -5622,7 +5632,7 @@
         <f>Zadania!C45</f>
         <v>0.1</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <f t="shared" si="2"/>
         <v>2.2499999999999996</v>
       </c>
@@ -5634,12 +5644,12 @@
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="3">
         <f t="shared" si="4"/>
         <v>0.35093333532153176</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <f>Zadania!B46</f>
         <v>215</v>
@@ -5648,7 +5658,7 @@
         <f>Zadania!C46</f>
         <v>0.2</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="3">
         <f t="shared" si="2"/>
         <v>2.0130302149885044</v>
       </c>
@@ -5660,12 +5670,12 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="3">
         <f t="shared" si="4"/>
         <v>0.53581858547019146</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <f>Zadania!B47</f>
         <v>220</v>
@@ -5674,7 +5684,7 @@
         <f>Zadania!C47</f>
         <v>0.3</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3">
         <f t="shared" si="2"/>
         <v>1.7604722665003956</v>
       </c>
@@ -5686,12 +5696,12 @@
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="3">
         <f t="shared" si="4"/>
         <v>0.75000000000000033</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <f>Zadania!B48</f>
         <v>225</v>
@@ -5700,7 +5710,7 @@
         <f>Zadania!C48</f>
         <v>0.4</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <f t="shared" si="2"/>
         <v>1.5000000000000007</v>
       </c>
@@ -5712,12 +5722,12 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="3">
         <f t="shared" si="4"/>
         <v>0.98696978501149668</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <f>Zadania!B49</f>
         <v>230</v>
@@ -5726,7 +5736,7 @@
         <f>Zadania!C49</f>
         <v>0.7</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <f t="shared" si="2"/>
         <v>1.2395277334996051</v>
       </c>
@@ -5738,12 +5748,12 @@
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="3">
         <f t="shared" si="4"/>
         <v>1.2395277334996042</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <f>Zadania!B50</f>
         <v>235</v>
@@ -5752,7 +5762,7 @@
         <f>Zadania!C50</f>
         <v>0.9</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="3">
         <f t="shared" si="2"/>
         <v>0.98696978501149779</v>
       </c>
@@ -5764,12 +5774,12 @@
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="3">
         <f t="shared" si="4"/>
         <v>1.4999999999999993</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <f>Zadania!B51</f>
         <v>240</v>
@@ -5778,7 +5788,7 @@
         <f>Zadania!C51</f>
         <v>1.2</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="3">
         <f t="shared" si="2"/>
         <v>0.75000000000000133</v>
       </c>
@@ -5790,12 +5800,12 @@
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="3">
         <f t="shared" si="4"/>
         <v>1.7604722665003945</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <f>Zadania!B52</f>
         <v>245</v>
@@ -5804,7 +5814,7 @@
         <f>Zadania!C52</f>
         <v>1.5</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <f t="shared" si="2"/>
         <v>0.53581858547019223</v>
       </c>
@@ -5816,12 +5826,12 @@
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="3">
         <f t="shared" si="4"/>
         <v>2.0130302149885022</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <f>Zadania!B53</f>
         <v>250</v>
@@ -5830,7 +5840,7 @@
         <f>Zadania!C53</f>
         <v>1.8</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="3">
         <f t="shared" si="2"/>
         <v>0.35093333532153426</v>
       </c>
@@ -5842,12 +5852,12 @@
         <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="3">
         <f t="shared" si="4"/>
         <v>2.2499999999999987</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <f>Zadania!B54</f>
         <v>255</v>
@@ -5856,7 +5866,7 @@
         <f>Zadania!C54</f>
         <v>2.1</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <f t="shared" si="2"/>
         <v>0.20096189432334183</v>
       </c>
@@ -5868,12 +5878,12 @@
         <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="3">
         <f t="shared" si="4"/>
         <v>2.4641814145298078</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <f>Zadania!B55</f>
         <v>260</v>
@@ -5882,7 +5892,7 @@
         <f>Zadania!C55</f>
         <v>2.4</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <f t="shared" si="2"/>
         <v>9.0461068821137414E-2</v>
       </c>
@@ -5894,12 +5904,12 @@
         <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="3">
         <f t="shared" si="4"/>
         <v>2.6490666646784673</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <f>Zadania!B56</f>
         <v>265</v>
@@ -5908,7 +5918,7 @@
         <f>Zadania!C56</f>
         <v>2.6</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="3">
         <f t="shared" si="2"/>
         <v>2.2788370481687952E-2</v>
       </c>
@@ -5920,12 +5930,12 @@
         <f t="shared" si="5"/>
         <v>2.6</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="3">
         <f t="shared" si="4"/>
         <v>2.799038105676658</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f>Zadania!B57</f>
         <v>270</v>
@@ -5934,7 +5944,7 @@
         <f>Zadania!C57</f>
         <v>2.8</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="3">
         <f t="shared" si="2"/>
         <v>1.0131673971813608E-31</v>
       </c>
@@ -5946,12 +5956,12 @@
         <f t="shared" si="5"/>
         <v>2.8</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="3">
         <f t="shared" si="4"/>
         <v>2.9095389311788615</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <f>Zadania!B58</f>
         <v>275</v>
@@ -5960,7 +5970,7 @@
         <f>Zadania!C58</f>
         <v>2.8</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="3">
         <f t="shared" si="2"/>
         <v>2.2788370481687761E-2</v>
       </c>
@@ -5972,12 +5982,12 @@
         <f t="shared" si="5"/>
         <v>2.8</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="3">
         <f t="shared" si="4"/>
         <v>2.9772116295183122</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <f>Zadania!B59</f>
         <v>280</v>
@@ -5986,7 +5996,7 @@
         <f>Zadania!C59</f>
         <v>2.9</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="3">
         <f t="shared" si="2"/>
         <v>9.0461068821137025E-2</v>
       </c>
@@ -5998,12 +6008,12 @@
         <f t="shared" si="5"/>
         <v>2.9</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <f>Zadania!B60</f>
         <v>285</v>
@@ -6012,24 +6022,23 @@
         <f>Zadania!C60</f>
         <v>2.9</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="3">
         <f t="shared" si="2"/>
         <v>0.2009618943233426</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="5"/>
         <v>2.9</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="3">
         <f t="shared" si="4"/>
-        <v>2.9772116295183122</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <f>Zadania!B61</f>
         <v>290</v>
@@ -6038,24 +6047,23 @@
         <f>Zadania!C61</f>
         <v>2.8</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="3">
         <f t="shared" si="2"/>
         <v>0.35093333532153176</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="5"/>
         <v>2.8</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="3">
         <f t="shared" si="4"/>
-        <v>2.9095389311788624</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <f>Zadania!B62</f>
         <v>295</v>
@@ -6064,24 +6072,23 @@
         <f>Zadania!C62</f>
         <v>2.7</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <f t="shared" si="2"/>
         <v>0.53581858547019146</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="5"/>
         <v>2.7</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="3">
         <f t="shared" si="4"/>
-        <v>2.799038105676658</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+        <v>2.9095389311788624</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <f>Zadania!B63</f>
         <v>300</v>
@@ -6090,24 +6097,23 @@
         <f>Zadania!C63</f>
         <v>2.5</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="3">
         <f t="shared" si="2"/>
         <v>0.75000000000000033</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="3">
         <f t="shared" si="4"/>
-        <v>2.6490666646784673</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+        <v>2.799038105676658</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <f>Zadania!B64</f>
         <v>305</v>
@@ -6116,24 +6122,23 @@
         <f>Zadania!C64</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="3">
         <f t="shared" si="2"/>
         <v>0.98696978501149668</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="5"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="3">
         <f t="shared" si="4"/>
-        <v>2.4641814145298087</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+        <v>2.6490666646784673</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <f>Zadania!B65</f>
         <v>310</v>
@@ -6142,24 +6147,23 @@
         <f>Zadania!C65</f>
         <v>2</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="3">
         <f t="shared" si="2"/>
         <v>1.2395277334996042</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="3">
         <f t="shared" si="4"/>
-        <v>2.2500000000000004</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+        <v>2.4641814145298087</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <f>Zadania!B66</f>
         <v>315</v>
@@ -6168,24 +6172,23 @@
         <f>Zadania!C66</f>
         <v>1.7</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="3">
         <f t="shared" si="2"/>
         <v>1.4999999999999993</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" ref="G66:G75" si="6">C66</f>
         <v>1.7</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="3">
         <f t="shared" si="4"/>
-        <v>2.0130302149885031</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+        <v>2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <f>Zadania!B67</f>
         <v>320</v>
@@ -6194,24 +6197,23 @@
         <f>Zadania!C67</f>
         <v>1.4</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="3">
         <f t="shared" si="2"/>
         <v>1.7604722665003945</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="3">
         <f t="shared" si="4"/>
-        <v>1.7604722665003956</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+        <v>2.0130302149885031</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <f>Zadania!B68</f>
         <v>325</v>
@@ -6220,24 +6222,23 @@
         <f>Zadania!C68</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="3">
         <f t="shared" ref="D68:D75" si="7">MAX($C$3:$C$75)*(COS(B68*PI()/180)^2)</f>
         <v>2.0130302149885022</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" ref="F68:F75" si="8">MOD(B68+80,360)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="6"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H68" s="1">
-        <f t="shared" ref="H68:H75" si="9">MAX($G$3:$G$75)*(COS(F68*PI()/180)^2)</f>
-        <v>1.5000000000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H68" s="3">
+        <f t="shared" ref="H68:H75" si="8">MAX($G$3:$G$75)*(COS(F68*PI()/180)^2)</f>
+        <v>1.7604722665003956</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <f>Zadania!B69</f>
         <v>330</v>
@@ -6246,24 +6247,23 @@
         <f>Zadania!C69</f>
         <v>0.9</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="3">
         <f t="shared" si="7"/>
         <v>2.2499999999999987</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
-      <c r="H69" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2395277334996044</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H69" s="3">
+        <f t="shared" si="8"/>
+        <v>1.5000000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <f>Zadania!B70</f>
         <v>335</v>
@@ -6272,24 +6272,23 @@
         <f>Zadania!C70</f>
         <v>0.7</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="3">
         <f t="shared" si="7"/>
         <v>2.4641814145298078</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="8"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
-      <c r="H70" s="1">
-        <f t="shared" si="9"/>
-        <v>0.98696978501149712</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H70" s="3">
+        <f t="shared" si="8"/>
+        <v>1.2395277334996044</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <f>Zadania!B71</f>
         <v>340</v>
@@ -6298,24 +6297,23 @@
         <f>Zadania!C71</f>
         <v>0.5</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="3">
         <f t="shared" si="7"/>
         <v>2.6490666646784673</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="8"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="H71" s="1">
-        <f t="shared" si="9"/>
-        <v>0.75000000000000033</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H71" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98696978501149712</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <f>Zadania!B72</f>
         <v>345</v>
@@ -6324,24 +6322,23 @@
         <f>Zadania!C72</f>
         <v>0.3</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="3">
         <f t="shared" si="7"/>
         <v>2.799038105676658</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="8"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
-      <c r="H72" s="1">
-        <f t="shared" si="9"/>
-        <v>0.53581858547019101</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H72" s="3">
+        <f t="shared" si="8"/>
+        <v>0.75000000000000033</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <f>Zadania!B73</f>
         <v>350</v>
@@ -6350,24 +6347,23 @@
         <f>Zadania!C73</f>
         <v>0.1</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="3">
         <f t="shared" si="7"/>
         <v>2.9095389311788615</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="8"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="H73" s="1">
-        <f t="shared" si="9"/>
-        <v>0.35093333532153315</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H73" s="3">
+        <f t="shared" si="8"/>
+        <v>0.53581858547019101</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <f>Zadania!B74</f>
         <v>355</v>
@@ -6376,24 +6372,23 @@
         <f>Zadania!C74</f>
         <v>0</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="3">
         <f t="shared" si="7"/>
         <v>2.9772116295183122</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="8"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H74" s="1">
-        <f t="shared" si="9"/>
-        <v>0.20096189432334199</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H74" s="3">
+        <f t="shared" si="8"/>
+        <v>0.35093333532153315</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <f>Zadania!B75</f>
         <v>360</v>
@@ -6402,21 +6397,20 @@
         <f>Zadania!C75</f>
         <v>0</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="3">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="8"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H75" s="1">
-        <f t="shared" si="9"/>
-        <v>9.0461068821137497E-2</v>
+      <c r="H75" s="3">
+        <f t="shared" si="8"/>
+        <v>0.20096189432334199</v>
       </c>
     </row>
   </sheetData>

--- a/10/10.xlsx
+++ b/10/10.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F186A9-F92F-4ED7-A806-551FFB706108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A28E66-33EF-49D8-B475-6D49BF857F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zadania" sheetId="2" r:id="rId1"/>
-    <sheet name="Pomiar" sheetId="1" r:id="rId2"/>
+    <sheet name="malus do pomiar" sheetId="8" r:id="rId1"/>
+    <sheet name="pomiar do mal" sheetId="7" r:id="rId2"/>
+    <sheet name="Pomiary" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>φ, ◦</t>
   </si>
@@ -50,13 +51,19 @@
   <si>
     <t>stare</t>
   </si>
+  <si>
+    <t>błąd</t>
+  </si>
+  <si>
+    <t>u(φ)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -110,7 +117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -237,7 +244,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Pomiar</c:v>
+            <c:v>1. Pomiar</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -263,7 +270,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Pomiar!$B$3:$B$75</c:f>
+              <c:f>'malus do pomiar'!$B$3:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
@@ -491,7 +498,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pomiar!$C$3:$C$75</c:f>
+              <c:f>'malus do pomiar'!$C$3:$C$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
@@ -719,7 +726,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-20BC-452F-86A5-62D778AAE5A3}"/>
+              <c16:uniqueId val="{00000000-7D2D-4D66-A2D5-E9DD5DD7292D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -727,7 +734,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Prawo malusa</c:v>
+            <c:v>3. Prawo malusa</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -753,7 +760,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Pomiar!$D$3:$D$75</c:f>
+              <c:f>'malus do pomiar'!$D$3:$D$75</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="73"/>
@@ -981,7 +988,269 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A65-454C-9077-6F7A03B25C7C}"/>
+              <c16:uniqueId val="{00000001-7D2D-4D66-A2D5-E9DD5DD7292D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>6. Pomiar skorygowany</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'malus do pomiar'!$G$3:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>9.0461068821137497E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2788370481687893E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1257415524237342E-32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2788370481687942E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0461068821137386E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20096189432334216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35093333532153292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53581858547019068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74999999999999933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98696978501149601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2395277334996044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7604722665003947</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0130302149885022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4641814145298087</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6490666646784664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7990381056766576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7990381056766589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4641814145298095</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0130302149885044</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7604722665003956</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2395277334996051</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98696978501149779</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.75000000000000133</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53581858547019223</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35093333532153426</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.20096189432334183</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0461068821137414E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2788370481687952E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0131673971813608E-31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2788370481687761E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0461068821137025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2009618943233426</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.35093333532153176</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.53581858547019146</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98696978501149668</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2395277334996042</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7604722665003945</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0130302149885022</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.2499999999999987</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.4641814145298078</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.799038105676658</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9095389311788615</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.799038105676658</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.4641814145298087</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0130302149885031</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7604722665003956</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2395277334996044</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98696978501149712</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.53581858547019101</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.35093333532153315</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.20096189432334199</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.0461068821137497E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D2D-4D66-A2D5-E9DD5DD7292D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1286,10 +1555,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Pomiar</c:v>
+            <c:v>1. Pomiar</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1312,7 +1581,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Pomiar!$B$3:$B$75</c:f>
+              <c:f>'pomiar do mal'!$B$3:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
@@ -1540,7 +1809,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pomiar!$G$3:$G$75</c:f>
+              <c:f>'pomiar do mal'!$C$3:$C$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
@@ -1768,7 +2037,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2706-4F14-9077-1735D7BCF680}"/>
+              <c16:uniqueId val="{00000000-9E5D-469E-8FAE-B606DC22CAA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1776,7 +2045,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Prawo malusa</c:v>
+            <c:v>3. Prawo malusa</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1802,235 +2071,497 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Pomiar!$H$3:$H$75</c:f>
+              <c:f>'pomiar do mal'!$D$3:$D$75</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>9.0461068821137497E-2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2788370481687893E-2</c:v>
+                  <c:v>2.9772116295183122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1257415524237342E-32</c:v>
+                  <c:v>2.9095389311788624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2788370481687942E-2</c:v>
+                  <c:v>2.799038105676658</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0461068821137386E-2</c:v>
+                  <c:v>2.6490666646784673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20096189432334216</c:v>
+                  <c:v>2.4641814145298087</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35093333532153292</c:v>
+                  <c:v>2.2500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53581858547019068</c:v>
+                  <c:v>2.0130302149885031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.74999999999999933</c:v>
+                  <c:v>1.7604722665003956</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98696978501149601</c:v>
+                  <c:v>1.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.2395277334996044</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.98696978501149712</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53581858547019101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35093333532153315</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20096189432334199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0461068821137497E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2788370481687893E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1257415524237342E-32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2788370481687942E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0461068821137386E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20096189432334216</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.35093333532153292</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53581858547019068</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74999999999999933</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98696978501149601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2395277334996044</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1.4999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
                   <c:v>1.7604722665003947</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="29">
                   <c:v>2.0130302149885022</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="30">
                   <c:v>2.2500000000000004</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="31">
                   <c:v>2.4641814145298087</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
                   <c:v>2.6490666646784664</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
                   <c:v>2.7990381056766576</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="34">
                   <c:v>2.9095389311788624</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="35">
                   <c:v>2.9772116295183122</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="36">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="37">
                   <c:v>2.9772116295183122</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="38">
                   <c:v>2.9095389311788624</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="39">
                   <c:v>2.7990381056766589</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="40">
                   <c:v>2.6490666646784673</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="41">
                   <c:v>2.4641814145298095</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="42">
                   <c:v>2.2499999999999996</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="43">
                   <c:v>2.0130302149885044</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="44">
                   <c:v>1.7604722665003956</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="45">
                   <c:v>1.5000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="46">
                   <c:v>1.2395277334996051</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="47">
                   <c:v>0.98696978501149779</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="48">
                   <c:v>0.75000000000000133</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="49">
                   <c:v>0.53581858547019223</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="50">
                   <c:v>0.35093333532153426</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="51">
                   <c:v>0.20096189432334183</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="52">
                   <c:v>9.0461068821137414E-2</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="53">
                   <c:v>2.2788370481687952E-2</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="54">
                   <c:v>1.0131673971813608E-31</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="55">
                   <c:v>2.2788370481687761E-2</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="56">
                   <c:v>9.0461068821137025E-2</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="57">
                   <c:v>0.2009618943233426</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="58">
                   <c:v>0.35093333532153176</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="59">
                   <c:v>0.53581858547019146</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="60">
                   <c:v>0.75000000000000033</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="61">
                   <c:v>0.98696978501149668</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="62">
                   <c:v>1.2395277334996042</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="63">
                   <c:v>1.4999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="64">
                   <c:v>1.7604722665003945</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="65">
                   <c:v>2.0130302149885022</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="66">
                   <c:v>2.2499999999999987</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="67">
                   <c:v>2.4641814145298078</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="68">
                   <c:v>2.6490666646784673</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="69">
                   <c:v>2.799038105676658</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="70">
                   <c:v>2.9095389311788615</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="71">
                   <c:v>2.9772116295183122</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="72">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.9772116295183122</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.9095389311788624</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.799038105676658</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.6490666646784673</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.4641814145298087</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.2500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.0130302149885031</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.7604722665003956</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.5000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.2395277334996044</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.98696978501149712</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.75000000000000033</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.53581858547019101</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.35093333532153315</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.20096189432334199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2706-4F14-9077-1735D7BCF680}"/>
+              <c16:uniqueId val="{00000001-9E5D-469E-8FAE-B606DC22CAA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>6. Pomiar skorygowany</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'pomiar do mal'!$G$3:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E5D-469E-8FAE-B606DC22CAA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3322,27 +3853,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>117474</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CAE455-DA8D-6D32-59F4-2F7A513ADDC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B1E008-23A2-4429-89AC-DED3248707A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3356,25 +3889,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>147879</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2">
+        <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FCCEA8-46B3-4CC5-90DC-1EC920A147BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014CA203-C338-4F8E-8C6D-252E84B77646}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3388,7 +3926,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3659,11 +4197,3351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56620592-A9D7-4CA2-A26A-149A7DE85FF0}">
+  <dimension ref="A1:I75"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>0.5/SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>Pomiary!B2</f>
+        <v>φ, ◦</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>Pomiary!C2</f>
+        <v>i, μA</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>B2</f>
+        <v>φ, ◦</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" ref="G2" si="0">C2</f>
+        <v>i, μA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!B3,RIGHT(TEXT($A$2,"0,00E+00"),2)+1,TRUE),"(",LEFT($A$2*10^LEN($A$2),2),")")</f>
+        <v>0,00(28)</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Pomiary!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <f>MAX($C$3:$C$75)*(COS(B3*PI()/180)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <f>MOD(B3+$E$2,360)</f>
+        <v>80</v>
+      </c>
+      <c r="G3" s="1">
+        <f>MAX($C$3:$C$75)*(COS(F3*PI()/180)^2)</f>
+        <v>9.0461068821137497E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <f>Pomiary!B4</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Pomiary!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B4*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F67" si="1">MOD(B4+$E$2,360)</f>
+        <v>85</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G67" si="2">MAX($C$3:$C$75)*(COS(F4*PI()/180)^2)</f>
+        <v>2.2788370481687893E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <f>Pomiary!B5</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Pomiary!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B5*PI()/180)^2)</f>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1257415524237342E-32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <f>Pomiary!B6</f>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Pomiary!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B6*PI()/180)^2)</f>
+        <v>2.799038105676658</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2788370481687942E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <f>Pomiary!B7</f>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Pomiary!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B7*PI()/180)^2)</f>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0461068821137386E-2</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(F11,RIGHT(TEXT(F12,"0,00E+00"),2)+1,TRUE),"(",LEFT(F12*10^LEN(F12),2),")")</f>
+        <v>120,000(12)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <f>Pomiary!B8</f>
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Pomiary!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B8*PI()/180)^2)</f>
+        <v>2.4641814145298087</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20096189432334216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f>Pomiary!B9</f>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Pomiary!C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B9*PI()/180)^2)</f>
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35093333532153292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <f>Pomiary!B10</f>
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <f>Pomiary!C10</f>
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B10*PI()/180)^2)</f>
+        <v>2.0130302149885031</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53581858547019068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <f>Pomiary!B11</f>
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <f>Pomiary!C11</f>
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B11*PI()/180)^2)</f>
+        <v>1.7604722665003956</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74999999999999933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f>Pomiary!B12</f>
+        <v>45</v>
+      </c>
+      <c r="C12" s="1">
+        <f>Pomiary!C12</f>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B12*PI()/180)^2)</f>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98696978501149601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f>Pomiary!B13</f>
+        <v>50</v>
+      </c>
+      <c r="C13" s="1">
+        <f>Pomiary!C13</f>
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B13*PI()/180)^2)</f>
+        <v>1.2395277334996044</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2395277334996044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f>Pomiary!B14</f>
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Pomiary!C14</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B14*PI()/180)^2)</f>
+        <v>0.98696978501149712</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <f>Pomiary!B15</f>
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <f>Pomiary!C15</f>
+        <v>1.3</v>
+      </c>
+      <c r="D15" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B15*PI()/180)^2)</f>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7604722665003947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f>Pomiary!B16</f>
+        <v>65</v>
+      </c>
+      <c r="C16" s="1">
+        <f>Pomiary!C16</f>
+        <v>1.6</v>
+      </c>
+      <c r="D16" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B16*PI()/180)^2)</f>
+        <v>0.53581858547019101</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0130302149885022</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <f>Pomiary!B17</f>
+        <v>70</v>
+      </c>
+      <c r="C17" s="1">
+        <f>Pomiary!C17</f>
+        <v>1.9</v>
+      </c>
+      <c r="D17" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B17*PI()/180)^2)</f>
+        <v>0.35093333532153315</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <f>Pomiary!B18</f>
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <f>Pomiary!C18</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D18" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B18*PI()/180)^2)</f>
+        <v>0.20096189432334199</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4641814145298087</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f>Pomiary!B19</f>
+        <v>80</v>
+      </c>
+      <c r="C19" s="1">
+        <f>Pomiary!C19</f>
+        <v>2.5</v>
+      </c>
+      <c r="D19" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B19*PI()/180)^2)</f>
+        <v>9.0461068821137497E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6490666646784664</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <f>Pomiary!B20</f>
+        <v>85</v>
+      </c>
+      <c r="C20" s="1">
+        <f>Pomiary!C20</f>
+        <v>2.7</v>
+      </c>
+      <c r="D20" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B20*PI()/180)^2)</f>
+        <v>2.2788370481687893E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7990381056766576</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f>Pomiary!B21</f>
+        <v>90</v>
+      </c>
+      <c r="C21" s="1">
+        <f>Pomiary!C21</f>
+        <v>2.8</v>
+      </c>
+      <c r="D21" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B21*PI()/180)^2)</f>
+        <v>1.1257415524237342E-32</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9095389311788624</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <f>Pomiary!B22</f>
+        <v>95</v>
+      </c>
+      <c r="C22" s="1">
+        <f>Pomiary!C22</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B22*PI()/180)^2)</f>
+        <v>2.2788370481687942E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <f>Pomiary!B23</f>
+        <v>100</v>
+      </c>
+      <c r="C23" s="1">
+        <f>Pomiary!C23</f>
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B23*PI()/180)^2)</f>
+        <v>9.0461068821137386E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <f>Pomiary!B24</f>
+        <v>105</v>
+      </c>
+      <c r="C24" s="1">
+        <f>Pomiary!C24</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B24*PI()/180)^2)</f>
+        <v>0.20096189432334216</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <f>Pomiary!B25</f>
+        <v>110</v>
+      </c>
+      <c r="C25" s="1">
+        <f>Pomiary!C25</f>
+        <v>2.9</v>
+      </c>
+      <c r="D25" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B25*PI()/180)^2)</f>
+        <v>0.35093333532153292</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9095389311788624</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <f>Pomiary!B26</f>
+        <v>115</v>
+      </c>
+      <c r="C26" s="1">
+        <f>Pomiary!C26</f>
+        <v>2.8</v>
+      </c>
+      <c r="D26" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B26*PI()/180)^2)</f>
+        <v>0.53581858547019068</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7990381056766589</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <f>Pomiary!B27</f>
+        <v>120</v>
+      </c>
+      <c r="C27" s="1">
+        <f>Pomiary!C27</f>
+        <v>2.6</v>
+      </c>
+      <c r="D27" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B27*PI()/180)^2)</f>
+        <v>0.74999999999999933</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6490666646784673</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <f>Pomiary!B28</f>
+        <v>125</v>
+      </c>
+      <c r="C28" s="1">
+        <f>Pomiary!C28</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D28" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B28*PI()/180)^2)</f>
+        <v>0.98696978501149601</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4641814145298095</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <f>Pomiary!B29</f>
+        <v>130</v>
+      </c>
+      <c r="C29" s="1">
+        <f>Pomiary!C29</f>
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B29*PI()/180)^2)</f>
+        <v>1.2395277334996044</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2499999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <f>Pomiary!B30</f>
+        <v>135</v>
+      </c>
+      <c r="C30" s="1">
+        <f>Pomiary!C30</f>
+        <v>1.7</v>
+      </c>
+      <c r="D30" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B30*PI()/180)^2)</f>
+        <v>1.4999999999999996</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0130302149885044</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <f>Pomiary!B31</f>
+        <v>140</v>
+      </c>
+      <c r="C31" s="1">
+        <f>Pomiary!C31</f>
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B31*PI()/180)^2)</f>
+        <v>1.7604722665003947</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7604722665003956</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <f>Pomiary!B32</f>
+        <v>145</v>
+      </c>
+      <c r="C32" s="1">
+        <f>Pomiary!C32</f>
+        <v>1.2</v>
+      </c>
+      <c r="D32" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B32*PI()/180)^2)</f>
+        <v>2.0130302149885022</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <f>Pomiary!B33</f>
+        <v>150</v>
+      </c>
+      <c r="C33" s="1">
+        <f>Pomiary!C33</f>
+        <v>0.9</v>
+      </c>
+      <c r="D33" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B33*PI()/180)^2)</f>
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2395277334996051</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <f>Pomiary!B34</f>
+        <v>155</v>
+      </c>
+      <c r="C34" s="1">
+        <f>Pomiary!C34</f>
+        <v>0.7</v>
+      </c>
+      <c r="D34" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B34*PI()/180)^2)</f>
+        <v>2.4641814145298087</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98696978501149779</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <f>Pomiary!B35</f>
+        <v>160</v>
+      </c>
+      <c r="C35" s="1">
+        <f>Pomiary!C35</f>
+        <v>0.4</v>
+      </c>
+      <c r="D35" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B35*PI()/180)^2)</f>
+        <v>2.6490666646784664</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <f>Pomiary!B36</f>
+        <v>165</v>
+      </c>
+      <c r="C36" s="1">
+        <f>Pomiary!C36</f>
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B36*PI()/180)^2)</f>
+        <v>2.7990381056766576</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53581858547019223</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <f>Pomiary!B37</f>
+        <v>170</v>
+      </c>
+      <c r="C37" s="1">
+        <f>Pomiary!C37</f>
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B37*PI()/180)^2)</f>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35093333532153426</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <f>Pomiary!B38</f>
+        <v>175</v>
+      </c>
+      <c r="C38" s="1">
+        <f>Pomiary!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B38*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20096189432334183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <f>Pomiary!B39</f>
+        <v>180</v>
+      </c>
+      <c r="C39" s="1">
+        <f>Pomiary!C39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B39*PI()/180)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0461068821137414E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <f>Pomiary!B40</f>
+        <v>185</v>
+      </c>
+      <c r="C40" s="1">
+        <f>Pomiary!C40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B40*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2788370481687952E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <f>Pomiary!B41</f>
+        <v>190</v>
+      </c>
+      <c r="C41" s="1">
+        <f>Pomiary!C41</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B41*PI()/180)^2)</f>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0131673971813608E-31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <f>Pomiary!B42</f>
+        <v>195</v>
+      </c>
+      <c r="C42" s="1">
+        <f>Pomiary!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B42*PI()/180)^2)</f>
+        <v>2.7990381056766589</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2788370481687761E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <f>Pomiary!B43</f>
+        <v>200</v>
+      </c>
+      <c r="C43" s="1">
+        <f>Pomiary!C43</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B43*PI()/180)^2)</f>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0461068821137025E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <f>Pomiary!B44</f>
+        <v>205</v>
+      </c>
+      <c r="C44" s="1">
+        <f>Pomiary!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B44*PI()/180)^2)</f>
+        <v>2.4641814145298095</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2009618943233426</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <f>Pomiary!B45</f>
+        <v>210</v>
+      </c>
+      <c r="C45" s="1">
+        <f>Pomiary!C45</f>
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B45*PI()/180)^2)</f>
+        <v>2.2499999999999996</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35093333532153176</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <f>Pomiary!B46</f>
+        <v>215</v>
+      </c>
+      <c r="C46" s="1">
+        <f>Pomiary!C46</f>
+        <v>0.2</v>
+      </c>
+      <c r="D46" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B46*PI()/180)^2)</f>
+        <v>2.0130302149885044</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53581858547019146</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <f>Pomiary!B47</f>
+        <v>220</v>
+      </c>
+      <c r="C47" s="1">
+        <f>Pomiary!C47</f>
+        <v>0.3</v>
+      </c>
+      <c r="D47" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B47*PI()/180)^2)</f>
+        <v>1.7604722665003956</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000033</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <f>Pomiary!B48</f>
+        <v>225</v>
+      </c>
+      <c r="C48" s="1">
+        <f>Pomiary!C48</f>
+        <v>0.4</v>
+      </c>
+      <c r="D48" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B48*PI()/180)^2)</f>
+        <v>1.5000000000000007</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98696978501149668</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <f>Pomiary!B49</f>
+        <v>230</v>
+      </c>
+      <c r="C49" s="1">
+        <f>Pomiary!C49</f>
+        <v>0.7</v>
+      </c>
+      <c r="D49" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B49*PI()/180)^2)</f>
+        <v>1.2395277334996051</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2395277334996042</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <f>Pomiary!B50</f>
+        <v>235</v>
+      </c>
+      <c r="C50" s="1">
+        <f>Pomiary!C50</f>
+        <v>0.9</v>
+      </c>
+      <c r="D50" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B50*PI()/180)^2)</f>
+        <v>0.98696978501149779</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <f>Pomiary!B51</f>
+        <v>240</v>
+      </c>
+      <c r="C51" s="1">
+        <f>Pomiary!C51</f>
+        <v>1.2</v>
+      </c>
+      <c r="D51" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B51*PI()/180)^2)</f>
+        <v>0.75000000000000133</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7604722665003945</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <f>Pomiary!B52</f>
+        <v>245</v>
+      </c>
+      <c r="C52" s="1">
+        <f>Pomiary!C52</f>
+        <v>1.5</v>
+      </c>
+      <c r="D52" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B52*PI()/180)^2)</f>
+        <v>0.53581858547019223</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0130302149885022</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <f>Pomiary!B53</f>
+        <v>250</v>
+      </c>
+      <c r="C53" s="1">
+        <f>Pomiary!C53</f>
+        <v>1.8</v>
+      </c>
+      <c r="D53" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B53*PI()/180)^2)</f>
+        <v>0.35093333532153426</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2499999999999987</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <f>Pomiary!B54</f>
+        <v>255</v>
+      </c>
+      <c r="C54" s="1">
+        <f>Pomiary!C54</f>
+        <v>2.1</v>
+      </c>
+      <c r="D54" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B54*PI()/180)^2)</f>
+        <v>0.20096189432334183</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4641814145298078</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <f>Pomiary!B55</f>
+        <v>260</v>
+      </c>
+      <c r="C55" s="1">
+        <f>Pomiary!C55</f>
+        <v>2.4</v>
+      </c>
+      <c r="D55" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B55*PI()/180)^2)</f>
+        <v>9.0461068821137414E-2</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6490666646784673</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <f>Pomiary!B56</f>
+        <v>265</v>
+      </c>
+      <c r="C56" s="1">
+        <f>Pomiary!C56</f>
+        <v>2.6</v>
+      </c>
+      <c r="D56" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B56*PI()/180)^2)</f>
+        <v>2.2788370481687952E-2</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="2"/>
+        <v>2.799038105676658</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <f>Pomiary!B57</f>
+        <v>270</v>
+      </c>
+      <c r="C57" s="1">
+        <f>Pomiary!C57</f>
+        <v>2.8</v>
+      </c>
+      <c r="D57" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B57*PI()/180)^2)</f>
+        <v>1.0131673971813608E-31</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9095389311788615</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <f>Pomiary!B58</f>
+        <v>275</v>
+      </c>
+      <c r="C58" s="1">
+        <f>Pomiary!C58</f>
+        <v>2.8</v>
+      </c>
+      <c r="D58" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B58*PI()/180)^2)</f>
+        <v>2.2788370481687761E-2</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <f>Pomiary!B59</f>
+        <v>280</v>
+      </c>
+      <c r="C59" s="1">
+        <f>Pomiary!C59</f>
+        <v>2.9</v>
+      </c>
+      <c r="D59" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B59*PI()/180)^2)</f>
+        <v>9.0461068821137025E-2</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <f>Pomiary!B60</f>
+        <v>285</v>
+      </c>
+      <c r="C60" s="1">
+        <f>Pomiary!C60</f>
+        <v>2.9</v>
+      </c>
+      <c r="D60" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B60*PI()/180)^2)</f>
+        <v>0.2009618943233426</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <f>Pomiary!B61</f>
+        <v>290</v>
+      </c>
+      <c r="C61" s="1">
+        <f>Pomiary!C61</f>
+        <v>2.8</v>
+      </c>
+      <c r="D61" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B61*PI()/180)^2)</f>
+        <v>0.35093333532153176</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9095389311788624</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <f>Pomiary!B62</f>
+        <v>295</v>
+      </c>
+      <c r="C62" s="1">
+        <f>Pomiary!C62</f>
+        <v>2.7</v>
+      </c>
+      <c r="D62" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B62*PI()/180)^2)</f>
+        <v>0.53581858547019146</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="2"/>
+        <v>2.799038105676658</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <f>Pomiary!B63</f>
+        <v>300</v>
+      </c>
+      <c r="C63" s="1">
+        <f>Pomiary!C63</f>
+        <v>2.5</v>
+      </c>
+      <c r="D63" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B63*PI()/180)^2)</f>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6490666646784673</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <f>Pomiary!B64</f>
+        <v>305</v>
+      </c>
+      <c r="C64" s="1">
+        <f>Pomiary!C64</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D64" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B64*PI()/180)^2)</f>
+        <v>0.98696978501149668</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4641814145298087</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <f>Pomiary!B65</f>
+        <v>310</v>
+      </c>
+      <c r="C65" s="1">
+        <f>Pomiary!C65</f>
+        <v>2</v>
+      </c>
+      <c r="D65" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B65*PI()/180)^2)</f>
+        <v>1.2395277334996042</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <f>Pomiary!B66</f>
+        <v>315</v>
+      </c>
+      <c r="C66" s="1">
+        <f>Pomiary!C66</f>
+        <v>1.7</v>
+      </c>
+      <c r="D66" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B66*PI()/180)^2)</f>
+        <v>1.4999999999999993</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0130302149885031</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <f>Pomiary!B67</f>
+        <v>320</v>
+      </c>
+      <c r="C67" s="1">
+        <f>Pomiary!C67</f>
+        <v>1.4</v>
+      </c>
+      <c r="D67" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B67*PI()/180)^2)</f>
+        <v>1.7604722665003945</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7604722665003956</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <f>Pomiary!B68</f>
+        <v>325</v>
+      </c>
+      <c r="C68" s="1">
+        <f>Pomiary!C68</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D68" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B68*PI()/180)^2)</f>
+        <v>2.0130302149885022</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" ref="F68:F75" si="3">MOD(B68+$E$2,360)</f>
+        <v>45</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" ref="G68:G75" si="4">MAX($C$3:$C$75)*(COS(F68*PI()/180)^2)</f>
+        <v>1.5000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <f>Pomiary!B69</f>
+        <v>330</v>
+      </c>
+      <c r="C69" s="1">
+        <f>Pomiary!C69</f>
+        <v>0.9</v>
+      </c>
+      <c r="D69" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B69*PI()/180)^2)</f>
+        <v>2.2499999999999987</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2395277334996044</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <f>Pomiary!B70</f>
+        <v>335</v>
+      </c>
+      <c r="C70" s="1">
+        <f>Pomiary!C70</f>
+        <v>0.7</v>
+      </c>
+      <c r="D70" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B70*PI()/180)^2)</f>
+        <v>2.4641814145298078</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98696978501149712</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <f>Pomiary!B71</f>
+        <v>340</v>
+      </c>
+      <c r="C71" s="1">
+        <f>Pomiary!C71</f>
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B71*PI()/180)^2)</f>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75000000000000033</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <f>Pomiary!B72</f>
+        <v>345</v>
+      </c>
+      <c r="C72" s="1">
+        <f>Pomiary!C72</f>
+        <v>0.3</v>
+      </c>
+      <c r="D72" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B72*PI()/180)^2)</f>
+        <v>2.799038105676658</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="4"/>
+        <v>0.53581858547019101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <f>Pomiary!B73</f>
+        <v>350</v>
+      </c>
+      <c r="C73" s="1">
+        <f>Pomiary!C73</f>
+        <v>0.1</v>
+      </c>
+      <c r="D73" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B73*PI()/180)^2)</f>
+        <v>2.9095389311788615</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35093333532153315</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <f>Pomiary!B74</f>
+        <v>355</v>
+      </c>
+      <c r="C74" s="1">
+        <f>Pomiary!C74</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B74*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20096189432334199</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <f>Pomiary!B75</f>
+        <v>360</v>
+      </c>
+      <c r="C75" s="1">
+        <f>Pomiary!C75</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B75*PI()/180)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="4"/>
+        <v>9.0461068821137497E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E528F02E-E4EB-49AD-8308-E18921FF162C}">
+  <dimension ref="A1:I75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>0.5/SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>Pomiary!B2</f>
+        <v>φ, ◦</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>Pomiary!C2</f>
+        <v>i, μA</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-80</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>B2</f>
+        <v>φ, ◦</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" ref="G2" si="0">C2</f>
+        <v>i, μA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!B3,RIGHT(TEXT($A$2,"0,00E+00"),2)+1,TRUE),"(",LEFT($A$2*10^LEN($A$2),2),")")</f>
+        <v>0,00(28)</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Pomiary!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B3*PI()/180)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <f>MOD(B3+$E$2,360)</f>
+        <v>280</v>
+      </c>
+      <c r="G3" s="1">
+        <f>VLOOKUP(F3,$B$3:$C$75,2)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <f>Pomiary!B4</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Pomiary!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B4*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F67" si="1">MOD(B4+$E$2,360)</f>
+        <v>285</v>
+      </c>
+      <c r="G4" s="1">
+        <f>VLOOKUP(F4,$B$3:$C$75,2)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <f>Pomiary!B5</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Pomiary!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B5*PI()/180)^2)</f>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="G5" s="1">
+        <f>VLOOKUP(F5,$B$3:$C$75,2)</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <f>Pomiary!B6</f>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Pomiary!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B6*PI()/180)^2)</f>
+        <v>2.799038105676658</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="G6" s="1">
+        <f>VLOOKUP(F6,$B$3:$C$75,2)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <f>Pomiary!B7</f>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Pomiary!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B7*PI()/180)^2)</f>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G7" s="1">
+        <f>VLOOKUP(F7,$B$3:$C$75,2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(F11,RIGHT(TEXT(F12,"0,00E+00"),2)+1,TRUE),"(",LEFT(F12*10^LEN(F12),2),")")</f>
+        <v>320,000(32)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <f>Pomiary!B8</f>
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Pomiary!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B8*PI()/180)^2)</f>
+        <v>2.4641814145298087</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="G8" s="1">
+        <f>VLOOKUP(F8,$B$3:$C$75,2)</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f>Pomiary!B9</f>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Pomiary!C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B9*PI()/180)^2)</f>
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="G9" s="1">
+        <f>VLOOKUP(F9,$B$3:$C$75,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <f>Pomiary!B10</f>
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <f>Pomiary!C10</f>
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B10*PI()/180)^2)</f>
+        <v>2.0130302149885031</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="G10" s="1">
+        <f>VLOOKUP(F10,$B$3:$C$75,2)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <f>Pomiary!B11</f>
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <f>Pomiary!C11</f>
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B11*PI()/180)^2)</f>
+        <v>1.7604722665003956</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="G11" s="1">
+        <f>VLOOKUP(F11,$B$3:$C$75,2)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f>Pomiary!B12</f>
+        <v>45</v>
+      </c>
+      <c r="C12" s="1">
+        <f>Pomiary!C12</f>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B12*PI()/180)^2)</f>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="G12" s="1">
+        <f>VLOOKUP(F12,$B$3:$C$75,2)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f>Pomiary!B13</f>
+        <v>50</v>
+      </c>
+      <c r="C13" s="1">
+        <f>Pomiary!C13</f>
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B13*PI()/180)^2)</f>
+        <v>1.2395277334996044</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="G13" s="1">
+        <f>VLOOKUP(F13,$B$3:$C$75,2)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f>Pomiary!B14</f>
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Pomiary!C14</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B14*PI()/180)^2)</f>
+        <v>0.98696978501149712</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="G14" s="1">
+        <f>VLOOKUP(F14,$B$3:$C$75,2)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <f>Pomiary!B15</f>
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <f>Pomiary!C15</f>
+        <v>1.3</v>
+      </c>
+      <c r="D15" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B15*PI()/180)^2)</f>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="G15" s="1">
+        <f>VLOOKUP(F15,$B$3:$C$75,2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f>Pomiary!B16</f>
+        <v>65</v>
+      </c>
+      <c r="C16" s="1">
+        <f>Pomiary!C16</f>
+        <v>1.6</v>
+      </c>
+      <c r="D16" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B16*PI()/180)^2)</f>
+        <v>0.53581858547019101</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="G16" s="1">
+        <f>VLOOKUP(F16,$B$3:$C$75,2)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <f>Pomiary!B17</f>
+        <v>70</v>
+      </c>
+      <c r="C17" s="1">
+        <f>Pomiary!C17</f>
+        <v>1.9</v>
+      </c>
+      <c r="D17" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B17*PI()/180)^2)</f>
+        <v>0.35093333532153315</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="G17" s="1">
+        <f>VLOOKUP(F17,$B$3:$C$75,2)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <f>Pomiary!B18</f>
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <f>Pomiary!C18</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D18" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B18*PI()/180)^2)</f>
+        <v>0.20096189432334199</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+      <c r="G18" s="1">
+        <f>VLOOKUP(F18,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f>Pomiary!B19</f>
+        <v>80</v>
+      </c>
+      <c r="C19" s="1">
+        <f>Pomiary!C19</f>
+        <v>2.5</v>
+      </c>
+      <c r="D19" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B19*PI()/180)^2)</f>
+        <v>9.0461068821137497E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f>VLOOKUP(F19,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <f>Pomiary!B20</f>
+        <v>85</v>
+      </c>
+      <c r="C20" s="1">
+        <f>Pomiary!C20</f>
+        <v>2.7</v>
+      </c>
+      <c r="D20" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B20*PI()/180)^2)</f>
+        <v>2.2788370481687893E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <f>VLOOKUP(F20,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f>Pomiary!B21</f>
+        <v>90</v>
+      </c>
+      <c r="C21" s="1">
+        <f>Pomiary!C21</f>
+        <v>2.8</v>
+      </c>
+      <c r="D21" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B21*PI()/180)^2)</f>
+        <v>1.1257415524237342E-32</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <f>VLOOKUP(F21,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <f>Pomiary!B22</f>
+        <v>95</v>
+      </c>
+      <c r="C22" s="1">
+        <f>Pomiary!C22</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B22*PI()/180)^2)</f>
+        <v>2.2788370481687942E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G22" s="1">
+        <f>VLOOKUP(F22,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <f>Pomiary!B23</f>
+        <v>100</v>
+      </c>
+      <c r="C23" s="1">
+        <f>Pomiary!C23</f>
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B23*PI()/180)^2)</f>
+        <v>9.0461068821137386E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G23" s="1">
+        <f>VLOOKUP(F23,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <f>Pomiary!B24</f>
+        <v>105</v>
+      </c>
+      <c r="C24" s="1">
+        <f>Pomiary!C24</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B24*PI()/180)^2)</f>
+        <v>0.20096189432334216</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G24" s="1">
+        <f>VLOOKUP(F24,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <f>Pomiary!B25</f>
+        <v>110</v>
+      </c>
+      <c r="C25" s="1">
+        <f>Pomiary!C25</f>
+        <v>2.9</v>
+      </c>
+      <c r="D25" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B25*PI()/180)^2)</f>
+        <v>0.35093333532153292</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G25" s="1">
+        <f>VLOOKUP(F25,$B$3:$C$75,2)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <f>Pomiary!B26</f>
+        <v>115</v>
+      </c>
+      <c r="C26" s="1">
+        <f>Pomiary!C26</f>
+        <v>2.8</v>
+      </c>
+      <c r="D26" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B26*PI()/180)^2)</f>
+        <v>0.53581858547019068</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G26" s="1">
+        <f>VLOOKUP(F26,$B$3:$C$75,2)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <f>Pomiary!B27</f>
+        <v>120</v>
+      </c>
+      <c r="C27" s="1">
+        <f>Pomiary!C27</f>
+        <v>2.6</v>
+      </c>
+      <c r="D27" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B27*PI()/180)^2)</f>
+        <v>0.74999999999999933</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G27" s="1">
+        <f>VLOOKUP(F27,$B$3:$C$75,2)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <f>Pomiary!B28</f>
+        <v>125</v>
+      </c>
+      <c r="C28" s="1">
+        <f>Pomiary!C28</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D28" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B28*PI()/180)^2)</f>
+        <v>0.98696978501149601</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G28" s="1">
+        <f>VLOOKUP(F28,$B$3:$C$75,2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <f>Pomiary!B29</f>
+        <v>130</v>
+      </c>
+      <c r="C29" s="1">
+        <f>Pomiary!C29</f>
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B29*PI()/180)^2)</f>
+        <v>1.2395277334996044</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G29" s="1">
+        <f>VLOOKUP(F29,$B$3:$C$75,2)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <f>Pomiary!B30</f>
+        <v>135</v>
+      </c>
+      <c r="C30" s="1">
+        <f>Pomiary!C30</f>
+        <v>1.7</v>
+      </c>
+      <c r="D30" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B30*PI()/180)^2)</f>
+        <v>1.4999999999999996</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G30" s="1">
+        <f>VLOOKUP(F30,$B$3:$C$75,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <f>Pomiary!B31</f>
+        <v>140</v>
+      </c>
+      <c r="C31" s="1">
+        <f>Pomiary!C31</f>
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B31*PI()/180)^2)</f>
+        <v>1.7604722665003947</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G31" s="1">
+        <f>VLOOKUP(F31,$B$3:$C$75,2)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <f>Pomiary!B32</f>
+        <v>145</v>
+      </c>
+      <c r="C32" s="1">
+        <f>Pomiary!C32</f>
+        <v>1.2</v>
+      </c>
+      <c r="D32" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B32*PI()/180)^2)</f>
+        <v>2.0130302149885022</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G32" s="1">
+        <f>VLOOKUP(F32,$B$3:$C$75,2)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <f>Pomiary!B33</f>
+        <v>150</v>
+      </c>
+      <c r="C33" s="1">
+        <f>Pomiary!C33</f>
+        <v>0.9</v>
+      </c>
+      <c r="D33" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B33*PI()/180)^2)</f>
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="G33" s="1">
+        <f>VLOOKUP(F33,$B$3:$C$75,2)</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <f>Pomiary!B34</f>
+        <v>155</v>
+      </c>
+      <c r="C34" s="1">
+        <f>Pomiary!C34</f>
+        <v>0.7</v>
+      </c>
+      <c r="D34" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B34*PI()/180)^2)</f>
+        <v>2.4641814145298087</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="G34" s="1">
+        <f>VLOOKUP(F34,$B$3:$C$75,2)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <f>Pomiary!B35</f>
+        <v>160</v>
+      </c>
+      <c r="C35" s="1">
+        <f>Pomiary!C35</f>
+        <v>0.4</v>
+      </c>
+      <c r="D35" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B35*PI()/180)^2)</f>
+        <v>2.6490666646784664</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G35" s="1">
+        <f>VLOOKUP(F35,$B$3:$C$75,2)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <f>Pomiary!B36</f>
+        <v>165</v>
+      </c>
+      <c r="C36" s="1">
+        <f>Pomiary!C36</f>
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B36*PI()/180)^2)</f>
+        <v>2.7990381056766576</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="G36" s="1">
+        <f>VLOOKUP(F36,$B$3:$C$75,2)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <f>Pomiary!B37</f>
+        <v>170</v>
+      </c>
+      <c r="C37" s="1">
+        <f>Pomiary!C37</f>
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B37*PI()/180)^2)</f>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G37" s="1">
+        <f>VLOOKUP(F37,$B$3:$C$75,2)</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <f>Pomiary!B38</f>
+        <v>175</v>
+      </c>
+      <c r="C38" s="1">
+        <f>Pomiary!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B38*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="G38" s="1">
+        <f>VLOOKUP(F38,$B$3:$C$75,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <f>Pomiary!B39</f>
+        <v>180</v>
+      </c>
+      <c r="C39" s="1">
+        <f>Pomiary!C39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B39*PI()/180)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G39" s="1">
+        <f>VLOOKUP(F39,$B$3:$C$75,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <f>Pomiary!B40</f>
+        <v>185</v>
+      </c>
+      <c r="C40" s="1">
+        <f>Pomiary!C40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B40*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="G40" s="1">
+        <f>VLOOKUP(F40,$B$3:$C$75,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <f>Pomiary!B41</f>
+        <v>190</v>
+      </c>
+      <c r="C41" s="1">
+        <f>Pomiary!C41</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B41*PI()/180)^2)</f>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="G41" s="1">
+        <f>VLOOKUP(F41,$B$3:$C$75,2)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <f>Pomiary!B42</f>
+        <v>195</v>
+      </c>
+      <c r="C42" s="1">
+        <f>Pomiary!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B42*PI()/180)^2)</f>
+        <v>2.7990381056766589</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="G42" s="1">
+        <f>VLOOKUP(F42,$B$3:$C$75,2)</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <f>Pomiary!B43</f>
+        <v>200</v>
+      </c>
+      <c r="C43" s="1">
+        <f>Pomiary!C43</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B43*PI()/180)^2)</f>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G43" s="1">
+        <f>VLOOKUP(F43,$B$3:$C$75,2)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <f>Pomiary!B44</f>
+        <v>205</v>
+      </c>
+      <c r="C44" s="1">
+        <f>Pomiary!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B44*PI()/180)^2)</f>
+        <v>2.4641814145298095</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="G44" s="1">
+        <f>VLOOKUP(F44,$B$3:$C$75,2)</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <f>Pomiary!B45</f>
+        <v>210</v>
+      </c>
+      <c r="C45" s="1">
+        <f>Pomiary!C45</f>
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B45*PI()/180)^2)</f>
+        <v>2.2499999999999996</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="G45" s="1">
+        <f>VLOOKUP(F45,$B$3:$C$75,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <f>Pomiary!B46</f>
+        <v>215</v>
+      </c>
+      <c r="C46" s="1">
+        <f>Pomiary!C46</f>
+        <v>0.2</v>
+      </c>
+      <c r="D46" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B46*PI()/180)^2)</f>
+        <v>2.0130302149885044</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="G46" s="1">
+        <f>VLOOKUP(F46,$B$3:$C$75,2)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <f>Pomiary!B47</f>
+        <v>220</v>
+      </c>
+      <c r="C47" s="1">
+        <f>Pomiary!C47</f>
+        <v>0.3</v>
+      </c>
+      <c r="D47" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B47*PI()/180)^2)</f>
+        <v>1.7604722665003956</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="G47" s="1">
+        <f>VLOOKUP(F47,$B$3:$C$75,2)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <f>Pomiary!B48</f>
+        <v>225</v>
+      </c>
+      <c r="C48" s="1">
+        <f>Pomiary!C48</f>
+        <v>0.4</v>
+      </c>
+      <c r="D48" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B48*PI()/180)^2)</f>
+        <v>1.5000000000000007</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="G48" s="1">
+        <f>VLOOKUP(F48,$B$3:$C$75,2)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <f>Pomiary!B49</f>
+        <v>230</v>
+      </c>
+      <c r="C49" s="1">
+        <f>Pomiary!C49</f>
+        <v>0.7</v>
+      </c>
+      <c r="D49" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B49*PI()/180)^2)</f>
+        <v>1.2395277334996051</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G49" s="1">
+        <f>VLOOKUP(F49,$B$3:$C$75,2)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <f>Pomiary!B50</f>
+        <v>235</v>
+      </c>
+      <c r="C50" s="1">
+        <f>Pomiary!C50</f>
+        <v>0.9</v>
+      </c>
+      <c r="D50" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B50*PI()/180)^2)</f>
+        <v>0.98696978501149779</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="G50" s="1">
+        <f>VLOOKUP(F50,$B$3:$C$75,2)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <f>Pomiary!B51</f>
+        <v>240</v>
+      </c>
+      <c r="C51" s="1">
+        <f>Pomiary!C51</f>
+        <v>1.2</v>
+      </c>
+      <c r="D51" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B51*PI()/180)^2)</f>
+        <v>0.75000000000000133</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="G51" s="1">
+        <f>VLOOKUP(F51,$B$3:$C$75,2)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <f>Pomiary!B52</f>
+        <v>245</v>
+      </c>
+      <c r="C52" s="1">
+        <f>Pomiary!C52</f>
+        <v>1.5</v>
+      </c>
+      <c r="D52" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B52*PI()/180)^2)</f>
+        <v>0.53581858547019223</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="G52" s="1">
+        <f>VLOOKUP(F52,$B$3:$C$75,2)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <f>Pomiary!B53</f>
+        <v>250</v>
+      </c>
+      <c r="C53" s="1">
+        <f>Pomiary!C53</f>
+        <v>1.8</v>
+      </c>
+      <c r="D53" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B53*PI()/180)^2)</f>
+        <v>0.35093333532153426</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="G53" s="1">
+        <f>VLOOKUP(F53,$B$3:$C$75,2)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <f>Pomiary!B54</f>
+        <v>255</v>
+      </c>
+      <c r="C54" s="1">
+        <f>Pomiary!C54</f>
+        <v>2.1</v>
+      </c>
+      <c r="D54" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B54*PI()/180)^2)</f>
+        <v>0.20096189432334183</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="G54" s="1">
+        <f>VLOOKUP(F54,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <f>Pomiary!B55</f>
+        <v>260</v>
+      </c>
+      <c r="C55" s="1">
+        <f>Pomiary!C55</f>
+        <v>2.4</v>
+      </c>
+      <c r="D55" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B55*PI()/180)^2)</f>
+        <v>9.0461068821137414E-2</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="G55" s="1">
+        <f>VLOOKUP(F55,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <f>Pomiary!B56</f>
+        <v>265</v>
+      </c>
+      <c r="C56" s="1">
+        <f>Pomiary!C56</f>
+        <v>2.6</v>
+      </c>
+      <c r="D56" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B56*PI()/180)^2)</f>
+        <v>2.2788370481687952E-2</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="G56" s="1">
+        <f>VLOOKUP(F56,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <f>Pomiary!B57</f>
+        <v>270</v>
+      </c>
+      <c r="C57" s="1">
+        <f>Pomiary!C57</f>
+        <v>2.8</v>
+      </c>
+      <c r="D57" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B57*PI()/180)^2)</f>
+        <v>1.0131673971813608E-31</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="G57" s="1">
+        <f>VLOOKUP(F57,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <f>Pomiary!B58</f>
+        <v>275</v>
+      </c>
+      <c r="C58" s="1">
+        <f>Pomiary!C58</f>
+        <v>2.8</v>
+      </c>
+      <c r="D58" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B58*PI()/180)^2)</f>
+        <v>2.2788370481687761E-2</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="G58" s="1">
+        <f>VLOOKUP(F58,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <f>Pomiary!B59</f>
+        <v>280</v>
+      </c>
+      <c r="C59" s="1">
+        <f>Pomiary!C59</f>
+        <v>2.9</v>
+      </c>
+      <c r="D59" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B59*PI()/180)^2)</f>
+        <v>9.0461068821137025E-2</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G59" s="1">
+        <f>VLOOKUP(F59,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <f>Pomiary!B60</f>
+        <v>285</v>
+      </c>
+      <c r="C60" s="1">
+        <f>Pomiary!C60</f>
+        <v>2.9</v>
+      </c>
+      <c r="D60" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B60*PI()/180)^2)</f>
+        <v>0.2009618943233426</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="G60" s="1">
+        <f>VLOOKUP(F60,$B$3:$C$75,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <f>Pomiary!B61</f>
+        <v>290</v>
+      </c>
+      <c r="C61" s="1">
+        <f>Pomiary!C61</f>
+        <v>2.8</v>
+      </c>
+      <c r="D61" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B61*PI()/180)^2)</f>
+        <v>0.35093333532153176</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="G61" s="1">
+        <f>VLOOKUP(F61,$B$3:$C$75,2)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <f>Pomiary!B62</f>
+        <v>295</v>
+      </c>
+      <c r="C62" s="1">
+        <f>Pomiary!C62</f>
+        <v>2.7</v>
+      </c>
+      <c r="D62" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B62*PI()/180)^2)</f>
+        <v>0.53581858547019146</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="G62" s="1">
+        <f>VLOOKUP(F62,$B$3:$C$75,2)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <f>Pomiary!B63</f>
+        <v>300</v>
+      </c>
+      <c r="C63" s="1">
+        <f>Pomiary!C63</f>
+        <v>2.5</v>
+      </c>
+      <c r="D63" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B63*PI()/180)^2)</f>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="G63" s="1">
+        <f>VLOOKUP(F63,$B$3:$C$75,2)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <f>Pomiary!B64</f>
+        <v>305</v>
+      </c>
+      <c r="C64" s="1">
+        <f>Pomiary!C64</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D64" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B64*PI()/180)^2)</f>
+        <v>0.98696978501149668</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="G64" s="1">
+        <f>VLOOKUP(F64,$B$3:$C$75,2)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <f>Pomiary!B65</f>
+        <v>310</v>
+      </c>
+      <c r="C65" s="1">
+        <f>Pomiary!C65</f>
+        <v>2</v>
+      </c>
+      <c r="D65" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B65*PI()/180)^2)</f>
+        <v>1.2395277334996042</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="G65" s="1">
+        <f>VLOOKUP(F65,$B$3:$C$75,2)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <f>Pomiary!B66</f>
+        <v>315</v>
+      </c>
+      <c r="C66" s="1">
+        <f>Pomiary!C66</f>
+        <v>1.7</v>
+      </c>
+      <c r="D66" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B66*PI()/180)^2)</f>
+        <v>1.4999999999999993</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="G66" s="1">
+        <f>VLOOKUP(F66,$B$3:$C$75,2)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <f>Pomiary!B67</f>
+        <v>320</v>
+      </c>
+      <c r="C67" s="1">
+        <f>Pomiary!C67</f>
+        <v>1.4</v>
+      </c>
+      <c r="D67" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B67*PI()/180)^2)</f>
+        <v>1.7604722665003945</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G67" s="1">
+        <f>VLOOKUP(F67,$B$3:$C$75,2)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <f>Pomiary!B68</f>
+        <v>325</v>
+      </c>
+      <c r="C68" s="1">
+        <f>Pomiary!C68</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D68" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B68*PI()/180)^2)</f>
+        <v>2.0130302149885022</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" ref="F68:F75" si="2">MOD(B68+$E$2,360)</f>
+        <v>245</v>
+      </c>
+      <c r="G68" s="1">
+        <f>VLOOKUP(F68,$B$3:$C$75,2)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <f>Pomiary!B69</f>
+        <v>330</v>
+      </c>
+      <c r="C69" s="1">
+        <f>Pomiary!C69</f>
+        <v>0.9</v>
+      </c>
+      <c r="D69" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B69*PI()/180)^2)</f>
+        <v>2.2499999999999987</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="G69" s="1">
+        <f>VLOOKUP(F69,$B$3:$C$75,2)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <f>Pomiary!B70</f>
+        <v>335</v>
+      </c>
+      <c r="C70" s="1">
+        <f>Pomiary!C70</f>
+        <v>0.7</v>
+      </c>
+      <c r="D70" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B70*PI()/180)^2)</f>
+        <v>2.4641814145298078</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="G70" s="1">
+        <f>VLOOKUP(F70,$B$3:$C$75,2)</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <f>Pomiary!B71</f>
+        <v>340</v>
+      </c>
+      <c r="C71" s="1">
+        <f>Pomiary!C71</f>
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B71*PI()/180)^2)</f>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="G71" s="1">
+        <f>VLOOKUP(F71,$B$3:$C$75,2)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <f>Pomiary!B72</f>
+        <v>345</v>
+      </c>
+      <c r="C72" s="1">
+        <f>Pomiary!C72</f>
+        <v>0.3</v>
+      </c>
+      <c r="D72" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B72*PI()/180)^2)</f>
+        <v>2.799038105676658</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="2"/>
+        <v>265</v>
+      </c>
+      <c r="G72" s="1">
+        <f>VLOOKUP(F72,$B$3:$C$75,2)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <f>Pomiary!B73</f>
+        <v>350</v>
+      </c>
+      <c r="C73" s="1">
+        <f>Pomiary!C73</f>
+        <v>0.1</v>
+      </c>
+      <c r="D73" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B73*PI()/180)^2)</f>
+        <v>2.9095389311788615</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="G73" s="1">
+        <f>VLOOKUP(F73,$B$3:$C$75,2)</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <f>Pomiary!B74</f>
+        <v>355</v>
+      </c>
+      <c r="C74" s="1">
+        <f>Pomiary!C74</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B74*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="G74" s="1">
+        <f>VLOOKUP(F74,$B$3:$C$75,2)</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <f>Pomiary!B75</f>
+        <v>360</v>
+      </c>
+      <c r="C75" s="1">
+        <f>Pomiary!C75</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B75*PI()/180)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="G75" s="1">
+        <f>VLOOKUP(F75,$B$3:$C$75,2)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C08F191-1D21-45DB-A272-73B58BDC1F32}">
   <dimension ref="B2:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4488,1933 +8366,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H75"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="8.7109375" style="2"/>
-    <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" style="2"/>
-    <col min="8" max="8" width="9.42578125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="str">
-        <f>Zadania!B2</f>
-        <v>φ, ◦</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>Zadania!C2</f>
-        <v>i, μA</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2" si="0">B2</f>
-        <v>φ, ◦</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:G33" si="1">C2</f>
-        <v>i, μA</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <f>Zadania!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <f>Zadania!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <f>MAX($C$3:$C$75)*(COS(B3*PI()/180)^2)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <f>MOD(B3+80,360)</f>
-        <v>80</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <f>MAX($G$3:$G$75)*(COS(F3*PI()/180)^2)</f>
-        <v>9.0461068821137497E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <f>Zadania!B4</f>
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <f>Zadania!C4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D67" si="2">MAX($C$3:$C$75)*(COS(B4*PI()/180)^2)</f>
-        <v>2.9772116295183122</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F67" si="3">MOD(B4+80,360)</f>
-        <v>85</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:H67" si="4">MAX($G$3:$G$75)*(COS(F4*PI()/180)^2)</f>
-        <v>2.2788370481687893E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <f>Zadania!B5</f>
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <f>Zadania!C5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9095389311788624</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="4"/>
-        <v>1.1257415524237342E-32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <f>Zadania!B6</f>
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <f>Zadania!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="2"/>
-        <v>2.799038105676658</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="4"/>
-        <v>2.2788370481687942E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <f>Zadania!B7</f>
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
-        <f>Zadania!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>2.6490666646784673</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="4"/>
-        <v>9.0461068821137386E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <f>Zadania!B8</f>
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
-        <f>Zadania!C8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>2.4641814145298087</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="4"/>
-        <v>0.20096189432334216</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <f>Zadania!B9</f>
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <f>Zadania!C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>2.2500000000000004</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="4"/>
-        <v>0.35093333532153292</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <f>Zadania!B10</f>
-        <v>35</v>
-      </c>
-      <c r="C10" s="1">
-        <f>Zadania!C10</f>
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="2"/>
-        <v>2.0130302149885031</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="4"/>
-        <v>0.53581858547019068</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <f>Zadania!B11</f>
-        <v>40</v>
-      </c>
-      <c r="C11" s="1">
-        <f>Zadania!C11</f>
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7604722665003956</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="4"/>
-        <v>0.74999999999999933</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <f>Zadania!B12</f>
-        <v>45</v>
-      </c>
-      <c r="C12" s="1">
-        <f>Zadania!C12</f>
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5000000000000004</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="4"/>
-        <v>0.98696978501149601</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <f>Zadania!B13</f>
-        <v>50</v>
-      </c>
-      <c r="C13" s="1">
-        <f>Zadania!C13</f>
-        <v>0.7</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2395277334996044</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="4"/>
-        <v>1.2395277334996044</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <f>Zadania!B14</f>
-        <v>55</v>
-      </c>
-      <c r="C14" s="1">
-        <f>Zadania!C14</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="2"/>
-        <v>0.98696978501149712</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="4"/>
-        <v>1.4999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <f>Zadania!B15</f>
-        <v>60</v>
-      </c>
-      <c r="C15" s="1">
-        <f>Zadania!C15</f>
-        <v>1.3</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="2"/>
-        <v>0.75000000000000033</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="4"/>
-        <v>1.7604722665003947</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <f>Zadania!B16</f>
-        <v>65</v>
-      </c>
-      <c r="C16" s="1">
-        <f>Zadania!C16</f>
-        <v>1.6</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.53581858547019101</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="4"/>
-        <v>2.0130302149885022</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <f>Zadania!B17</f>
-        <v>70</v>
-      </c>
-      <c r="C17" s="1">
-        <f>Zadania!C17</f>
-        <v>1.9</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="2"/>
-        <v>0.35093333532153315</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>1.9</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="4"/>
-        <v>2.2500000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <f>Zadania!B18</f>
-        <v>75</v>
-      </c>
-      <c r="C18" s="1">
-        <f>Zadania!C18</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20096189432334199</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="3"/>
-        <v>155</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="4"/>
-        <v>2.4641814145298087</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <f>Zadania!B19</f>
-        <v>80</v>
-      </c>
-      <c r="C19" s="1">
-        <f>Zadania!C19</f>
-        <v>2.5</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="2"/>
-        <v>9.0461068821137497E-2</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="4"/>
-        <v>2.6490666646784664</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <f>Zadania!B20</f>
-        <v>85</v>
-      </c>
-      <c r="C20" s="1">
-        <f>Zadania!C20</f>
-        <v>2.7</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="2"/>
-        <v>2.2788370481687893E-2</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="3"/>
-        <v>165</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>2.7</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="4"/>
-        <v>2.7990381056766576</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <f>Zadania!B21</f>
-        <v>90</v>
-      </c>
-      <c r="C21" s="1">
-        <f>Zadania!C21</f>
-        <v>2.8</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1257415524237342E-32</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="3"/>
-        <v>170</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="4"/>
-        <v>2.9095389311788624</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <f>Zadania!B22</f>
-        <v>95</v>
-      </c>
-      <c r="C22" s="1">
-        <f>Zadania!C22</f>
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="2"/>
-        <v>2.2788370481687942E-2</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="4"/>
-        <v>2.9772116295183122</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <f>Zadania!B23</f>
-        <v>100</v>
-      </c>
-      <c r="C23" s="1">
-        <f>Zadania!C23</f>
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="2"/>
-        <v>9.0461068821137386E-2</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <f>Zadania!B24</f>
-        <v>105</v>
-      </c>
-      <c r="C24" s="1">
-        <f>Zadania!C24</f>
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20096189432334216</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" si="4"/>
-        <v>2.9772116295183122</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <f>Zadania!B25</f>
-        <v>110</v>
-      </c>
-      <c r="C25" s="1">
-        <f>Zadania!C25</f>
-        <v>2.9</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="2"/>
-        <v>0.35093333532153292</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="3"/>
-        <v>190</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="4"/>
-        <v>2.9095389311788624</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <f>Zadania!B26</f>
-        <v>115</v>
-      </c>
-      <c r="C26" s="1">
-        <f>Zadania!C26</f>
-        <v>2.8</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="2"/>
-        <v>0.53581858547019068</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="3"/>
-        <v>195</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="4"/>
-        <v>2.7990381056766589</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <f>Zadania!B27</f>
-        <v>120</v>
-      </c>
-      <c r="C27" s="1">
-        <f>Zadania!C27</f>
-        <v>2.6</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="2"/>
-        <v>0.74999999999999933</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="4"/>
-        <v>2.6490666646784673</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <f>Zadania!B28</f>
-        <v>125</v>
-      </c>
-      <c r="C28" s="1">
-        <f>Zadania!C28</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="2"/>
-        <v>0.98696978501149601</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="3"/>
-        <v>205</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="4"/>
-        <v>2.4641814145298095</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <f>Zadania!B29</f>
-        <v>130</v>
-      </c>
-      <c r="C29" s="1">
-        <f>Zadania!C29</f>
-        <v>2</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2395277334996044</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="3"/>
-        <v>210</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="4"/>
-        <v>2.2499999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <f>Zadania!B30</f>
-        <v>135</v>
-      </c>
-      <c r="C30" s="1">
-        <f>Zadania!C30</f>
-        <v>1.7</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4999999999999996</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="3"/>
-        <v>215</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="4"/>
-        <v>2.0130302149885044</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <f>Zadania!B31</f>
-        <v>140</v>
-      </c>
-      <c r="C31" s="1">
-        <f>Zadania!C31</f>
-        <v>1.5</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7604722665003947</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="3"/>
-        <v>220</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="4"/>
-        <v>1.7604722665003956</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <f>Zadania!B32</f>
-        <v>145</v>
-      </c>
-      <c r="C32" s="1">
-        <f>Zadania!C32</f>
-        <v>1.2</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="2"/>
-        <v>2.0130302149885022</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" si="4"/>
-        <v>1.5000000000000007</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
-        <f>Zadania!B33</f>
-        <v>150</v>
-      </c>
-      <c r="C33" s="1">
-        <f>Zadania!C33</f>
-        <v>0.9</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="2"/>
-        <v>2.2500000000000004</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="4"/>
-        <v>1.2395277334996051</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
-        <f>Zadania!B34</f>
-        <v>155</v>
-      </c>
-      <c r="C34" s="1">
-        <f>Zadania!C34</f>
-        <v>0.7</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="2"/>
-        <v>2.4641814145298087</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="3"/>
-        <v>235</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" ref="G34:G65" si="5">C34</f>
-        <v>0.7</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="4"/>
-        <v>0.98696978501149779</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
-        <f>Zadania!B35</f>
-        <v>160</v>
-      </c>
-      <c r="C35" s="1">
-        <f>Zadania!C35</f>
-        <v>0.4</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="2"/>
-        <v>2.6490666646784664</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="4"/>
-        <v>0.75000000000000133</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
-        <f>Zadania!B36</f>
-        <v>165</v>
-      </c>
-      <c r="C36" s="1">
-        <f>Zadania!C36</f>
-        <v>0.3</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="2"/>
-        <v>2.7990381056766576</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="3"/>
-        <v>245</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="4"/>
-        <v>0.53581858547019223</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <f>Zadania!B37</f>
-        <v>170</v>
-      </c>
-      <c r="C37" s="1">
-        <f>Zadania!C37</f>
-        <v>0.1</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9095389311788624</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="4"/>
-        <v>0.35093333532153426</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
-        <f>Zadania!B38</f>
-        <v>175</v>
-      </c>
-      <c r="C38" s="1">
-        <f>Zadania!C38</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9772116295183122</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" si="4"/>
-        <v>0.20096189432334183</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <f>Zadania!B39</f>
-        <v>180</v>
-      </c>
-      <c r="C39" s="1">
-        <f>Zadania!C39</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="3"/>
-        <v>260</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" si="4"/>
-        <v>9.0461068821137414E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
-        <f>Zadania!B40</f>
-        <v>185</v>
-      </c>
-      <c r="C40" s="1">
-        <f>Zadania!C40</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9772116295183122</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="3"/>
-        <v>265</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" si="4"/>
-        <v>2.2788370481687952E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
-        <f>Zadania!B41</f>
-        <v>190</v>
-      </c>
-      <c r="C41" s="1">
-        <f>Zadania!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9095389311788624</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0131673971813608E-31</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
-        <f>Zadania!B42</f>
-        <v>195</v>
-      </c>
-      <c r="C42" s="1">
-        <f>Zadania!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="2"/>
-        <v>2.7990381056766589</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="3"/>
-        <v>275</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="4"/>
-        <v>2.2788370481687761E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <f>Zadania!B43</f>
-        <v>200</v>
-      </c>
-      <c r="C43" s="1">
-        <f>Zadania!C43</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="2"/>
-        <v>2.6490666646784673</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="4"/>
-        <v>9.0461068821137025E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="1">
-        <f>Zadania!B44</f>
-        <v>205</v>
-      </c>
-      <c r="C44" s="1">
-        <f>Zadania!C44</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="2"/>
-        <v>2.4641814145298095</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="3"/>
-        <v>285</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="4"/>
-        <v>0.2009618943233426</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="1">
-        <f>Zadania!B45</f>
-        <v>210</v>
-      </c>
-      <c r="C45" s="1">
-        <f>Zadania!C45</f>
-        <v>0.1</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="2"/>
-        <v>2.2499999999999996</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="4"/>
-        <v>0.35093333532153176</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="1">
-        <f>Zadania!B46</f>
-        <v>215</v>
-      </c>
-      <c r="C46" s="1">
-        <f>Zadania!C46</f>
-        <v>0.2</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="2"/>
-        <v>2.0130302149885044</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" si="3"/>
-        <v>295</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="4"/>
-        <v>0.53581858547019146</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="1">
-        <f>Zadania!B47</f>
-        <v>220</v>
-      </c>
-      <c r="C47" s="1">
-        <f>Zadania!C47</f>
-        <v>0.3</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7604722665003956</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="4"/>
-        <v>0.75000000000000033</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
-        <f>Zadania!B48</f>
-        <v>225</v>
-      </c>
-      <c r="C48" s="1">
-        <f>Zadania!C48</f>
-        <v>0.4</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5000000000000007</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="3"/>
-        <v>305</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" si="4"/>
-        <v>0.98696978501149668</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="1">
-        <f>Zadania!B49</f>
-        <v>230</v>
-      </c>
-      <c r="C49" s="1">
-        <f>Zadania!C49</f>
-        <v>0.7</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2395277334996051</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" si="3"/>
-        <v>310</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" si="5"/>
-        <v>0.7</v>
-      </c>
-      <c r="H49" s="3">
-        <f t="shared" si="4"/>
-        <v>1.2395277334996042</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="1">
-        <f>Zadania!B50</f>
-        <v>235</v>
-      </c>
-      <c r="C50" s="1">
-        <f>Zadania!C50</f>
-        <v>0.9</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="2"/>
-        <v>0.98696978501149779</v>
-      </c>
-      <c r="F50" s="1">
-        <f t="shared" si="3"/>
-        <v>315</v>
-      </c>
-      <c r="G50" s="1">
-        <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="H50" s="3">
-        <f t="shared" si="4"/>
-        <v>1.4999999999999993</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
-        <f>Zadania!B51</f>
-        <v>240</v>
-      </c>
-      <c r="C51" s="1">
-        <f>Zadania!C51</f>
-        <v>1.2</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="2"/>
-        <v>0.75000000000000133</v>
-      </c>
-      <c r="F51" s="1">
-        <f t="shared" si="3"/>
-        <v>320</v>
-      </c>
-      <c r="G51" s="1">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="H51" s="3">
-        <f t="shared" si="4"/>
-        <v>1.7604722665003945</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="1">
-        <f>Zadania!B52</f>
-        <v>245</v>
-      </c>
-      <c r="C52" s="1">
-        <f>Zadania!C52</f>
-        <v>1.5</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="2"/>
-        <v>0.53581858547019223</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="3"/>
-        <v>325</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="H52" s="3">
-        <f t="shared" si="4"/>
-        <v>2.0130302149885022</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="1">
-        <f>Zadania!B53</f>
-        <v>250</v>
-      </c>
-      <c r="C53" s="1">
-        <f>Zadania!C53</f>
-        <v>1.8</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="2"/>
-        <v>0.35093333532153426</v>
-      </c>
-      <c r="F53" s="1">
-        <f t="shared" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-      <c r="H53" s="3">
-        <f t="shared" si="4"/>
-        <v>2.2499999999999987</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="1">
-        <f>Zadania!B54</f>
-        <v>255</v>
-      </c>
-      <c r="C54" s="1">
-        <f>Zadania!C54</f>
-        <v>2.1</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20096189432334183</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="3"/>
-        <v>335</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="5"/>
-        <v>2.1</v>
-      </c>
-      <c r="H54" s="3">
-        <f t="shared" si="4"/>
-        <v>2.4641814145298078</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="1">
-        <f>Zadania!B55</f>
-        <v>260</v>
-      </c>
-      <c r="C55" s="1">
-        <f>Zadania!C55</f>
-        <v>2.4</v>
-      </c>
-      <c r="D55" s="3">
-        <f t="shared" si="2"/>
-        <v>9.0461068821137414E-2</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" si="3"/>
-        <v>340</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" si="5"/>
-        <v>2.4</v>
-      </c>
-      <c r="H55" s="3">
-        <f t="shared" si="4"/>
-        <v>2.6490666646784673</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="1">
-        <f>Zadania!B56</f>
-        <v>265</v>
-      </c>
-      <c r="C56" s="1">
-        <f>Zadania!C56</f>
-        <v>2.6</v>
-      </c>
-      <c r="D56" s="3">
-        <f t="shared" si="2"/>
-        <v>2.2788370481687952E-2</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="3"/>
-        <v>345</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="5"/>
-        <v>2.6</v>
-      </c>
-      <c r="H56" s="3">
-        <f t="shared" si="4"/>
-        <v>2.799038105676658</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="1">
-        <f>Zadania!B57</f>
-        <v>270</v>
-      </c>
-      <c r="C57" s="1">
-        <f>Zadania!C57</f>
-        <v>2.8</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0131673971813608E-31</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" si="3"/>
-        <v>350</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" si="5"/>
-        <v>2.8</v>
-      </c>
-      <c r="H57" s="3">
-        <f t="shared" si="4"/>
-        <v>2.9095389311788615</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="1">
-        <f>Zadania!B58</f>
-        <v>275</v>
-      </c>
-      <c r="C58" s="1">
-        <f>Zadania!C58</f>
-        <v>2.8</v>
-      </c>
-      <c r="D58" s="3">
-        <f t="shared" si="2"/>
-        <v>2.2788370481687761E-2</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" si="3"/>
-        <v>355</v>
-      </c>
-      <c r="G58" s="1">
-        <f t="shared" si="5"/>
-        <v>2.8</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="4"/>
-        <v>2.9772116295183122</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="1">
-        <f>Zadania!B59</f>
-        <v>280</v>
-      </c>
-      <c r="C59" s="1">
-        <f>Zadania!C59</f>
-        <v>2.9</v>
-      </c>
-      <c r="D59" s="3">
-        <f t="shared" si="2"/>
-        <v>9.0461068821137025E-2</v>
-      </c>
-      <c r="F59" s="1">
-        <f>360</f>
-        <v>360</v>
-      </c>
-      <c r="G59" s="1">
-        <f t="shared" si="5"/>
-        <v>2.9</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="1">
-        <f>Zadania!B60</f>
-        <v>285</v>
-      </c>
-      <c r="C60" s="1">
-        <f>Zadania!C60</f>
-        <v>2.9</v>
-      </c>
-      <c r="D60" s="3">
-        <f t="shared" si="2"/>
-        <v>0.2009618943233426</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1">
-        <f t="shared" si="5"/>
-        <v>2.9</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="1">
-        <f>Zadania!B61</f>
-        <v>290</v>
-      </c>
-      <c r="C61" s="1">
-        <f>Zadania!C61</f>
-        <v>2.8</v>
-      </c>
-      <c r="D61" s="3">
-        <f t="shared" si="2"/>
-        <v>0.35093333532153176</v>
-      </c>
-      <c r="F61" s="1">
-        <v>5</v>
-      </c>
-      <c r="G61" s="1">
-        <f t="shared" si="5"/>
-        <v>2.8</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="4"/>
-        <v>2.9772116295183122</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="1">
-        <f>Zadania!B62</f>
-        <v>295</v>
-      </c>
-      <c r="C62" s="1">
-        <f>Zadania!C62</f>
-        <v>2.7</v>
-      </c>
-      <c r="D62" s="3">
-        <f t="shared" si="2"/>
-        <v>0.53581858547019146</v>
-      </c>
-      <c r="F62" s="1">
-        <v>10</v>
-      </c>
-      <c r="G62" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="4"/>
-        <v>2.9095389311788624</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="1">
-        <f>Zadania!B63</f>
-        <v>300</v>
-      </c>
-      <c r="C63" s="1">
-        <f>Zadania!C63</f>
-        <v>2.5</v>
-      </c>
-      <c r="D63" s="3">
-        <f t="shared" si="2"/>
-        <v>0.75000000000000033</v>
-      </c>
-      <c r="F63" s="1">
-        <v>15</v>
-      </c>
-      <c r="G63" s="1">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="4"/>
-        <v>2.799038105676658</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="1">
-        <f>Zadania!B64</f>
-        <v>305</v>
-      </c>
-      <c r="C64" s="1">
-        <f>Zadania!C64</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D64" s="3">
-        <f t="shared" si="2"/>
-        <v>0.98696978501149668</v>
-      </c>
-      <c r="F64" s="1">
-        <v>20</v>
-      </c>
-      <c r="G64" s="1">
-        <f t="shared" si="5"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="4"/>
-        <v>2.6490666646784673</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="1">
-        <f>Zadania!B65</f>
-        <v>310</v>
-      </c>
-      <c r="C65" s="1">
-        <f>Zadania!C65</f>
-        <v>2</v>
-      </c>
-      <c r="D65" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2395277334996042</v>
-      </c>
-      <c r="F65" s="1">
-        <v>25</v>
-      </c>
-      <c r="G65" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="H65" s="3">
-        <f t="shared" si="4"/>
-        <v>2.4641814145298087</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="1">
-        <f>Zadania!B66</f>
-        <v>315</v>
-      </c>
-      <c r="C66" s="1">
-        <f>Zadania!C66</f>
-        <v>1.7</v>
-      </c>
-      <c r="D66" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4999999999999993</v>
-      </c>
-      <c r="F66" s="1">
-        <v>30</v>
-      </c>
-      <c r="G66" s="1">
-        <f t="shared" ref="G66:G75" si="6">C66</f>
-        <v>1.7</v>
-      </c>
-      <c r="H66" s="3">
-        <f t="shared" si="4"/>
-        <v>2.2500000000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="1">
-        <f>Zadania!B67</f>
-        <v>320</v>
-      </c>
-      <c r="C67" s="1">
-        <f>Zadania!C67</f>
-        <v>1.4</v>
-      </c>
-      <c r="D67" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7604722665003945</v>
-      </c>
-      <c r="F67" s="1">
-        <v>35</v>
-      </c>
-      <c r="G67" s="1">
-        <f t="shared" si="6"/>
-        <v>1.4</v>
-      </c>
-      <c r="H67" s="3">
-        <f t="shared" si="4"/>
-        <v>2.0130302149885031</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="1">
-        <f>Zadania!B68</f>
-        <v>325</v>
-      </c>
-      <c r="C68" s="1">
-        <f>Zadania!C68</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D68" s="3">
-        <f t="shared" ref="D68:D75" si="7">MAX($C$3:$C$75)*(COS(B68*PI()/180)^2)</f>
-        <v>2.0130302149885022</v>
-      </c>
-      <c r="F68" s="1">
-        <v>40</v>
-      </c>
-      <c r="G68" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H68" s="3">
-        <f t="shared" ref="H68:H75" si="8">MAX($G$3:$G$75)*(COS(F68*PI()/180)^2)</f>
-        <v>1.7604722665003956</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
-        <f>Zadania!B69</f>
-        <v>330</v>
-      </c>
-      <c r="C69" s="1">
-        <f>Zadania!C69</f>
-        <v>0.9</v>
-      </c>
-      <c r="D69" s="3">
-        <f t="shared" si="7"/>
-        <v>2.2499999999999987</v>
-      </c>
-      <c r="F69" s="1">
-        <v>45</v>
-      </c>
-      <c r="G69" s="1">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-      <c r="H69" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5000000000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="1">
-        <f>Zadania!B70</f>
-        <v>335</v>
-      </c>
-      <c r="C70" s="1">
-        <f>Zadania!C70</f>
-        <v>0.7</v>
-      </c>
-      <c r="D70" s="3">
-        <f t="shared" si="7"/>
-        <v>2.4641814145298078</v>
-      </c>
-      <c r="F70" s="1">
-        <v>50</v>
-      </c>
-      <c r="G70" s="1">
-        <f t="shared" si="6"/>
-        <v>0.7</v>
-      </c>
-      <c r="H70" s="3">
-        <f t="shared" si="8"/>
-        <v>1.2395277334996044</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="1">
-        <f>Zadania!B71</f>
-        <v>340</v>
-      </c>
-      <c r="C71" s="1">
-        <f>Zadania!C71</f>
-        <v>0.5</v>
-      </c>
-      <c r="D71" s="3">
-        <f t="shared" si="7"/>
-        <v>2.6490666646784673</v>
-      </c>
-      <c r="F71" s="1">
-        <v>55</v>
-      </c>
-      <c r="G71" s="1">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="H71" s="3">
-        <f t="shared" si="8"/>
-        <v>0.98696978501149712</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="1">
-        <f>Zadania!B72</f>
-        <v>345</v>
-      </c>
-      <c r="C72" s="1">
-        <f>Zadania!C72</f>
-        <v>0.3</v>
-      </c>
-      <c r="D72" s="3">
-        <f t="shared" si="7"/>
-        <v>2.799038105676658</v>
-      </c>
-      <c r="F72" s="1">
-        <v>60</v>
-      </c>
-      <c r="G72" s="1">
-        <f t="shared" si="6"/>
-        <v>0.3</v>
-      </c>
-      <c r="H72" s="3">
-        <f t="shared" si="8"/>
-        <v>0.75000000000000033</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="1">
-        <f>Zadania!B73</f>
-        <v>350</v>
-      </c>
-      <c r="C73" s="1">
-        <f>Zadania!C73</f>
-        <v>0.1</v>
-      </c>
-      <c r="D73" s="3">
-        <f t="shared" si="7"/>
-        <v>2.9095389311788615</v>
-      </c>
-      <c r="F73" s="1">
-        <v>65</v>
-      </c>
-      <c r="G73" s="1">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="H73" s="3">
-        <f t="shared" si="8"/>
-        <v>0.53581858547019101</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="1">
-        <f>Zadania!B74</f>
-        <v>355</v>
-      </c>
-      <c r="C74" s="1">
-        <f>Zadania!C74</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="3">
-        <f t="shared" si="7"/>
-        <v>2.9772116295183122</v>
-      </c>
-      <c r="F74" s="1">
-        <v>70</v>
-      </c>
-      <c r="G74" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="3">
-        <f t="shared" si="8"/>
-        <v>0.35093333532153315</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="1">
-        <f>Zadania!B75</f>
-        <v>360</v>
-      </c>
-      <c r="C75" s="1">
-        <f>Zadania!C75</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="3">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="F75" s="1">
-        <v>75</v>
-      </c>
-      <c r="G75" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="3">
-        <f t="shared" si="8"/>
-        <v>0.20096189432334199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/10/10.xlsx
+++ b/10/10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A28E66-33EF-49D8-B475-6D49BF857F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D57BAF3-1596-4C94-825B-697FA6B24DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>φ, ◦</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>u(φ)</t>
+  </si>
+  <si>
+    <t>iT, μA</t>
   </si>
 </sst>
 </file>
@@ -82,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -105,11 +108,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,6 +158,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -236,7 +291,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2495308108816379E-2"/>
+          <c:y val="0.1012467281136054"/>
+          <c:w val="0.68608702417398826"/>
+          <c:h val="0.85843027669224858"/>
+        </c:manualLayout>
+      </c:layout>
       <c:radarChart>
         <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
@@ -996,7 +1061,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>6. Pomiar skorygowany</c:v>
+            <c:v>6. Malus skorygowany</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1547,6 +1612,1327 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2495308108816379E-2"/>
+          <c:y val="0.1012467281136054"/>
+          <c:w val="0.68608702417398826"/>
+          <c:h val="0.85843027669224858"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1. Pomiar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'malus do pomiar'!$B$3:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'malus do pomiar'!$C$3:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D93E-4766-ADB9-88FBDFB1A651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3. Prawo malusa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'malus do pomiar'!$D$3:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.799038105676658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4641814145298087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0130302149885031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7604722665003956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2395277334996044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98696978501149712</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53581858547019101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35093333532153315</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20096189432334199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0461068821137497E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2788370481687893E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1257415524237342E-32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2788370481687942E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0461068821137386E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20096189432334216</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.35093333532153292</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53581858547019068</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74999999999999933</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98696978501149601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2395277334996044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7604722665003947</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0130302149885022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4641814145298087</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6490666646784664</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7990381056766576</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7990381056766589</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.4641814145298095</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0130302149885044</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7604722665003956</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2395277334996051</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.98696978501149779</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.75000000000000133</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.53581858547019223</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.35093333532153426</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.20096189432334183</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.0461068821137414E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2788370481687952E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0131673971813608E-31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2788370481687761E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.0461068821137025E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.2009618943233426</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.35093333532153176</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.53581858547019146</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.98696978501149668</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2395277334996042</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.4999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7604722665003945</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0130302149885022</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.2499999999999987</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.4641814145298078</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.799038105676658</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.9095389311788615</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D93E-4766-ADB9-88FBDFB1A651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>6. Malus skorygowany</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'malus do pomiar'!$G$3:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>9.0461068821137497E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2788370481687893E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1257415524237342E-32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2788370481687942E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0461068821137386E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20096189432334216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35093333532153292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53581858547019068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74999999999999933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98696978501149601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2395277334996044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7604722665003947</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0130302149885022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4641814145298087</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6490666646784664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7990381056766576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7990381056766589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4641814145298095</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0130302149885044</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7604722665003956</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2395277334996051</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98696978501149779</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.75000000000000133</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53581858547019223</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35093333532153426</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.20096189432334183</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0461068821137414E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2788370481687952E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0131673971813608E-31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2788370481687761E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0461068821137025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2009618943233426</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.35093333532153176</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.53581858547019146</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98696978501149668</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2395277334996042</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7604722665003945</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0130302149885022</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.2499999999999987</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.4641814145298078</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.799038105676658</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9095389311788615</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.799038105676658</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.4641814145298087</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0130302149885031</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7604722665003956</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2395277334996044</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98696978501149712</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.53581858547019101</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.35093333532153315</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.20096189432334199</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.0461068821137497E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D93E-4766-ADB9-88FBDFB1A651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366415888"/>
+        <c:axId val="366414928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="366415888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366414928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="366414928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366415888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wykres zależności i, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>μ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>A od </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>φ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>◦</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
@@ -2759,6 +4145,1317 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wykres zależności i, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>μ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>A od </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>φ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>◦</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1. Pomiar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pomiar do mal'!$B$3:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pomiar do mal'!$C$3:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCAC-4E5F-B3C0-48396A0E3622}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3. Prawo malusa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pomiar do mal'!$D$3:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.799038105676658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4641814145298087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0130302149885031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7604722665003956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2395277334996044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98696978501149712</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53581858547019101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35093333532153315</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20096189432334199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0461068821137497E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2788370481687893E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1257415524237342E-32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2788370481687942E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0461068821137386E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20096189432334216</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.35093333532153292</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53581858547019068</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74999999999999933</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98696978501149601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2395277334996044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7604722665003947</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0130302149885022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4641814145298087</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6490666646784664</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7990381056766576</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9095389311788624</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7990381056766589</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.4641814145298095</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0130302149885044</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7604722665003956</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2395277334996051</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.98696978501149779</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.75000000000000133</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.53581858547019223</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.35093333532153426</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.20096189432334183</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.0461068821137414E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2788370481687952E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0131673971813608E-31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2788370481687761E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.0461068821137025E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.2009618943233426</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.35093333532153176</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.53581858547019146</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.98696978501149668</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2395277334996042</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.4999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7604722665003945</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0130302149885022</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.2499999999999987</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.4641814145298078</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.6490666646784673</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.799038105676658</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.9095389311788615</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.9772116295183122</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FCAC-4E5F-B3C0-48396A0E3622}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>6. Pomiar skorygowany</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pomiar do mal'!$G$3:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FCAC-4E5F-B3C0-48396A0E3622}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366415888"/>
+        <c:axId val="366414928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="366415888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366414928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="366414928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366415888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2800,6 +5497,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3849,20 +6626,1030 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>92490</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>136524</xdr:rowOff>
+      <xdr:rowOff>128242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>138546</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>461569</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:rowOff>78309</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3884,6 +7671,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>490307</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140567</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA670CD0-ED3E-42A6-8D17-988E7B2D513B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3927,6 +7752,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>211710</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>115719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7794F222-7DCF-4C29-972E-85CB6A228E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4198,10 +8061,2378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56620592-A9D7-4CA2-A26A-149A7DE85FF0}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:Q80"/>
+  <sheetViews>
+    <sheetView topLeftCell="F16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
+    <col min="5" max="13" width="8.7109375" style="2"/>
+    <col min="14" max="14" width="3" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>0.5/SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>Pomiary!B2</f>
+        <v>φ, ◦</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>Pomiary!C2</f>
+        <v>i, μA</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>B2</f>
+        <v>φ, ◦</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" ref="G2" si="0">C2</f>
+        <v>i, μA</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!B3,RIGHT(TEXT($A$2,"0,00E+00"),2)+1,TRUE),"(",LEFT($A$2*10^LEN($A$2),2),")")</f>
+        <v>0,00(28)</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Pomiary!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <f>MAX($C$3:$C$75)*(COS(B3*PI()/180)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <f>MOD(B3+$E$2,360)</f>
+        <v>80</v>
+      </c>
+      <c r="G3" s="1">
+        <f>MAX($C$3:$C$75)*(COS(F3*PI()/180)^2)</f>
+        <v>9.0461068821137497E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <f>Pomiary!B4</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Pomiary!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B4*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F67" si="1">MOD(B4+$E$2,360)</f>
+        <v>85</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G67" si="2">MAX($C$3:$C$75)*(COS(F4*PI()/180)^2)</f>
+        <v>2.2788370481687893E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <f>Pomiary!B5</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Pomiary!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B5*PI()/180)^2)</f>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1257415524237342E-32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <f>Pomiary!B6</f>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Pomiary!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B6*PI()/180)^2)</f>
+        <v>2.799038105676658</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2788370481687942E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <f>Pomiary!B7</f>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Pomiary!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B7*PI()/180)^2)</f>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0461068821137386E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <f>Pomiary!B8</f>
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Pomiary!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B8*PI()/180)^2)</f>
+        <v>2.4641814145298087</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20096189432334216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f>Pomiary!B9</f>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Pomiary!C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B9*PI()/180)^2)</f>
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35093333532153292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <f>Pomiary!B10</f>
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <f>Pomiary!C10</f>
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B10*PI()/180)^2)</f>
+        <v>2.0130302149885031</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53581858547019068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <f>Pomiary!B11</f>
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <f>Pomiary!C11</f>
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B11*PI()/180)^2)</f>
+        <v>1.7604722665003956</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74999999999999933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f>Pomiary!B12</f>
+        <v>45</v>
+      </c>
+      <c r="C12" s="1">
+        <f>Pomiary!C12</f>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B12*PI()/180)^2)</f>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98696978501149601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f>Pomiary!B13</f>
+        <v>50</v>
+      </c>
+      <c r="C13" s="1">
+        <f>Pomiary!C13</f>
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B13*PI()/180)^2)</f>
+        <v>1.2395277334996044</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2395277334996044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f>Pomiary!B14</f>
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Pomiary!C14</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B14*PI()/180)^2)</f>
+        <v>0.98696978501149712</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <f>Pomiary!B15</f>
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <f>Pomiary!C15</f>
+        <v>1.3</v>
+      </c>
+      <c r="D15" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B15*PI()/180)^2)</f>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7604722665003947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f>Pomiary!B16</f>
+        <v>65</v>
+      </c>
+      <c r="C16" s="1">
+        <f>Pomiary!C16</f>
+        <v>1.6</v>
+      </c>
+      <c r="D16" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B16*PI()/180)^2)</f>
+        <v>0.53581858547019101</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0130302149885022</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <f>Pomiary!B17</f>
+        <v>70</v>
+      </c>
+      <c r="C17" s="1">
+        <f>Pomiary!C17</f>
+        <v>1.9</v>
+      </c>
+      <c r="D17" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B17*PI()/180)^2)</f>
+        <v>0.35093333532153315</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <f>Pomiary!B18</f>
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <f>Pomiary!C18</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D18" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B18*PI()/180)^2)</f>
+        <v>0.20096189432334199</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4641814145298087</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f>Pomiary!B19</f>
+        <v>80</v>
+      </c>
+      <c r="C19" s="1">
+        <f>Pomiary!C19</f>
+        <v>2.5</v>
+      </c>
+      <c r="D19" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B19*PI()/180)^2)</f>
+        <v>9.0461068821137497E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6490666646784664</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <f>Pomiary!B20</f>
+        <v>85</v>
+      </c>
+      <c r="C20" s="1">
+        <f>Pomiary!C20</f>
+        <v>2.7</v>
+      </c>
+      <c r="D20" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B20*PI()/180)^2)</f>
+        <v>2.2788370481687893E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7990381056766576</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f>Pomiary!B21</f>
+        <v>90</v>
+      </c>
+      <c r="C21" s="1">
+        <f>Pomiary!C21</f>
+        <v>2.8</v>
+      </c>
+      <c r="D21" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B21*PI()/180)^2)</f>
+        <v>1.1257415524237342E-32</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9095389311788624</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <f>Pomiary!B22</f>
+        <v>95</v>
+      </c>
+      <c r="C22" s="1">
+        <f>Pomiary!C22</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B22*PI()/180)^2)</f>
+        <v>2.2788370481687942E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <f>Pomiary!B23</f>
+        <v>100</v>
+      </c>
+      <c r="C23" s="1">
+        <f>Pomiary!C23</f>
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B23*PI()/180)^2)</f>
+        <v>9.0461068821137386E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <f>Pomiary!B24</f>
+        <v>105</v>
+      </c>
+      <c r="C24" s="1">
+        <f>Pomiary!C24</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B24*PI()/180)^2)</f>
+        <v>0.20096189432334216</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <f>Pomiary!B25</f>
+        <v>110</v>
+      </c>
+      <c r="C25" s="1">
+        <f>Pomiary!C25</f>
+        <v>2.9</v>
+      </c>
+      <c r="D25" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B25*PI()/180)^2)</f>
+        <v>0.35093333532153292</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9095389311788624</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <f>Pomiary!B26</f>
+        <v>115</v>
+      </c>
+      <c r="C26" s="1">
+        <f>Pomiary!C26</f>
+        <v>2.8</v>
+      </c>
+      <c r="D26" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B26*PI()/180)^2)</f>
+        <v>0.53581858547019068</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7990381056766589</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <f>Pomiary!B27</f>
+        <v>120</v>
+      </c>
+      <c r="C27" s="1">
+        <f>Pomiary!C27</f>
+        <v>2.6</v>
+      </c>
+      <c r="D27" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B27*PI()/180)^2)</f>
+        <v>0.74999999999999933</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6490666646784673</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <f>Pomiary!B28</f>
+        <v>125</v>
+      </c>
+      <c r="C28" s="1">
+        <f>Pomiary!C28</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D28" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B28*PI()/180)^2)</f>
+        <v>0.98696978501149601</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4641814145298095</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <f>Pomiary!B29</f>
+        <v>130</v>
+      </c>
+      <c r="C29" s="1">
+        <f>Pomiary!C29</f>
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B29*PI()/180)^2)</f>
+        <v>1.2395277334996044</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2499999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <f>Pomiary!B30</f>
+        <v>135</v>
+      </c>
+      <c r="C30" s="1">
+        <f>Pomiary!C30</f>
+        <v>1.7</v>
+      </c>
+      <c r="D30" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B30*PI()/180)^2)</f>
+        <v>1.4999999999999996</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0130302149885044</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <f>Pomiary!B31</f>
+        <v>140</v>
+      </c>
+      <c r="C31" s="1">
+        <f>Pomiary!C31</f>
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B31*PI()/180)^2)</f>
+        <v>1.7604722665003947</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7604722665003956</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <f>Pomiary!B32</f>
+        <v>145</v>
+      </c>
+      <c r="C32" s="1">
+        <f>Pomiary!C32</f>
+        <v>1.2</v>
+      </c>
+      <c r="D32" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B32*PI()/180)^2)</f>
+        <v>2.0130302149885022</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <f>Pomiary!B33</f>
+        <v>150</v>
+      </c>
+      <c r="C33" s="1">
+        <f>Pomiary!C33</f>
+        <v>0.9</v>
+      </c>
+      <c r="D33" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B33*PI()/180)^2)</f>
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2395277334996051</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <f>Pomiary!B34</f>
+        <v>155</v>
+      </c>
+      <c r="C34" s="1">
+        <f>Pomiary!C34</f>
+        <v>0.7</v>
+      </c>
+      <c r="D34" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B34*PI()/180)^2)</f>
+        <v>2.4641814145298087</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98696978501149779</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <f>Pomiary!B35</f>
+        <v>160</v>
+      </c>
+      <c r="C35" s="1">
+        <f>Pomiary!C35</f>
+        <v>0.4</v>
+      </c>
+      <c r="D35" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B35*PI()/180)^2)</f>
+        <v>2.6490666646784664</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <f>Pomiary!B36</f>
+        <v>165</v>
+      </c>
+      <c r="C36" s="1">
+        <f>Pomiary!C36</f>
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B36*PI()/180)^2)</f>
+        <v>2.7990381056766576</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53581858547019223</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <f>Pomiary!B37</f>
+        <v>170</v>
+      </c>
+      <c r="C37" s="1">
+        <f>Pomiary!C37</f>
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B37*PI()/180)^2)</f>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35093333532153426</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <f>Pomiary!B38</f>
+        <v>175</v>
+      </c>
+      <c r="C38" s="1">
+        <f>Pomiary!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B38*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20096189432334183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <f>Pomiary!B39</f>
+        <v>180</v>
+      </c>
+      <c r="C39" s="1">
+        <f>Pomiary!C39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B39*PI()/180)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0461068821137414E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <f>Pomiary!B40</f>
+        <v>185</v>
+      </c>
+      <c r="C40" s="1">
+        <f>Pomiary!C40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B40*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2788370481687952E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <f>Pomiary!B41</f>
+        <v>190</v>
+      </c>
+      <c r="C41" s="1">
+        <f>Pomiary!C41</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B41*PI()/180)^2)</f>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0131673971813608E-31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <f>Pomiary!B42</f>
+        <v>195</v>
+      </c>
+      <c r="C42" s="1">
+        <f>Pomiary!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B42*PI()/180)^2)</f>
+        <v>2.7990381056766589</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2788370481687761E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <f>Pomiary!B43</f>
+        <v>200</v>
+      </c>
+      <c r="C43" s="1">
+        <f>Pomiary!C43</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B43*PI()/180)^2)</f>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0461068821137025E-2</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <f>Pomiary!B44</f>
+        <v>205</v>
+      </c>
+      <c r="C44" s="1">
+        <f>Pomiary!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B44*PI()/180)^2)</f>
+        <v>2.4641814145298095</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2009618943233426</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>3</v>
+      </c>
+      <c r="O44" s="5">
+        <v>185</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <f>Pomiary!B45</f>
+        <v>210</v>
+      </c>
+      <c r="C45" s="1">
+        <f>Pomiary!C45</f>
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B45*PI()/180)^2)</f>
+        <v>2.2499999999999996</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35093333532153176</v>
+      </c>
+      <c r="K45" s="1">
+        <v>5</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="O45" s="5">
+        <v>190</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>2.9095389311788624</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <f>Pomiary!B46</f>
+        <v>215</v>
+      </c>
+      <c r="C46" s="1">
+        <f>Pomiary!C46</f>
+        <v>0.2</v>
+      </c>
+      <c r="D46" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B46*PI()/180)^2)</f>
+        <v>2.0130302149885044</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53581858547019146</v>
+      </c>
+      <c r="K46" s="1">
+        <v>10</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="O46" s="5">
+        <v>195</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>2.7990381056766589</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <f>Pomiary!B47</f>
+        <v>220</v>
+      </c>
+      <c r="C47" s="1">
+        <f>Pomiary!C47</f>
+        <v>0.3</v>
+      </c>
+      <c r="D47" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B47*PI()/180)^2)</f>
+        <v>1.7604722665003956</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="K47" s="1">
+        <v>15</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <v>2.799038105676658</v>
+      </c>
+      <c r="O47" s="5">
+        <v>200</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>2.6490666646784673</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <f>Pomiary!B48</f>
+        <v>225</v>
+      </c>
+      <c r="C48" s="1">
+        <f>Pomiary!C48</f>
+        <v>0.4</v>
+      </c>
+      <c r="D48" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B48*PI()/180)^2)</f>
+        <v>1.5000000000000007</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98696978501149668</v>
+      </c>
+      <c r="K48" s="1">
+        <v>20</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="O48" s="5">
+        <v>205</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>2.4641814145298095</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <f>Pomiary!B49</f>
+        <v>230</v>
+      </c>
+      <c r="C49" s="1">
+        <f>Pomiary!C49</f>
+        <v>0.7</v>
+      </c>
+      <c r="D49" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B49*PI()/180)^2)</f>
+        <v>1.2395277334996051</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2395277334996042</v>
+      </c>
+      <c r="K49" s="1">
+        <v>25</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2.4641814145298087</v>
+      </c>
+      <c r="O49" s="5">
+        <v>210</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>2.2499999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <f>Pomiary!B50</f>
+        <v>235</v>
+      </c>
+      <c r="C50" s="1">
+        <f>Pomiary!C50</f>
+        <v>0.9</v>
+      </c>
+      <c r="D50" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B50*PI()/180)^2)</f>
+        <v>0.98696978501149779</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999993</v>
+      </c>
+      <c r="K50" s="1">
+        <v>30</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M50" s="7">
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="O50" s="5">
+        <v>215</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>2.0130302149885044</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <f>Pomiary!B51</f>
+        <v>240</v>
+      </c>
+      <c r="C51" s="1">
+        <f>Pomiary!C51</f>
+        <v>1.2</v>
+      </c>
+      <c r="D51" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B51*PI()/180)^2)</f>
+        <v>0.75000000000000133</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7604722665003945</v>
+      </c>
+      <c r="K51" s="1">
+        <v>35</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M51" s="7">
+        <v>2.0130302149885031</v>
+      </c>
+      <c r="O51" s="5">
+        <v>220</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>1.7604722665003956</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <f>Pomiary!B52</f>
+        <v>245</v>
+      </c>
+      <c r="C52" s="1">
+        <f>Pomiary!C52</f>
+        <v>1.5</v>
+      </c>
+      <c r="D52" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B52*PI()/180)^2)</f>
+        <v>0.53581858547019223</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0130302149885022</v>
+      </c>
+      <c r="K52" s="1">
+        <v>40</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M52" s="7">
+        <v>1.7604722665003956</v>
+      </c>
+      <c r="O52" s="5">
+        <v>225</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>1.5000000000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <f>Pomiary!B53</f>
+        <v>250</v>
+      </c>
+      <c r="C53" s="1">
+        <f>Pomiary!C53</f>
+        <v>1.8</v>
+      </c>
+      <c r="D53" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B53*PI()/180)^2)</f>
+        <v>0.35093333532153426</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2499999999999987</v>
+      </c>
+      <c r="K53" s="1">
+        <v>45</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M53" s="7">
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="O53" s="5">
+        <v>230</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>1.2395277334996051</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <f>Pomiary!B54</f>
+        <v>255</v>
+      </c>
+      <c r="C54" s="1">
+        <f>Pomiary!C54</f>
+        <v>2.1</v>
+      </c>
+      <c r="D54" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B54*PI()/180)^2)</f>
+        <v>0.20096189432334183</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4641814145298078</v>
+      </c>
+      <c r="K54" s="1">
+        <v>50</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M54" s="7">
+        <v>1.2395277334996044</v>
+      </c>
+      <c r="O54" s="5">
+        <v>235</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0.98696978501149779</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <f>Pomiary!B55</f>
+        <v>260</v>
+      </c>
+      <c r="C55" s="1">
+        <f>Pomiary!C55</f>
+        <v>2.4</v>
+      </c>
+      <c r="D55" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B55*PI()/180)^2)</f>
+        <v>9.0461068821137414E-2</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="K55" s="1">
+        <v>55</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.98696978501149712</v>
+      </c>
+      <c r="O55" s="5">
+        <v>240</v>
+      </c>
+      <c r="P55" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>0.75000000000000133</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <f>Pomiary!B56</f>
+        <v>265</v>
+      </c>
+      <c r="C56" s="1">
+        <f>Pomiary!C56</f>
+        <v>2.6</v>
+      </c>
+      <c r="D56" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B56*PI()/180)^2)</f>
+        <v>2.2788370481687952E-2</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="2"/>
+        <v>2.799038105676658</v>
+      </c>
+      <c r="K56" s="1">
+        <v>60</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="O56" s="5">
+        <v>245</v>
+      </c>
+      <c r="P56" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>0.53581858547019223</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <f>Pomiary!B57</f>
+        <v>270</v>
+      </c>
+      <c r="C57" s="1">
+        <f>Pomiary!C57</f>
+        <v>2.8</v>
+      </c>
+      <c r="D57" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B57*PI()/180)^2)</f>
+        <v>1.0131673971813608E-31</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9095389311788615</v>
+      </c>
+      <c r="K57" s="1">
+        <v>65</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0.53581858547019101</v>
+      </c>
+      <c r="O57" s="5">
+        <v>250</v>
+      </c>
+      <c r="P57" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>0.35093333532153426</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <f>Pomiary!B58</f>
+        <v>275</v>
+      </c>
+      <c r="C58" s="1">
+        <f>Pomiary!C58</f>
+        <v>2.8</v>
+      </c>
+      <c r="D58" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B58*PI()/180)^2)</f>
+        <v>2.2788370481687761E-2</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="K58" s="1">
+        <v>70</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0.35093333532153315</v>
+      </c>
+      <c r="O58" s="5">
+        <v>255</v>
+      </c>
+      <c r="P58" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0.20096189432334183</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <f>Pomiary!B59</f>
+        <v>280</v>
+      </c>
+      <c r="C59" s="1">
+        <f>Pomiary!C59</f>
+        <v>2.9</v>
+      </c>
+      <c r="D59" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B59*PI()/180)^2)</f>
+        <v>9.0461068821137025E-2</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K59" s="1">
+        <v>75</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0.20096189432334199</v>
+      </c>
+      <c r="O59" s="5">
+        <v>260</v>
+      </c>
+      <c r="P59" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>9.0461068821137414E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <f>Pomiary!B60</f>
+        <v>285</v>
+      </c>
+      <c r="C60" s="1">
+        <f>Pomiary!C60</f>
+        <v>2.9</v>
+      </c>
+      <c r="D60" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B60*PI()/180)^2)</f>
+        <v>0.2009618943233426</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="K60" s="1">
+        <v>80</v>
+      </c>
+      <c r="L60" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="M60" s="7">
+        <v>9.0461068821137497E-2</v>
+      </c>
+      <c r="O60" s="5">
+        <v>265</v>
+      </c>
+      <c r="P60" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>2.2788370481687952E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <f>Pomiary!B61</f>
+        <v>290</v>
+      </c>
+      <c r="C61" s="1">
+        <f>Pomiary!C61</f>
+        <v>2.8</v>
+      </c>
+      <c r="D61" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B61*PI()/180)^2)</f>
+        <v>0.35093333532153176</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="K61" s="1">
+        <v>85</v>
+      </c>
+      <c r="L61" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="M61" s="7">
+        <v>2.2788370481687893E-2</v>
+      </c>
+      <c r="O61" s="5">
+        <v>270</v>
+      </c>
+      <c r="P61" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>1.0131673971813608E-31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <f>Pomiary!B62</f>
+        <v>295</v>
+      </c>
+      <c r="C62" s="1">
+        <f>Pomiary!C62</f>
+        <v>2.7</v>
+      </c>
+      <c r="D62" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B62*PI()/180)^2)</f>
+        <v>0.53581858547019146</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="2"/>
+        <v>2.799038105676658</v>
+      </c>
+      <c r="K62" s="1">
+        <v>90</v>
+      </c>
+      <c r="L62" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="M62" s="7">
+        <v>1.1257415524237342E-32</v>
+      </c>
+      <c r="O62" s="5">
+        <v>275</v>
+      </c>
+      <c r="P62" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>2.2788370481687761E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <f>Pomiary!B63</f>
+        <v>300</v>
+      </c>
+      <c r="C63" s="1">
+        <f>Pomiary!C63</f>
+        <v>2.5</v>
+      </c>
+      <c r="D63" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B63*PI()/180)^2)</f>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="K63" s="1">
+        <v>95</v>
+      </c>
+      <c r="L63" s="1">
+        <v>3</v>
+      </c>
+      <c r="M63" s="7">
+        <v>2.2788370481687942E-2</v>
+      </c>
+      <c r="O63" s="5">
+        <v>280</v>
+      </c>
+      <c r="P63" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>9.0461068821137025E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <f>Pomiary!B64</f>
+        <v>305</v>
+      </c>
+      <c r="C64" s="1">
+        <f>Pomiary!C64</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D64" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B64*PI()/180)^2)</f>
+        <v>0.98696978501149668</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4641814145298087</v>
+      </c>
+      <c r="K64" s="1">
+        <v>100</v>
+      </c>
+      <c r="L64" s="1">
+        <v>3</v>
+      </c>
+      <c r="M64" s="7">
+        <v>9.0461068821137386E-2</v>
+      </c>
+      <c r="O64" s="5">
+        <v>285</v>
+      </c>
+      <c r="P64" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>0.2009618943233426</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <f>Pomiary!B65</f>
+        <v>310</v>
+      </c>
+      <c r="C65" s="1">
+        <f>Pomiary!C65</f>
+        <v>2</v>
+      </c>
+      <c r="D65" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B65*PI()/180)^2)</f>
+        <v>1.2395277334996042</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="K65" s="1">
+        <v>105</v>
+      </c>
+      <c r="L65" s="1">
+        <v>3</v>
+      </c>
+      <c r="M65" s="7">
+        <v>0.20096189432334216</v>
+      </c>
+      <c r="O65" s="5">
+        <v>290</v>
+      </c>
+      <c r="P65" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>0.35093333532153176</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <f>Pomiary!B66</f>
+        <v>315</v>
+      </c>
+      <c r="C66" s="1">
+        <f>Pomiary!C66</f>
+        <v>1.7</v>
+      </c>
+      <c r="D66" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B66*PI()/180)^2)</f>
+        <v>1.4999999999999993</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0130302149885031</v>
+      </c>
+      <c r="K66" s="1">
+        <v>110</v>
+      </c>
+      <c r="L66" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="M66" s="7">
+        <v>0.35093333532153292</v>
+      </c>
+      <c r="O66" s="5">
+        <v>295</v>
+      </c>
+      <c r="P66" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="Q66" s="8">
+        <v>0.53581858547019146</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <f>Pomiary!B67</f>
+        <v>320</v>
+      </c>
+      <c r="C67" s="1">
+        <f>Pomiary!C67</f>
+        <v>1.4</v>
+      </c>
+      <c r="D67" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B67*PI()/180)^2)</f>
+        <v>1.7604722665003945</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7604722665003956</v>
+      </c>
+      <c r="K67" s="1">
+        <v>115</v>
+      </c>
+      <c r="L67" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="M67" s="7">
+        <v>0.53581858547019068</v>
+      </c>
+      <c r="O67" s="5">
+        <v>300</v>
+      </c>
+      <c r="P67" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>0.75000000000000033</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <f>Pomiary!B68</f>
+        <v>325</v>
+      </c>
+      <c r="C68" s="1">
+        <f>Pomiary!C68</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D68" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B68*PI()/180)^2)</f>
+        <v>2.0130302149885022</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" ref="F68:F75" si="3">MOD(B68+$E$2,360)</f>
+        <v>45</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" ref="G68:G75" si="4">MAX($C$3:$C$75)*(COS(F68*PI()/180)^2)</f>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="K68" s="1">
+        <v>120</v>
+      </c>
+      <c r="L68" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0.74999999999999933</v>
+      </c>
+      <c r="O68" s="5">
+        <v>305</v>
+      </c>
+      <c r="P68" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q68" s="8">
+        <v>0.98696978501149668</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <f>Pomiary!B69</f>
+        <v>330</v>
+      </c>
+      <c r="C69" s="1">
+        <f>Pomiary!C69</f>
+        <v>0.9</v>
+      </c>
+      <c r="D69" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B69*PI()/180)^2)</f>
+        <v>2.2499999999999987</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2395277334996044</v>
+      </c>
+      <c r="K69" s="1">
+        <v>125</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M69" s="7">
+        <v>0.98696978501149601</v>
+      </c>
+      <c r="O69" s="5">
+        <v>310</v>
+      </c>
+      <c r="P69" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q69" s="8">
+        <v>1.2395277334996042</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <f>Pomiary!B70</f>
+        <v>335</v>
+      </c>
+      <c r="C70" s="1">
+        <f>Pomiary!C70</f>
+        <v>0.7</v>
+      </c>
+      <c r="D70" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B70*PI()/180)^2)</f>
+        <v>2.4641814145298078</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98696978501149712</v>
+      </c>
+      <c r="K70" s="1">
+        <v>130</v>
+      </c>
+      <c r="L70" s="1">
+        <v>2</v>
+      </c>
+      <c r="M70" s="7">
+        <v>1.2395277334996044</v>
+      </c>
+      <c r="O70" s="5">
+        <v>315</v>
+      </c>
+      <c r="P70" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="Q70" s="8">
+        <v>1.4999999999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <f>Pomiary!B71</f>
+        <v>340</v>
+      </c>
+      <c r="C71" s="1">
+        <f>Pomiary!C71</f>
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B71*PI()/180)^2)</f>
+        <v>2.6490666646784673</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="K71" s="1">
+        <v>135</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="M71" s="7">
+        <v>1.4999999999999996</v>
+      </c>
+      <c r="O71" s="5">
+        <v>320</v>
+      </c>
+      <c r="P71" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>1.7604722665003945</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <f>Pomiary!B72</f>
+        <v>345</v>
+      </c>
+      <c r="C72" s="1">
+        <f>Pomiary!C72</f>
+        <v>0.3</v>
+      </c>
+      <c r="D72" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B72*PI()/180)^2)</f>
+        <v>2.799038105676658</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="4"/>
+        <v>0.53581858547019101</v>
+      </c>
+      <c r="K72" s="1">
+        <v>140</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M72" s="7">
+        <v>1.7604722665003947</v>
+      </c>
+      <c r="O72" s="5">
+        <v>325</v>
+      </c>
+      <c r="P72" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>2.0130302149885022</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <f>Pomiary!B73</f>
+        <v>350</v>
+      </c>
+      <c r="C73" s="1">
+        <f>Pomiary!C73</f>
+        <v>0.1</v>
+      </c>
+      <c r="D73" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B73*PI()/180)^2)</f>
+        <v>2.9095389311788615</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35093333532153315</v>
+      </c>
+      <c r="K73" s="1">
+        <v>145</v>
+      </c>
+      <c r="L73" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M73" s="7">
+        <v>2.0130302149885022</v>
+      </c>
+      <c r="O73" s="5">
+        <v>330</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>2.2499999999999987</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <f>Pomiary!B74</f>
+        <v>355</v>
+      </c>
+      <c r="C74" s="1">
+        <f>Pomiary!C74</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B74*PI()/180)^2)</f>
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20096189432334199</v>
+      </c>
+      <c r="K74" s="1">
+        <v>150</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="M74" s="7">
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="O74" s="5">
+        <v>335</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>2.4641814145298078</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <f>Pomiary!B75</f>
+        <v>360</v>
+      </c>
+      <c r="C75" s="1">
+        <f>Pomiary!C75</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B75*PI()/180)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="4"/>
+        <v>9.0461068821137497E-2</v>
+      </c>
+      <c r="K75" s="1">
+        <v>155</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M75" s="7">
+        <v>2.4641814145298087</v>
+      </c>
+      <c r="O75" s="5">
+        <v>340</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>2.6490666646784673</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K76" s="1">
+        <v>160</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M76" s="7">
+        <v>2.6490666646784664</v>
+      </c>
+      <c r="O76" s="5">
+        <v>345</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>2.799038105676658</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K77" s="1">
+        <v>165</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M77" s="7">
+        <v>2.7990381056766576</v>
+      </c>
+      <c r="O77" s="5">
+        <v>350</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>2.9095389311788615</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K78" s="1">
+        <v>170</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M78" s="7">
+        <v>2.9095389311788624</v>
+      </c>
+      <c r="O78" s="5">
+        <v>355</v>
+      </c>
+      <c r="P78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>2.9772116295183122</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K79" s="1">
+        <v>175</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0</v>
+      </c>
+      <c r="M79" s="7">
+        <v>2.9772116295183122</v>
+      </c>
+      <c r="O79" s="5">
+        <v>360</v>
+      </c>
+      <c r="P79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K80" s="1">
+        <v>180</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E528F02E-E4EB-49AD-8308-E18921FF162C}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4236,7 +10467,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>B2</f>
@@ -4260,16 +10491,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <f>MAX($C$3:$C$75)*(COS(B3*PI()/180)^2)</f>
+        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B3*PI()/180)^2)</f>
         <v>3</v>
       </c>
       <c r="F3" s="1">
         <f>MOD(B3+$E$2,360)</f>
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="G3" s="1">
-        <f>MAX($C$3:$C$75)*(COS(F3*PI()/180)^2)</f>
-        <v>9.0461068821137497E-2</v>
+        <f t="shared" ref="G3:G34" si="1">VLOOKUP(F3,$B$3:$C$75,2)</f>
+        <v>2.9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4286,12 +10517,12 @@
         <v>2.9772116295183122</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F67" si="1">MOD(B4+$E$2,360)</f>
-        <v>85</v>
+        <f t="shared" ref="F4:F67" si="2">MOD(B4+$E$2,360)</f>
+        <v>285</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G67" si="2">MAX($C$3:$C$75)*(COS(F4*PI()/180)^2)</f>
-        <v>2.2788370481687893E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4308,12 +10539,12 @@
         <v>2.9095389311788624</v>
       </c>
       <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1257415524237342E-32</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4330,12 +10561,12 @@
         <v>2.799038105676658</v>
       </c>
       <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2788370481687942E-2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4352,16 +10583,16 @@
         <v>2.6490666646784673</v>
       </c>
       <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="2"/>
-        <v>9.0461068821137386E-2</v>
+        <v>2.5</v>
       </c>
       <c r="I7" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(F11,RIGHT(TEXT(F12,"0,00E+00"),2)+1,TRUE),"(",LEFT(F12*10^LEN(F12),2),")")</f>
-        <v>120,000(12)</v>
+        <v>320,000(32)</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4378,12 +10609,12 @@
         <v>2.4641814145298087</v>
       </c>
       <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20096189432334216</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4400,12 +10631,12 @@
         <v>2.2500000000000004</v>
       </c>
       <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.35093333532153292</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4422,12 +10653,12 @@
         <v>2.0130302149885031</v>
       </c>
       <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.53581858547019068</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4444,12 +10675,12 @@
         <v>1.7604722665003956</v>
       </c>
       <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.74999999999999933</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4466,12 +10697,12 @@
         <v>1.5000000000000004</v>
       </c>
       <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="2"/>
-        <v>0.98696978501149601</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4488,12 +10719,12 @@
         <v>1.2395277334996044</v>
       </c>
       <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
-        <v>1.2395277334996044</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4510,12 +10741,12 @@
         <v>0.98696978501149712</v>
       </c>
       <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>335</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4999999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4532,12 +10763,12 @@
         <v>0.75000000000000033</v>
       </c>
       <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="2"/>
-        <v>1.7604722665003947</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4554,12 +10785,12 @@
         <v>0.53581858547019101</v>
       </c>
       <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0130302149885022</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -4576,12 +10807,12 @@
         <v>0.35093333532153315</v>
       </c>
       <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2500000000000004</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -4598,12 +10829,12 @@
         <v>0.20096189432334199</v>
       </c>
       <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>355</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>155</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4641814145298087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -4620,12 +10851,12 @@
         <v>9.0461068821137497E-2</v>
       </c>
       <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6490666646784664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -4642,12 +10873,12 @@
         <v>2.2788370481687893E-2</v>
       </c>
       <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7990381056766576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -4664,12 +10895,12 @@
         <v>1.1257415524237342E-32</v>
       </c>
       <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9095389311788624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -4686,12 +10917,12 @@
         <v>2.2788370481687942E-2</v>
       </c>
       <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9772116295183122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -4708,12 +10939,12 @@
         <v>9.0461068821137386E-2</v>
       </c>
       <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -4730,12 +10961,12 @@
         <v>0.20096189432334216</v>
       </c>
       <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9772116295183122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -4752,12 +10983,12 @@
         <v>0.35093333532153292</v>
       </c>
       <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9095389311788624</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -4774,12 +11005,12 @@
         <v>0.53581858547019068</v>
       </c>
       <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7990381056766589</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -4796,12 +11027,12 @@
         <v>0.74999999999999933</v>
       </c>
       <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6490666646784673</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -4818,12 +11049,12 @@
         <v>0.98696978501149601</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="1"/>
-        <v>205</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4641814145298095</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -4840,12 +11071,12 @@
         <v>1.2395277334996044</v>
       </c>
       <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2499999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -4862,12 +11093,12 @@
         <v>1.4999999999999996</v>
       </c>
       <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="1"/>
-        <v>215</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0130302149885044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -4884,12 +11115,12 @@
         <v>1.7604722665003947</v>
       </c>
       <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="2"/>
-        <v>1.7604722665003956</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -4906,12 +11137,12 @@
         <v>2.0130302149885022</v>
       </c>
       <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5000000000000007</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -4928,12 +11159,12 @@
         <v>2.2500000000000004</v>
       </c>
       <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="1"/>
-        <v>230</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="2"/>
-        <v>1.2395277334996051</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -4950,12 +11181,12 @@
         <v>2.4641814145298087</v>
       </c>
       <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G34" s="1">
         <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="2"/>
-        <v>0.98696978501149779</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -4972,12 +11203,12 @@
         <v>2.6490666646784664</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="1"/>
-        <v>240</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="2"/>
-        <v>0.75000000000000133</v>
+        <f t="shared" ref="G35:G66" si="3">VLOOKUP(F35,$B$3:$C$75,2)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -4994,12 +11225,12 @@
         <v>2.7990381056766576</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="1"/>
-        <v>245</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="2"/>
-        <v>0.53581858547019223</v>
+        <f t="shared" si="3"/>
+        <v>2.7</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -5016,12 +11247,12 @@
         <v>2.9095389311788624</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="2"/>
-        <v>0.35093333532153426</v>
+        <f t="shared" si="3"/>
+        <v>2.8</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -5038,12 +11269,12 @@
         <v>2.9772116295183122</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="1"/>
-        <v>255</v>
+        <f t="shared" si="2"/>
+        <v>95</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20096189432334183</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -5060,12 +11291,12 @@
         <v>3</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>260</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="2"/>
-        <v>9.0461068821137414E-2</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -5082,12 +11313,12 @@
         <v>2.9772116295183122</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>265</v>
+        <f t="shared" si="2"/>
+        <v>105</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2788370481687952E-2</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -5104,12 +11335,12 @@
         <v>2.9095389311788624</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>270</v>
+        <f t="shared" si="2"/>
+        <v>110</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0131673971813608E-31</v>
+        <f t="shared" si="3"/>
+        <v>2.9</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -5126,12 +11357,12 @@
         <v>2.7990381056766589</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="1"/>
-        <v>275</v>
+        <f t="shared" si="2"/>
+        <v>115</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2788370481687761E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.8</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -5148,12 +11379,12 @@
         <v>2.6490666646784673</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>280</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="2"/>
-        <v>9.0461068821137025E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.6</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -5170,12 +11401,12 @@
         <v>2.4641814145298095</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="1"/>
-        <v>285</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="2"/>
-        <v>0.2009618943233426</v>
+        <f t="shared" si="3"/>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -5192,12 +11423,12 @@
         <v>2.2499999999999996</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <f t="shared" si="2"/>
+        <v>130</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="2"/>
-        <v>0.35093333532153176</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -5214,12 +11445,12 @@
         <v>2.0130302149885044</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="1"/>
-        <v>295</v>
+        <f t="shared" si="2"/>
+        <v>135</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="2"/>
-        <v>0.53581858547019146</v>
+        <f t="shared" si="3"/>
+        <v>1.7</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -5236,12 +11467,12 @@
         <v>1.7604722665003956</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="2"/>
-        <v>0.75000000000000033</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -5258,12 +11489,12 @@
         <v>1.5000000000000007</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="1"/>
-        <v>305</v>
+        <f t="shared" si="2"/>
+        <v>145</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="2"/>
-        <v>0.98696978501149668</v>
+        <f t="shared" si="3"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -5280,12 +11511,12 @@
         <v>1.2395277334996051</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="1"/>
-        <v>310</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="2"/>
-        <v>1.2395277334996042</v>
+        <f t="shared" si="3"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -5302,12 +11533,12 @@
         <v>0.98696978501149779</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="1"/>
-        <v>315</v>
+        <f t="shared" si="2"/>
+        <v>155</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4999999999999993</v>
+        <f t="shared" si="3"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -5324,12 +11555,12 @@
         <v>0.75000000000000133</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="1"/>
-        <v>320</v>
+        <f t="shared" si="2"/>
+        <v>160</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="2"/>
-        <v>1.7604722665003945</v>
+        <f t="shared" si="3"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -5346,12 +11577,12 @@
         <v>0.53581858547019223</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="1"/>
-        <v>325</v>
+        <f t="shared" si="2"/>
+        <v>165</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0130302149885022</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -5368,12 +11599,12 @@
         <v>0.35093333532153426</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="1"/>
-        <v>330</v>
+        <f t="shared" si="2"/>
+        <v>170</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2499999999999987</v>
+        <f t="shared" si="3"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -5390,12 +11621,12 @@
         <v>0.20096189432334183</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="1"/>
-        <v>335</v>
+        <f t="shared" si="2"/>
+        <v>175</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4641814145298078</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -5412,12 +11643,12 @@
         <v>9.0461068821137414E-2</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="1"/>
-        <v>340</v>
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6490666646784673</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -5434,12 +11665,12 @@
         <v>2.2788370481687952E-2</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="1"/>
-        <v>345</v>
+        <f t="shared" si="2"/>
+        <v>185</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="2"/>
-        <v>2.799038105676658</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -5456,12 +11687,12 @@
         <v>1.0131673971813608E-31</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="1"/>
-        <v>350</v>
+        <f t="shared" si="2"/>
+        <v>190</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9095389311788615</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -5478,12 +11709,12 @@
         <v>2.2788370481687761E-2</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="1"/>
-        <v>355</v>
+        <f t="shared" si="2"/>
+        <v>195</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9772116295183122</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
@@ -5500,12 +11731,12 @@
         <v>9.0461068821137025E-2</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
-      </c>
-      <c r="G59" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -5522,12 +11753,12 @@
         <v>0.2009618943233426</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>205</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9772116295183122</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -5544,12 +11775,12 @@
         <v>0.35093333532153176</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>210</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9095389311788624</v>
+        <f t="shared" si="3"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -5566,12 +11797,12 @@
         <v>0.53581858547019146</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>215</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="2"/>
-        <v>2.799038105676658</v>
+        <f t="shared" si="3"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -5588,12 +11819,12 @@
         <v>0.75000000000000033</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>220</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6490666646784673</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
@@ -5610,12 +11841,12 @@
         <v>0.98696978501149668</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>225</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4641814145298087</v>
+        <f t="shared" si="3"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
@@ -5632,12 +11863,12 @@
         <v>1.2395277334996042</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>230</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2500000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -5654,12 +11885,12 @@
         <v>1.4999999999999993</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>235</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0130302149885031</v>
+        <f t="shared" si="3"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
@@ -5676,12 +11907,12 @@
         <v>1.7604722665003945</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>240</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="2"/>
-        <v>1.7604722665003956</v>
+        <f t="shared" ref="G67:G98" si="4">VLOOKUP(F67,$B$3:$C$75,2)</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
@@ -5698,12 +11929,12 @@
         <v>2.0130302149885022</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" ref="F68:F75" si="3">MOD(B68+$E$2,360)</f>
-        <v>45</v>
+        <f t="shared" ref="F68:F75" si="5">MOD(B68+$E$2,360)</f>
+        <v>245</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" ref="G68:G75" si="4">MAX($C$3:$C$75)*(COS(F68*PI()/180)^2)</f>
-        <v>1.5000000000000004</v>
+        <f t="shared" si="4"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
@@ -5720,12 +11951,12 @@
         <v>2.2499999999999987</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="4"/>
-        <v>1.2395277334996044</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
@@ -5742,12 +11973,12 @@
         <v>2.4641814145298078</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="3"/>
-        <v>55</v>
+        <f t="shared" si="5"/>
+        <v>255</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="4"/>
-        <v>0.98696978501149712</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -5764,12 +11995,12 @@
         <v>2.6490666646784673</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>260</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="4"/>
-        <v>0.75000000000000033</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
@@ -5786,12 +12017,12 @@
         <v>2.799038105676658</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="3"/>
-        <v>65</v>
+        <f t="shared" si="5"/>
+        <v>265</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="4"/>
-        <v>0.53581858547019101</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
@@ -5808,12 +12039,12 @@
         <v>2.9095389311788615</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <f t="shared" si="5"/>
+        <v>270</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" si="4"/>
-        <v>0.35093333532153315</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -5830,12 +12061,12 @@
         <v>2.9772116295183122</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="3"/>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>275</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="4"/>
-        <v>0.20096189432334199</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
@@ -5852,1681 +12083,11 @@
         <v>3</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="3"/>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>280</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="4"/>
-        <v>9.0461068821137497E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E528F02E-E4EB-49AD-8308-E18921FF162C}">
-  <dimension ref="A1:I75"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="8.7109375" style="2"/>
-    <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <f>0.5/SQRT(3)</f>
-        <v>0.28867513459481292</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>Pomiary!B2</f>
-        <v>φ, ◦</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>Pomiary!C2</f>
-        <v>i, μA</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-80</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f>B2</f>
-        <v>φ, ◦</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2" si="0">C2</f>
-        <v>i, μA</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="str">
-        <f>_xlfn.CONCAT(FIXED(Pomiary!B3,RIGHT(TEXT($A$2,"0,00E+00"),2)+1,TRUE),"(",LEFT($A$2*10^LEN($A$2),2),")")</f>
-        <v>0,00(28)</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <f>Pomiary!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B3*PI()/180)^2)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <f>MOD(B3+$E$2,360)</f>
-        <v>280</v>
-      </c>
-      <c r="G3" s="1">
-        <f>VLOOKUP(F3,$B$3:$C$75,2)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <f>Pomiary!B4</f>
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <f>Pomiary!C4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B4*PI()/180)^2)</f>
-        <v>2.9772116295183122</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F67" si="1">MOD(B4+$E$2,360)</f>
-        <v>285</v>
-      </c>
-      <c r="G4" s="1">
-        <f>VLOOKUP(F4,$B$3:$C$75,2)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <f>Pomiary!B5</f>
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <f>Pomiary!C5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B5*PI()/180)^2)</f>
-        <v>2.9095389311788624</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>290</v>
-      </c>
-      <c r="G5" s="1">
-        <f>VLOOKUP(F5,$B$3:$C$75,2)</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <f>Pomiary!B6</f>
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <f>Pomiary!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B6*PI()/180)^2)</f>
-        <v>2.799038105676658</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>295</v>
-      </c>
-      <c r="G6" s="1">
-        <f>VLOOKUP(F6,$B$3:$C$75,2)</f>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <f>Pomiary!B7</f>
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
-        <f>Pomiary!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B7*PI()/180)^2)</f>
-        <v>2.6490666646784673</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G7" s="1">
-        <f>VLOOKUP(F7,$B$3:$C$75,2)</f>
-        <v>2.5</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f>_xlfn.CONCAT(FIXED(F11,RIGHT(TEXT(F12,"0,00E+00"),2)+1,TRUE),"(",LEFT(F12*10^LEN(F12),2),")")</f>
-        <v>320,000(32)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <f>Pomiary!B8</f>
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
-        <f>Pomiary!C8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B8*PI()/180)^2)</f>
-        <v>2.4641814145298087</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>305</v>
-      </c>
-      <c r="G8" s="1">
-        <f>VLOOKUP(F8,$B$3:$C$75,2)</f>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <f>Pomiary!B9</f>
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <f>Pomiary!C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B9*PI()/180)^2)</f>
-        <v>2.2500000000000004</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>310</v>
-      </c>
-      <c r="G9" s="1">
-        <f>VLOOKUP(F9,$B$3:$C$75,2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <f>Pomiary!B10</f>
-        <v>35</v>
-      </c>
-      <c r="C10" s="1">
-        <f>Pomiary!C10</f>
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B10*PI()/180)^2)</f>
-        <v>2.0130302149885031</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>315</v>
-      </c>
-      <c r="G10" s="1">
-        <f>VLOOKUP(F10,$B$3:$C$75,2)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <f>Pomiary!B11</f>
-        <v>40</v>
-      </c>
-      <c r="C11" s="1">
-        <f>Pomiary!C11</f>
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B11*PI()/180)^2)</f>
-        <v>1.7604722665003956</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-      <c r="G11" s="1">
-        <f>VLOOKUP(F11,$B$3:$C$75,2)</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <f>Pomiary!B12</f>
-        <v>45</v>
-      </c>
-      <c r="C12" s="1">
-        <f>Pomiary!C12</f>
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B12*PI()/180)^2)</f>
-        <v>1.5000000000000004</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>325</v>
-      </c>
-      <c r="G12" s="1">
-        <f>VLOOKUP(F12,$B$3:$C$75,2)</f>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <f>Pomiary!B13</f>
-        <v>50</v>
-      </c>
-      <c r="C13" s="1">
-        <f>Pomiary!C13</f>
-        <v>0.7</v>
-      </c>
-      <c r="D13" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B13*PI()/180)^2)</f>
-        <v>1.2395277334996044</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="G13" s="1">
-        <f>VLOOKUP(F13,$B$3:$C$75,2)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <f>Pomiary!B14</f>
-        <v>55</v>
-      </c>
-      <c r="C14" s="1">
-        <f>Pomiary!C14</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B14*PI()/180)^2)</f>
-        <v>0.98696978501149712</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>335</v>
-      </c>
-      <c r="G14" s="1">
-        <f>VLOOKUP(F14,$B$3:$C$75,2)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <f>Pomiary!B15</f>
-        <v>60</v>
-      </c>
-      <c r="C15" s="1">
-        <f>Pomiary!C15</f>
-        <v>1.3</v>
-      </c>
-      <c r="D15" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B15*PI()/180)^2)</f>
-        <v>0.75000000000000033</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>340</v>
-      </c>
-      <c r="G15" s="1">
-        <f>VLOOKUP(F15,$B$3:$C$75,2)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <f>Pomiary!B16</f>
-        <v>65</v>
-      </c>
-      <c r="C16" s="1">
-        <f>Pomiary!C16</f>
-        <v>1.6</v>
-      </c>
-      <c r="D16" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B16*PI()/180)^2)</f>
-        <v>0.53581858547019101</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>345</v>
-      </c>
-      <c r="G16" s="1">
-        <f>VLOOKUP(F16,$B$3:$C$75,2)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <f>Pomiary!B17</f>
-        <v>70</v>
-      </c>
-      <c r="C17" s="1">
-        <f>Pomiary!C17</f>
-        <v>1.9</v>
-      </c>
-      <c r="D17" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B17*PI()/180)^2)</f>
-        <v>0.35093333532153315</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="G17" s="1">
-        <f>VLOOKUP(F17,$B$3:$C$75,2)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <f>Pomiary!B18</f>
-        <v>75</v>
-      </c>
-      <c r="C18" s="1">
-        <f>Pomiary!C18</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D18" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B18*PI()/180)^2)</f>
-        <v>0.20096189432334199</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>355</v>
-      </c>
-      <c r="G18" s="1">
-        <f>VLOOKUP(F18,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <f>Pomiary!B19</f>
-        <v>80</v>
-      </c>
-      <c r="C19" s="1">
-        <f>Pomiary!C19</f>
-        <v>2.5</v>
-      </c>
-      <c r="D19" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B19*PI()/180)^2)</f>
-        <v>9.0461068821137497E-2</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <f>VLOOKUP(F19,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <f>Pomiary!B20</f>
-        <v>85</v>
-      </c>
-      <c r="C20" s="1">
-        <f>Pomiary!C20</f>
-        <v>2.7</v>
-      </c>
-      <c r="D20" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B20*PI()/180)^2)</f>
-        <v>2.2788370481687893E-2</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G20" s="1">
-        <f>VLOOKUP(F20,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <f>Pomiary!B21</f>
-        <v>90</v>
-      </c>
-      <c r="C21" s="1">
-        <f>Pomiary!C21</f>
-        <v>2.8</v>
-      </c>
-      <c r="D21" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B21*PI()/180)^2)</f>
-        <v>1.1257415524237342E-32</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G21" s="1">
-        <f>VLOOKUP(F21,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <f>Pomiary!B22</f>
-        <v>95</v>
-      </c>
-      <c r="C22" s="1">
-        <f>Pomiary!C22</f>
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B22*PI()/180)^2)</f>
-        <v>2.2788370481687942E-2</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G22" s="1">
-        <f>VLOOKUP(F22,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <f>Pomiary!B23</f>
-        <v>100</v>
-      </c>
-      <c r="C23" s="1">
-        <f>Pomiary!C23</f>
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B23*PI()/180)^2)</f>
-        <v>9.0461068821137386E-2</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G23" s="1">
-        <f>VLOOKUP(F23,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <f>Pomiary!B24</f>
-        <v>105</v>
-      </c>
-      <c r="C24" s="1">
-        <f>Pomiary!C24</f>
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B24*PI()/180)^2)</f>
-        <v>0.20096189432334216</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="G24" s="1">
-        <f>VLOOKUP(F24,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <f>Pomiary!B25</f>
-        <v>110</v>
-      </c>
-      <c r="C25" s="1">
-        <f>Pomiary!C25</f>
-        <v>2.9</v>
-      </c>
-      <c r="D25" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B25*PI()/180)^2)</f>
-        <v>0.35093333532153292</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G25" s="1">
-        <f>VLOOKUP(F25,$B$3:$C$75,2)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <f>Pomiary!B26</f>
-        <v>115</v>
-      </c>
-      <c r="C26" s="1">
-        <f>Pomiary!C26</f>
-        <v>2.8</v>
-      </c>
-      <c r="D26" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B26*PI()/180)^2)</f>
-        <v>0.53581858547019068</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="G26" s="1">
-        <f>VLOOKUP(F26,$B$3:$C$75,2)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <f>Pomiary!B27</f>
-        <v>120</v>
-      </c>
-      <c r="C27" s="1">
-        <f>Pomiary!C27</f>
-        <v>2.6</v>
-      </c>
-      <c r="D27" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B27*PI()/180)^2)</f>
-        <v>0.74999999999999933</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G27" s="1">
-        <f>VLOOKUP(F27,$B$3:$C$75,2)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <f>Pomiary!B28</f>
-        <v>125</v>
-      </c>
-      <c r="C28" s="1">
-        <f>Pomiary!C28</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D28" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B28*PI()/180)^2)</f>
-        <v>0.98696978501149601</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="G28" s="1">
-        <f>VLOOKUP(F28,$B$3:$C$75,2)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <f>Pomiary!B29</f>
-        <v>130</v>
-      </c>
-      <c r="C29" s="1">
-        <f>Pomiary!C29</f>
-        <v>2</v>
-      </c>
-      <c r="D29" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B29*PI()/180)^2)</f>
-        <v>1.2395277334996044</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G29" s="1">
-        <f>VLOOKUP(F29,$B$3:$C$75,2)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <f>Pomiary!B30</f>
-        <v>135</v>
-      </c>
-      <c r="C30" s="1">
-        <f>Pomiary!C30</f>
-        <v>1.7</v>
-      </c>
-      <c r="D30" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B30*PI()/180)^2)</f>
-        <v>1.4999999999999996</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="G30" s="1">
-        <f>VLOOKUP(F30,$B$3:$C$75,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <f>Pomiary!B31</f>
-        <v>140</v>
-      </c>
-      <c r="C31" s="1">
-        <f>Pomiary!C31</f>
-        <v>1.5</v>
-      </c>
-      <c r="D31" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B31*PI()/180)^2)</f>
-        <v>1.7604722665003947</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="G31" s="1">
-        <f>VLOOKUP(F31,$B$3:$C$75,2)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <f>Pomiary!B32</f>
-        <v>145</v>
-      </c>
-      <c r="C32" s="1">
-        <f>Pomiary!C32</f>
-        <v>1.2</v>
-      </c>
-      <c r="D32" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B32*PI()/180)^2)</f>
-        <v>2.0130302149885022</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="G32" s="1">
-        <f>VLOOKUP(F32,$B$3:$C$75,2)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
-        <f>Pomiary!B33</f>
-        <v>150</v>
-      </c>
-      <c r="C33" s="1">
-        <f>Pomiary!C33</f>
-        <v>0.9</v>
-      </c>
-      <c r="D33" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B33*PI()/180)^2)</f>
-        <v>2.2500000000000004</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="G33" s="1">
-        <f>VLOOKUP(F33,$B$3:$C$75,2)</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
-        <f>Pomiary!B34</f>
-        <v>155</v>
-      </c>
-      <c r="C34" s="1">
-        <f>Pomiary!C34</f>
-        <v>0.7</v>
-      </c>
-      <c r="D34" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B34*PI()/180)^2)</f>
-        <v>2.4641814145298087</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="G34" s="1">
-        <f>VLOOKUP(F34,$B$3:$C$75,2)</f>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
-        <f>Pomiary!B35</f>
-        <v>160</v>
-      </c>
-      <c r="C35" s="1">
-        <f>Pomiary!C35</f>
-        <v>0.4</v>
-      </c>
-      <c r="D35" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B35*PI()/180)^2)</f>
-        <v>2.6490666646784664</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="G35" s="1">
-        <f>VLOOKUP(F35,$B$3:$C$75,2)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
-        <f>Pomiary!B36</f>
-        <v>165</v>
-      </c>
-      <c r="C36" s="1">
-        <f>Pomiary!C36</f>
-        <v>0.3</v>
-      </c>
-      <c r="D36" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B36*PI()/180)^2)</f>
-        <v>2.7990381056766576</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="G36" s="1">
-        <f>VLOOKUP(F36,$B$3:$C$75,2)</f>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <f>Pomiary!B37</f>
-        <v>170</v>
-      </c>
-      <c r="C37" s="1">
-        <f>Pomiary!C37</f>
-        <v>0.1</v>
-      </c>
-      <c r="D37" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B37*PI()/180)^2)</f>
-        <v>2.9095389311788624</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G37" s="1">
-        <f>VLOOKUP(F37,$B$3:$C$75,2)</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
-        <f>Pomiary!B38</f>
-        <v>175</v>
-      </c>
-      <c r="C38" s="1">
-        <f>Pomiary!C38</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B38*PI()/180)^2)</f>
-        <v>2.9772116295183122</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="G38" s="1">
-        <f>VLOOKUP(F38,$B$3:$C$75,2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <f>Pomiary!B39</f>
-        <v>180</v>
-      </c>
-      <c r="C39" s="1">
-        <f>Pomiary!C39</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B39*PI()/180)^2)</f>
-        <v>3</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G39" s="1">
-        <f>VLOOKUP(F39,$B$3:$C$75,2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
-        <f>Pomiary!B40</f>
-        <v>185</v>
-      </c>
-      <c r="C40" s="1">
-        <f>Pomiary!C40</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B40*PI()/180)^2)</f>
-        <v>2.9772116295183122</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="G40" s="1">
-        <f>VLOOKUP(F40,$B$3:$C$75,2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
-        <f>Pomiary!B41</f>
-        <v>190</v>
-      </c>
-      <c r="C41" s="1">
-        <f>Pomiary!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B41*PI()/180)^2)</f>
-        <v>2.9095389311788624</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="G41" s="1">
-        <f>VLOOKUP(F41,$B$3:$C$75,2)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
-        <f>Pomiary!B42</f>
-        <v>195</v>
-      </c>
-      <c r="C42" s="1">
-        <f>Pomiary!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B42*PI()/180)^2)</f>
-        <v>2.7990381056766589</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="G42" s="1">
-        <f>VLOOKUP(F42,$B$3:$C$75,2)</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <f>Pomiary!B43</f>
-        <v>200</v>
-      </c>
-      <c r="C43" s="1">
-        <f>Pomiary!C43</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B43*PI()/180)^2)</f>
-        <v>2.6490666646784673</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="G43" s="1">
-        <f>VLOOKUP(F43,$B$3:$C$75,2)</f>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="1">
-        <f>Pomiary!B44</f>
-        <v>205</v>
-      </c>
-      <c r="C44" s="1">
-        <f>Pomiary!C44</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B44*PI()/180)^2)</f>
-        <v>2.4641814145298095</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="G44" s="1">
-        <f>VLOOKUP(F44,$B$3:$C$75,2)</f>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="1">
-        <f>Pomiary!B45</f>
-        <v>210</v>
-      </c>
-      <c r="C45" s="1">
-        <f>Pomiary!C45</f>
-        <v>0.1</v>
-      </c>
-      <c r="D45" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B45*PI()/180)^2)</f>
-        <v>2.2499999999999996</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="G45" s="1">
-        <f>VLOOKUP(F45,$B$3:$C$75,2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="1">
-        <f>Pomiary!B46</f>
-        <v>215</v>
-      </c>
-      <c r="C46" s="1">
-        <f>Pomiary!C46</f>
-        <v>0.2</v>
-      </c>
-      <c r="D46" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B46*PI()/180)^2)</f>
-        <v>2.0130302149885044</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="G46" s="1">
-        <f>VLOOKUP(F46,$B$3:$C$75,2)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="1">
-        <f>Pomiary!B47</f>
-        <v>220</v>
-      </c>
-      <c r="C47" s="1">
-        <f>Pomiary!C47</f>
-        <v>0.3</v>
-      </c>
-      <c r="D47" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B47*PI()/180)^2)</f>
-        <v>1.7604722665003956</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="G47" s="1">
-        <f>VLOOKUP(F47,$B$3:$C$75,2)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
-        <f>Pomiary!B48</f>
-        <v>225</v>
-      </c>
-      <c r="C48" s="1">
-        <f>Pomiary!C48</f>
-        <v>0.4</v>
-      </c>
-      <c r="D48" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B48*PI()/180)^2)</f>
-        <v>1.5000000000000007</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="G48" s="1">
-        <f>VLOOKUP(F48,$B$3:$C$75,2)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="1">
-        <f>Pomiary!B49</f>
-        <v>230</v>
-      </c>
-      <c r="C49" s="1">
-        <f>Pomiary!C49</f>
-        <v>0.7</v>
-      </c>
-      <c r="D49" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B49*PI()/180)^2)</f>
-        <v>1.2395277334996051</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="G49" s="1">
-        <f>VLOOKUP(F49,$B$3:$C$75,2)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="1">
-        <f>Pomiary!B50</f>
-        <v>235</v>
-      </c>
-      <c r="C50" s="1">
-        <f>Pomiary!C50</f>
-        <v>0.9</v>
-      </c>
-      <c r="D50" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B50*PI()/180)^2)</f>
-        <v>0.98696978501149779</v>
-      </c>
-      <c r="F50" s="1">
-        <f t="shared" si="1"/>
-        <v>155</v>
-      </c>
-      <c r="G50" s="1">
-        <f>VLOOKUP(F50,$B$3:$C$75,2)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
-        <f>Pomiary!B51</f>
-        <v>240</v>
-      </c>
-      <c r="C51" s="1">
-        <f>Pomiary!C51</f>
-        <v>1.2</v>
-      </c>
-      <c r="D51" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B51*PI()/180)^2)</f>
-        <v>0.75000000000000133</v>
-      </c>
-      <c r="F51" s="1">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="G51" s="1">
-        <f>VLOOKUP(F51,$B$3:$C$75,2)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="1">
-        <f>Pomiary!B52</f>
-        <v>245</v>
-      </c>
-      <c r="C52" s="1">
-        <f>Pomiary!C52</f>
-        <v>1.5</v>
-      </c>
-      <c r="D52" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B52*PI()/180)^2)</f>
-        <v>0.53581858547019223</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="G52" s="1">
-        <f>VLOOKUP(F52,$B$3:$C$75,2)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="1">
-        <f>Pomiary!B53</f>
-        <v>250</v>
-      </c>
-      <c r="C53" s="1">
-        <f>Pomiary!C53</f>
-        <v>1.8</v>
-      </c>
-      <c r="D53" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B53*PI()/180)^2)</f>
-        <v>0.35093333532153426</v>
-      </c>
-      <c r="F53" s="1">
-        <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="G53" s="1">
-        <f>VLOOKUP(F53,$B$3:$C$75,2)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="1">
-        <f>Pomiary!B54</f>
-        <v>255</v>
-      </c>
-      <c r="C54" s="1">
-        <f>Pomiary!C54</f>
-        <v>2.1</v>
-      </c>
-      <c r="D54" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B54*PI()/180)^2)</f>
-        <v>0.20096189432334183</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="G54" s="1">
-        <f>VLOOKUP(F54,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="1">
-        <f>Pomiary!B55</f>
-        <v>260</v>
-      </c>
-      <c r="C55" s="1">
-        <f>Pomiary!C55</f>
-        <v>2.4</v>
-      </c>
-      <c r="D55" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B55*PI()/180)^2)</f>
-        <v>9.0461068821137414E-2</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="G55" s="1">
-        <f>VLOOKUP(F55,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="1">
-        <f>Pomiary!B56</f>
-        <v>265</v>
-      </c>
-      <c r="C56" s="1">
-        <f>Pomiary!C56</f>
-        <v>2.6</v>
-      </c>
-      <c r="D56" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B56*PI()/180)^2)</f>
-        <v>2.2788370481687952E-2</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-      <c r="G56" s="1">
-        <f>VLOOKUP(F56,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="1">
-        <f>Pomiary!B57</f>
-        <v>270</v>
-      </c>
-      <c r="C57" s="1">
-        <f>Pomiary!C57</f>
-        <v>2.8</v>
-      </c>
-      <c r="D57" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B57*PI()/180)^2)</f>
-        <v>1.0131673971813608E-31</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="G57" s="1">
-        <f>VLOOKUP(F57,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="1">
-        <f>Pomiary!B58</f>
-        <v>275</v>
-      </c>
-      <c r="C58" s="1">
-        <f>Pomiary!C58</f>
-        <v>2.8</v>
-      </c>
-      <c r="D58" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B58*PI()/180)^2)</f>
-        <v>2.2788370481687761E-2</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="G58" s="1">
-        <f>VLOOKUP(F58,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="1">
-        <f>Pomiary!B59</f>
-        <v>280</v>
-      </c>
-      <c r="C59" s="1">
-        <f>Pomiary!C59</f>
-        <v>2.9</v>
-      </c>
-      <c r="D59" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B59*PI()/180)^2)</f>
-        <v>9.0461068821137025E-2</v>
-      </c>
-      <c r="F59" s="1">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G59" s="1">
-        <f>VLOOKUP(F59,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="1">
-        <f>Pomiary!B60</f>
-        <v>285</v>
-      </c>
-      <c r="C60" s="1">
-        <f>Pomiary!C60</f>
-        <v>2.9</v>
-      </c>
-      <c r="D60" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B60*PI()/180)^2)</f>
-        <v>0.2009618943233426</v>
-      </c>
-      <c r="F60" s="1">
-        <f t="shared" si="1"/>
-        <v>205</v>
-      </c>
-      <c r="G60" s="1">
-        <f>VLOOKUP(F60,$B$3:$C$75,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="1">
-        <f>Pomiary!B61</f>
-        <v>290</v>
-      </c>
-      <c r="C61" s="1">
-        <f>Pomiary!C61</f>
-        <v>2.8</v>
-      </c>
-      <c r="D61" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B61*PI()/180)^2)</f>
-        <v>0.35093333532153176</v>
-      </c>
-      <c r="F61" s="1">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="G61" s="1">
-        <f>VLOOKUP(F61,$B$3:$C$75,2)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="1">
-        <f>Pomiary!B62</f>
-        <v>295</v>
-      </c>
-      <c r="C62" s="1">
-        <f>Pomiary!C62</f>
-        <v>2.7</v>
-      </c>
-      <c r="D62" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B62*PI()/180)^2)</f>
-        <v>0.53581858547019146</v>
-      </c>
-      <c r="F62" s="1">
-        <f t="shared" si="1"/>
-        <v>215</v>
-      </c>
-      <c r="G62" s="1">
-        <f>VLOOKUP(F62,$B$3:$C$75,2)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="1">
-        <f>Pomiary!B63</f>
-        <v>300</v>
-      </c>
-      <c r="C63" s="1">
-        <f>Pomiary!C63</f>
-        <v>2.5</v>
-      </c>
-      <c r="D63" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B63*PI()/180)^2)</f>
-        <v>0.75000000000000033</v>
-      </c>
-      <c r="F63" s="1">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="G63" s="1">
-        <f>VLOOKUP(F63,$B$3:$C$75,2)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="1">
-        <f>Pomiary!B64</f>
-        <v>305</v>
-      </c>
-      <c r="C64" s="1">
-        <f>Pomiary!C64</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D64" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B64*PI()/180)^2)</f>
-        <v>0.98696978501149668</v>
-      </c>
-      <c r="F64" s="1">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="G64" s="1">
-        <f>VLOOKUP(F64,$B$3:$C$75,2)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="1">
-        <f>Pomiary!B65</f>
-        <v>310</v>
-      </c>
-      <c r="C65" s="1">
-        <f>Pomiary!C65</f>
-        <v>2</v>
-      </c>
-      <c r="D65" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B65*PI()/180)^2)</f>
-        <v>1.2395277334996042</v>
-      </c>
-      <c r="F65" s="1">
-        <f t="shared" si="1"/>
-        <v>230</v>
-      </c>
-      <c r="G65" s="1">
-        <f>VLOOKUP(F65,$B$3:$C$75,2)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="1">
-        <f>Pomiary!B66</f>
-        <v>315</v>
-      </c>
-      <c r="C66" s="1">
-        <f>Pomiary!C66</f>
-        <v>1.7</v>
-      </c>
-      <c r="D66" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B66*PI()/180)^2)</f>
-        <v>1.4999999999999993</v>
-      </c>
-      <c r="F66" s="1">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-      <c r="G66" s="1">
-        <f>VLOOKUP(F66,$B$3:$C$75,2)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="1">
-        <f>Pomiary!B67</f>
-        <v>320</v>
-      </c>
-      <c r="C67" s="1">
-        <f>Pomiary!C67</f>
-        <v>1.4</v>
-      </c>
-      <c r="D67" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B67*PI()/180)^2)</f>
-        <v>1.7604722665003945</v>
-      </c>
-      <c r="F67" s="1">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="G67" s="1">
-        <f>VLOOKUP(F67,$B$3:$C$75,2)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="1">
-        <f>Pomiary!B68</f>
-        <v>325</v>
-      </c>
-      <c r="C68" s="1">
-        <f>Pomiary!C68</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D68" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B68*PI()/180)^2)</f>
-        <v>2.0130302149885022</v>
-      </c>
-      <c r="F68" s="1">
-        <f t="shared" ref="F68:F75" si="2">MOD(B68+$E$2,360)</f>
-        <v>245</v>
-      </c>
-      <c r="G68" s="1">
-        <f>VLOOKUP(F68,$B$3:$C$75,2)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
-        <f>Pomiary!B69</f>
-        <v>330</v>
-      </c>
-      <c r="C69" s="1">
-        <f>Pomiary!C69</f>
-        <v>0.9</v>
-      </c>
-      <c r="D69" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B69*PI()/180)^2)</f>
-        <v>2.2499999999999987</v>
-      </c>
-      <c r="F69" s="1">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="G69" s="1">
-        <f>VLOOKUP(F69,$B$3:$C$75,2)</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="1">
-        <f>Pomiary!B70</f>
-        <v>335</v>
-      </c>
-      <c r="C70" s="1">
-        <f>Pomiary!C70</f>
-        <v>0.7</v>
-      </c>
-      <c r="D70" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B70*PI()/180)^2)</f>
-        <v>2.4641814145298078</v>
-      </c>
-      <c r="F70" s="1">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-      <c r="G70" s="1">
-        <f>VLOOKUP(F70,$B$3:$C$75,2)</f>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="1">
-        <f>Pomiary!B71</f>
-        <v>340</v>
-      </c>
-      <c r="C71" s="1">
-        <f>Pomiary!C71</f>
-        <v>0.5</v>
-      </c>
-      <c r="D71" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B71*PI()/180)^2)</f>
-        <v>2.6490666646784673</v>
-      </c>
-      <c r="F71" s="1">
-        <f t="shared" si="2"/>
-        <v>260</v>
-      </c>
-      <c r="G71" s="1">
-        <f>VLOOKUP(F71,$B$3:$C$75,2)</f>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="1">
-        <f>Pomiary!B72</f>
-        <v>345</v>
-      </c>
-      <c r="C72" s="1">
-        <f>Pomiary!C72</f>
-        <v>0.3</v>
-      </c>
-      <c r="D72" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B72*PI()/180)^2)</f>
-        <v>2.799038105676658</v>
-      </c>
-      <c r="F72" s="1">
-        <f t="shared" si="2"/>
-        <v>265</v>
-      </c>
-      <c r="G72" s="1">
-        <f>VLOOKUP(F72,$B$3:$C$75,2)</f>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="1">
-        <f>Pomiary!B73</f>
-        <v>350</v>
-      </c>
-      <c r="C73" s="1">
-        <f>Pomiary!C73</f>
-        <v>0.1</v>
-      </c>
-      <c r="D73" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B73*PI()/180)^2)</f>
-        <v>2.9095389311788615</v>
-      </c>
-      <c r="F73" s="1">
-        <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="G73" s="1">
-        <f>VLOOKUP(F73,$B$3:$C$75,2)</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="1">
-        <f>Pomiary!B74</f>
-        <v>355</v>
-      </c>
-      <c r="C74" s="1">
-        <f>Pomiary!C74</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B74*PI()/180)^2)</f>
-        <v>2.9772116295183122</v>
-      </c>
-      <c r="F74" s="1">
-        <f t="shared" si="2"/>
-        <v>275</v>
-      </c>
-      <c r="G74" s="1">
-        <f>VLOOKUP(F74,$B$3:$C$75,2)</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="1">
-        <f>Pomiary!B75</f>
-        <v>360</v>
-      </c>
-      <c r="C75" s="1">
-        <f>Pomiary!C75</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="3">
-        <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B75*PI()/180)^2)</f>
-        <v>3</v>
-      </c>
-      <c r="F75" s="1">
-        <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="G75" s="1">
-        <f>VLOOKUP(F75,$B$3:$C$75,2)</f>
         <v>2.9</v>
       </c>
     </row>

--- a/10/10.xlsx
+++ b/10/10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D57BAF3-1596-4C94-825B-697FA6B24DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196F0DB7-79F7-4E40-BDF5-7BFB124C6CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="malus do pomiar" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>φ, ◦</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>iT, μA</t>
+  </si>
+  <si>
+    <t>u(i), μA</t>
+  </si>
+  <si>
+    <t>ui PIER 3?</t>
   </si>
 </sst>
 </file>
@@ -802,8 +808,10 @@
             <c:v>3. Prawo malusa</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -812,20 +820,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'malus do pomiar'!$D$3:$D$75</c:f>
+              <c:f>'malus do pomiar'!$E$3:$E$75</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="73"/>
@@ -1064,8 +1068,10 @@
             <c:v>6. Malus skorygowany</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1074,20 +1080,16 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'malus do pomiar'!$G$3:$G$75</c:f>
+              <c:f>'malus do pomiar'!$H$3:$H$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
@@ -1634,7 +1636,11 @@
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1654,6 +1660,524 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'malus do pomiar'!$D$3:$D$75</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="73"/>
+                  <c:pt idx="0">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.11593193405327687</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11639381426862856</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.11685569448398028</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.11777945491468367</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.11870321534538707</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.12008885599144217</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.12147449663749726</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.12286013728355238</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.12424577792960748</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.1256314185756626</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.12701705922171769</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.1279408196524211</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.12840269986777278</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.12932646029847619</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.12932646029847619</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.12932646029847619</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.12886458008312449</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.12840269986777278</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.12747893943706939</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.12609329879101427</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.12470765814495918</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.12332201749890408</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0.12239825706820068</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0.12101261642214557</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0.11962697577609048</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0.11870321534538707</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>0.11731757469933198</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>0.11685569448398028</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>0.11593193405327687</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>0.11593193405327687</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>0.11639381426862856</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>0.11685569448398028</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>0.11731757469933198</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>0.11870321534538707</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>0.11962697577609048</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>0.12101261642214557</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>0.12239825706820068</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>0.12378389771425577</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>0.12516953836031089</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>0.12655517900636598</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>0.12747893943706939</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>0.12840269986777278</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>0.12840269986777278</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>0.12886458008312449</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>0.12886458008312449</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>0.12840269986777278</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>0.1279408196524211</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>0.12701705922171769</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>0.12609329879101427</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>0.12470765814495918</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>0.12332201749890408</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>0.12193637685284897</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>0.12055073620679388</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>0.11962697577609048</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>0.11870321534538707</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>0.11777945491468367</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>0.11685569448398028</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>0.11593193405327687</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'malus do pomiar'!$D$3:$D$75</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="73"/>
+                  <c:pt idx="0">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.11593193405327687</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11639381426862856</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.11685569448398028</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.11777945491468367</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.11870321534538707</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.12008885599144217</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.12147449663749726</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.12286013728355238</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.12424577792960748</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.1256314185756626</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.12701705922171769</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.1279408196524211</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.12840269986777278</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.12932646029847619</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.12932646029847619</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.12932646029847619</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.12886458008312449</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.12840269986777278</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.12747893943706939</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.12609329879101427</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.12470765814495918</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.12332201749890408</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0.12239825706820068</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0.12101261642214557</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>0.11962697577609048</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>0.11870321534538707</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>0.11731757469933198</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>0.11685569448398028</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>0.11593193405327687</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>0.11593193405327687</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>0.11639381426862856</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>0.11685569448398028</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>0.11731757469933198</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>0.11870321534538707</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>0.11962697577609048</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>0.12101261642214557</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>0.12239825706820068</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>0.12378389771425577</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>0.12516953836031089</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>0.12655517900636598</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>0.12747893943706939</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>0.12840269986777278</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>0.12840269986777278</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>0.12886458008312449</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>0.12886458008312449</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>0.12840269986777278</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>0.1279408196524211</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>0.12701705922171769</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>0.12609329879101427</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>0.12470765814495918</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>0.12332201749890408</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>0.12193637685284897</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>0.12055073620679388</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>0.11962697577609048</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>0.11870321534538707</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>0.11777945491468367</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>0.11685569448398028</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>0.11593193405327687</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>0.11547005383792516</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'malus do pomiar'!$A$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.28867513459481292</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'malus do pomiar'!$A$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.28867513459481292</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'malus do pomiar'!$B$3:$B$75</c:f>
@@ -2124,8 +2648,10 @@
             <c:v>3. Prawo malusa</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2134,20 +2660,244 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'malus do pomiar'!$B$3:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'malus do pomiar'!$D$3:$D$75</c:f>
+              <c:f>'malus do pomiar'!$E$3:$E$75</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="73"/>
@@ -2387,8 +3137,10 @@
             <c:v>6. Malus skorygowany</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2397,20 +3149,244 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'malus do pomiar'!$B$3:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'malus do pomiar'!$G$3:$G$75</c:f>
+              <c:f>'malus do pomiar'!$H$3:$H$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
@@ -2658,6 +3634,8 @@
         <c:axId val="366415888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2701,11 +3679,14 @@
         <c:crossAx val="366414928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="60"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="366414928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4767,6 +5748,234 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pomiar do mal'!$B$3:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'pomiar do mal'!$D$3:$D$75</c:f>
@@ -5030,6 +6239,234 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pomiar do mal'!$B$3:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'pomiar do mal'!$G$3:$G$75</c:f>
@@ -7641,15 +9078,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>92490</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128242</xdr:rowOff>
+      <xdr:colOff>407229</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>461569</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>78309</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>196525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53461</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7678,16 +9115,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>121228</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>48694</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>136535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>490307</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>140567</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>418436</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>86602</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7759,16 +9196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>530087</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>211710</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>115719</xdr:rowOff>
+      <xdr:colOff>335949</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>90871</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8064,30 +9501,31 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="8.7109375" style="2"/>
-    <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
-    <col min="5" max="13" width="8.7109375" style="2"/>
-    <col min="14" max="14" width="3" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
+    <col min="6" max="14" width="8.7109375" style="2"/>
+    <col min="15" max="15" width="3" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>0.5/SQRT(3)</f>
         <v>0.28867513459481292</v>
@@ -8100,31 +9538,34 @@
         <f>Pomiary!C2</f>
         <v>i, μA</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>80</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="G2" s="1" t="str">
         <f>B2</f>
         <v>φ, ◦</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2" si="0">C2</f>
+      <c r="H2" s="1" t="str">
+        <f t="shared" ref="H2" si="0">C2</f>
         <v>i, μA</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B3,RIGHT(TEXT($A$2,"0,00E+00"),2)+1,TRUE),"(",LEFT($A$2*10^LEN($A$2),2),")")</f>
         <v>0,00(28)</v>
@@ -8136,20 +9577,24 @@
         <f>Pomiary!C3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
+        <f>(0.008*C3+2*0.1)/SQRT(3)</f>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E3" s="3">
         <f>MAX($C$3:$C$75)*(COS(B3*PI()/180)^2)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="1">
-        <f>MOD(B3+$E$2,360)</f>
+      <c r="G3" s="1">
+        <f>MOD(B3+$F$2,360)</f>
         <v>80</v>
       </c>
-      <c r="G3" s="1">
-        <f>MAX($C$3:$C$75)*(COS(F3*PI()/180)^2)</f>
+      <c r="H3" s="1">
+        <f>MAX($C$3:$C$75)*(COS(G3*PI()/180)^2)</f>
         <v>9.0461068821137497E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>Pomiary!B4</f>
         <v>5</v>
@@ -8158,20 +9603,24 @@
         <f>Pomiary!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D67" si="1">(0.008*C4+2*0.1)/SQRT(3)</f>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E4" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B4*PI()/180)^2)</f>
         <v>2.9772116295183122</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F67" si="1">MOD(B4+$E$2,360)</f>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G67" si="2">MOD(B4+$F$2,360)</f>
         <v>85</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G67" si="2">MAX($C$3:$C$75)*(COS(F4*PI()/180)^2)</f>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H67" si="3">MAX($C$3:$C$75)*(COS(G4*PI()/180)^2)</f>
         <v>2.2788370481687893E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>Pomiary!B5</f>
         <v>10</v>
@@ -8180,20 +9629,24 @@
         <f>Pomiary!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E5" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B5*PI()/180)^2)</f>
         <v>2.9095389311788624</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
         <v>1.1257415524237342E-32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f>Pomiary!B6</f>
         <v>15</v>
@@ -8202,20 +9655,24 @@
         <f>Pomiary!C6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E6" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B6*PI()/180)^2)</f>
         <v>2.799038105676658</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
         <v>2.2788370481687942E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f>Pomiary!B7</f>
         <v>20</v>
@@ -8224,20 +9681,24 @@
         <f>Pomiary!C7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E7" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B7*PI()/180)^2)</f>
         <v>2.6490666646784673</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
         <v>9.0461068821137386E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f>Pomiary!B8</f>
         <v>25</v>
@@ -8246,20 +9707,24 @@
         <f>Pomiary!C8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E8" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B8*PI()/180)^2)</f>
         <v>2.4641814145298087</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
         <v>0.20096189432334216</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f>Pomiary!B9</f>
         <v>30</v>
@@ -8268,20 +9733,24 @@
         <f>Pomiary!C9</f>
         <v>0.1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11593193405327687</v>
+      </c>
+      <c r="E9" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B9*PI()/180)^2)</f>
         <v>2.2500000000000004</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
         <v>0.35093333532153292</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f>Pomiary!B10</f>
         <v>35</v>
@@ -8290,20 +9759,27 @@
         <f>Pomiary!C10</f>
         <v>0.2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11639381426862856</v>
+      </c>
+      <c r="E10" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B10*PI()/180)^2)</f>
         <v>2.0130302149885031</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
         <v>0.53581858547019068</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f>Pomiary!B11</f>
         <v>40</v>
@@ -8312,20 +9788,24 @@
         <f>Pomiary!C11</f>
         <v>0.3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11685569448398028</v>
+      </c>
+      <c r="E11" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B11*PI()/180)^2)</f>
         <v>1.7604722665003956</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
         <v>0.74999999999999933</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f>Pomiary!B12</f>
         <v>45</v>
@@ -8334,20 +9814,24 @@
         <f>Pomiary!C12</f>
         <v>0.5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11777945491468367</v>
+      </c>
+      <c r="E12" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B12*PI()/180)^2)</f>
         <v>1.5000000000000004</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
         <v>0.98696978501149601</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f>Pomiary!B13</f>
         <v>50</v>
@@ -8356,20 +9840,24 @@
         <f>Pomiary!C13</f>
         <v>0.7</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11870321534538707</v>
+      </c>
+      <c r="E13" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B13*PI()/180)^2)</f>
         <v>1.2395277334996044</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
       <c r="G13" s="1">
         <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
         <v>1.2395277334996044</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f>Pomiary!B14</f>
         <v>55</v>
@@ -8378,20 +9866,24 @@
         <f>Pomiary!C14</f>
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12008885599144217</v>
+      </c>
+      <c r="E14" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B14*PI()/180)^2)</f>
         <v>0.98696978501149712</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
         <v>1.4999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f>Pomiary!B15</f>
         <v>60</v>
@@ -8400,20 +9892,24 @@
         <f>Pomiary!C15</f>
         <v>1.3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12147449663749726</v>
+      </c>
+      <c r="E15" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B15*PI()/180)^2)</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
         <v>1.7604722665003947</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f>Pomiary!B16</f>
         <v>65</v>
@@ -8422,20 +9918,24 @@
         <f>Pomiary!C16</f>
         <v>1.6</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12286013728355238</v>
+      </c>
+      <c r="E16" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B16*PI()/180)^2)</f>
         <v>0.53581858547019101</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="3"/>
         <v>2.0130302149885022</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f>Pomiary!B17</f>
         <v>70</v>
@@ -8444,20 +9944,24 @@
         <f>Pomiary!C17</f>
         <v>1.9</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12424577792960748</v>
+      </c>
+      <c r="E17" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B17*PI()/180)^2)</f>
         <v>0.35093333532153315</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
         <v>2.2500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f>Pomiary!B18</f>
         <v>75</v>
@@ -8466,20 +9970,24 @@
         <f>Pomiary!C18</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1256314185756626</v>
+      </c>
+      <c r="E18" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B18*PI()/180)^2)</f>
         <v>0.20096189432334199</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>155</v>
-      </c>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
         <v>2.4641814145298087</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f>Pomiary!B19</f>
         <v>80</v>
@@ -8488,20 +9996,24 @@
         <f>Pomiary!C19</f>
         <v>2.5</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12701705922171769</v>
+      </c>
+      <c r="E19" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B19*PI()/180)^2)</f>
         <v>9.0461068821137497E-2</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
         <v>2.6490666646784664</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f>Pomiary!B20</f>
         <v>85</v>
@@ -8510,20 +10022,24 @@
         <f>Pomiary!C20</f>
         <v>2.7</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1279408196524211</v>
+      </c>
+      <c r="E20" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B20*PI()/180)^2)</f>
         <v>2.2788370481687893E-2</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
       <c r="G20" s="1">
         <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
         <v>2.7990381056766576</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f>Pomiary!B21</f>
         <v>90</v>
@@ -8532,20 +10048,24 @@
         <f>Pomiary!C21</f>
         <v>2.8</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12840269986777278</v>
+      </c>
+      <c r="E21" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B21*PI()/180)^2)</f>
         <v>1.1257415524237342E-32</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
       <c r="G21" s="1">
         <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
         <v>2.9095389311788624</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f>Pomiary!B22</f>
         <v>95</v>
@@ -8554,20 +10074,24 @@
         <f>Pomiary!C22</f>
         <v>3</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12932646029847619</v>
+      </c>
+      <c r="E22" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B22*PI()/180)^2)</f>
         <v>2.2788370481687942E-2</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
       <c r="G22" s="1">
         <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
         <v>2.9772116295183122</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f>Pomiary!B23</f>
         <v>100</v>
@@ -8576,20 +10100,24 @@
         <f>Pomiary!C23</f>
         <v>3</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12932646029847619</v>
+      </c>
+      <c r="E23" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B23*PI()/180)^2)</f>
         <v>9.0461068821137386E-2</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
       <c r="G23" s="1">
         <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f>Pomiary!B24</f>
         <v>105</v>
@@ -8598,20 +10126,24 @@
         <f>Pomiary!C24</f>
         <v>3</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12932646029847619</v>
+      </c>
+      <c r="E24" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B24*PI()/180)^2)</f>
         <v>0.20096189432334216</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
       <c r="G24" s="1">
         <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
         <v>2.9772116295183122</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f>Pomiary!B25</f>
         <v>110</v>
@@ -8620,20 +10152,24 @@
         <f>Pomiary!C25</f>
         <v>2.9</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12886458008312449</v>
+      </c>
+      <c r="E25" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B25*PI()/180)^2)</f>
         <v>0.35093333532153292</v>
       </c>
-      <c r="F25" s="1">
-        <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
       <c r="G25" s="1">
         <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
         <v>2.9095389311788624</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f>Pomiary!B26</f>
         <v>115</v>
@@ -8642,20 +10178,24 @@
         <f>Pomiary!C26</f>
         <v>2.8</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12840269986777278</v>
+      </c>
+      <c r="E26" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B26*PI()/180)^2)</f>
         <v>0.53581858547019068</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
       <c r="G26" s="1">
         <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="3"/>
         <v>2.7990381056766589</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f>Pomiary!B27</f>
         <v>120</v>
@@ -8664,20 +10204,24 @@
         <f>Pomiary!C27</f>
         <v>2.6</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12747893943706939</v>
+      </c>
+      <c r="E27" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B27*PI()/180)^2)</f>
         <v>0.74999999999999933</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
       <c r="G27" s="1">
         <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="3"/>
         <v>2.6490666646784673</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f>Pomiary!B28</f>
         <v>125</v>
@@ -8686,20 +10230,24 @@
         <f>Pomiary!C28</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12609329879101427</v>
+      </c>
+      <c r="E28" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B28*PI()/180)^2)</f>
         <v>0.98696978501149601</v>
       </c>
-      <c r="F28" s="1">
-        <f t="shared" si="1"/>
-        <v>205</v>
-      </c>
       <c r="G28" s="1">
         <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="3"/>
         <v>2.4641814145298095</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f>Pomiary!B29</f>
         <v>130</v>
@@ -8708,20 +10256,24 @@
         <f>Pomiary!C29</f>
         <v>2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12470765814495918</v>
+      </c>
+      <c r="E29" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B29*PI()/180)^2)</f>
         <v>1.2395277334996044</v>
       </c>
-      <c r="F29" s="1">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
       <c r="G29" s="1">
         <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="3"/>
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f>Pomiary!B30</f>
         <v>135</v>
@@ -8730,20 +10282,24 @@
         <f>Pomiary!C30</f>
         <v>1.7</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12332201749890408</v>
+      </c>
+      <c r="E30" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B30*PI()/180)^2)</f>
         <v>1.4999999999999996</v>
       </c>
-      <c r="F30" s="1">
-        <f t="shared" si="1"/>
-        <v>215</v>
-      </c>
       <c r="G30" s="1">
         <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="3"/>
         <v>2.0130302149885044</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f>Pomiary!B31</f>
         <v>140</v>
@@ -8752,20 +10308,24 @@
         <f>Pomiary!C31</f>
         <v>1.5</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12239825706820068</v>
+      </c>
+      <c r="E31" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B31*PI()/180)^2)</f>
         <v>1.7604722665003947</v>
       </c>
-      <c r="F31" s="1">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
       <c r="G31" s="1">
         <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="3"/>
         <v>1.7604722665003956</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f>Pomiary!B32</f>
         <v>145</v>
@@ -8774,20 +10334,24 @@
         <f>Pomiary!C32</f>
         <v>1.2</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12101261642214557</v>
+      </c>
+      <c r="E32" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B32*PI()/180)^2)</f>
         <v>2.0130302149885022</v>
       </c>
-      <c r="F32" s="1">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
       <c r="G32" s="1">
         <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="3"/>
         <v>1.5000000000000007</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f>Pomiary!B33</f>
         <v>150</v>
@@ -8796,20 +10360,24 @@
         <f>Pomiary!C33</f>
         <v>0.9</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11962697577609048</v>
+      </c>
+      <c r="E33" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B33*PI()/180)^2)</f>
         <v>2.2500000000000004</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" si="1"/>
-        <v>230</v>
-      </c>
       <c r="G33" s="1">
         <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="3"/>
         <v>1.2395277334996051</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f>Pomiary!B34</f>
         <v>155</v>
@@ -8818,20 +10386,24 @@
         <f>Pomiary!C34</f>
         <v>0.7</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11870321534538707</v>
+      </c>
+      <c r="E34" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B34*PI()/180)^2)</f>
         <v>2.4641814145298087</v>
       </c>
-      <c r="F34" s="1">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
       <c r="G34" s="1">
         <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="3"/>
         <v>0.98696978501149779</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f>Pomiary!B35</f>
         <v>160</v>
@@ -8840,20 +10412,24 @@
         <f>Pomiary!C35</f>
         <v>0.4</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11731757469933198</v>
+      </c>
+      <c r="E35" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B35*PI()/180)^2)</f>
         <v>2.6490666646784664</v>
       </c>
-      <c r="F35" s="1">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
       <c r="G35" s="1">
         <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="3"/>
         <v>0.75000000000000133</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f>Pomiary!B36</f>
         <v>165</v>
@@ -8862,20 +10438,24 @@
         <f>Pomiary!C36</f>
         <v>0.3</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11685569448398028</v>
+      </c>
+      <c r="E36" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B36*PI()/180)^2)</f>
         <v>2.7990381056766576</v>
       </c>
-      <c r="F36" s="1">
-        <f t="shared" si="1"/>
-        <v>245</v>
-      </c>
       <c r="G36" s="1">
         <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="3"/>
         <v>0.53581858547019223</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f>Pomiary!B37</f>
         <v>170</v>
@@ -8884,20 +10464,24 @@
         <f>Pomiary!C37</f>
         <v>0.1</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11593193405327687</v>
+      </c>
+      <c r="E37" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B37*PI()/180)^2)</f>
         <v>2.9095389311788624</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
       <c r="G37" s="1">
         <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="3"/>
         <v>0.35093333532153426</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f>Pomiary!B38</f>
         <v>175</v>
@@ -8906,20 +10490,24 @@
         <f>Pomiary!C38</f>
         <v>0</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E38" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B38*PI()/180)^2)</f>
         <v>2.9772116295183122</v>
       </c>
-      <c r="F38" s="1">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
       <c r="G38" s="1">
         <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="3"/>
         <v>0.20096189432334183</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f>Pomiary!B39</f>
         <v>180</v>
@@ -8928,20 +10516,24 @@
         <f>Pomiary!C39</f>
         <v>0</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E39" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B39*PI()/180)^2)</f>
         <v>3</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
       <c r="G39" s="1">
         <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="3"/>
         <v>9.0461068821137414E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f>Pomiary!B40</f>
         <v>185</v>
@@ -8950,20 +10542,24 @@
         <f>Pomiary!C40</f>
         <v>0</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E40" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B40*PI()/180)^2)</f>
         <v>2.9772116295183122</v>
       </c>
-      <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>265</v>
-      </c>
       <c r="G40" s="1">
         <f t="shared" si="2"/>
+        <v>265</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="3"/>
         <v>2.2788370481687952E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f>Pomiary!B41</f>
         <v>190</v>
@@ -8972,20 +10568,24 @@
         <f>Pomiary!C41</f>
         <v>0</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E41" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B41*PI()/180)^2)</f>
         <v>2.9095389311788624</v>
       </c>
-      <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
       <c r="G41" s="1">
         <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="3"/>
         <v>1.0131673971813608E-31</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f>Pomiary!B42</f>
         <v>195</v>
@@ -8994,20 +10594,24 @@
         <f>Pomiary!C42</f>
         <v>0</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E42" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B42*PI()/180)^2)</f>
         <v>2.7990381056766589</v>
       </c>
-      <c r="F42" s="1">
-        <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
       <c r="G42" s="1">
         <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="3"/>
         <v>2.2788370481687761E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <f>Pomiary!B43</f>
         <v>200</v>
@@ -9016,38 +10620,42 @@
         <f>Pomiary!C43</f>
         <v>0</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E43" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B43*PI()/180)^2)</f>
         <v>2.6490666646784673</v>
       </c>
-      <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
       <c r="G43" s="1">
         <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="3"/>
         <v>9.0461068821137025E-2</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="N43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="P43" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <f>Pomiary!B44</f>
         <v>205</v>
@@ -9056,38 +10664,44 @@
         <f>Pomiary!C44</f>
         <v>0</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E44" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B44*PI()/180)^2)</f>
         <v>2.4641814145298095</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" si="1"/>
-        <v>285</v>
-      </c>
       <c r="G44" s="1">
         <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="3"/>
         <v>0.2009618943233426</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
       </c>
       <c r="L44" s="1">
         <v>0</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="1" t="str">
+        <f>_xlfn.CONCAT(FIXED(C3,RIGHT(TEXT(D3,"0,00E+00"),2)+1,TRUE),"(",LEFT(D3*10^LEN(D3),2),")")</f>
+        <v>0,00(11)</v>
+      </c>
+      <c r="N44" s="7">
         <v>3</v>
       </c>
-      <c r="O44" s="5">
+      <c r="P44" s="5">
         <v>185</v>
       </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="1" t="str">
+        <f>_xlfn.CONCAT(FIXED(C40,RIGHT(TEXT(D40,"0,00E+00"),2)+1,TRUE),"(",LEFT(D40*10^LEN(D40),2),")")</f>
+        <v>0,00(11)</v>
+      </c>
+      <c r="R44" s="8">
         <v>2.9772116295183122</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f>Pomiary!B45</f>
         <v>210</v>
@@ -9096,38 +10710,44 @@
         <f>Pomiary!C45</f>
         <v>0.1</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11593193405327687</v>
+      </c>
+      <c r="E45" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B45*PI()/180)^2)</f>
         <v>2.2499999999999996</v>
       </c>
-      <c r="F45" s="1">
-        <f t="shared" si="1"/>
-        <v>290</v>
-      </c>
       <c r="G45" s="1">
         <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="3"/>
         <v>0.35093333532153176</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>5</v>
       </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="M45" s="1" t="str">
+        <f t="shared" ref="M45:M80" si="4">_xlfn.CONCAT(FIXED(C4,RIGHT(TEXT(D4,"0,00E+00"),2)+1,TRUE),"(",LEFT(D4*10^LEN(D4),2),")")</f>
+        <v>0,00(11)</v>
+      </c>
+      <c r="N45" s="7">
         <v>2.9772116295183122</v>
       </c>
-      <c r="O45" s="5">
+      <c r="P45" s="5">
         <v>190</v>
       </c>
-      <c r="P45" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="1" t="str">
+        <f t="shared" ref="Q45:Q79" si="5">_xlfn.CONCAT(FIXED(C41,RIGHT(TEXT(D41,"0,00E+00"),2)+1,TRUE),"(",LEFT(D41*10^LEN(D41),2),")")</f>
+        <v>0,00(11)</v>
+      </c>
+      <c r="R45" s="8">
         <v>2.9095389311788624</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <f>Pomiary!B46</f>
         <v>215</v>
@@ -9136,38 +10756,44 @@
         <f>Pomiary!C46</f>
         <v>0.2</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11639381426862856</v>
+      </c>
+      <c r="E46" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B46*PI()/180)^2)</f>
         <v>2.0130302149885044</v>
       </c>
-      <c r="F46" s="1">
-        <f t="shared" si="1"/>
-        <v>295</v>
-      </c>
       <c r="G46" s="1">
         <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="3"/>
         <v>0.53581858547019146</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>10</v>
       </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="7">
+      <c r="M46" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,00(11)</v>
+      </c>
+      <c r="N46" s="7">
         <v>2.9095389311788624</v>
       </c>
-      <c r="O46" s="5">
+      <c r="P46" s="5">
         <v>195</v>
       </c>
-      <c r="P46" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,00(11)</v>
+      </c>
+      <c r="R46" s="8">
         <v>2.7990381056766589</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <f>Pomiary!B47</f>
         <v>220</v>
@@ -9176,38 +10802,44 @@
         <f>Pomiary!C47</f>
         <v>0.3</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11685569448398028</v>
+      </c>
+      <c r="E47" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B47*PI()/180)^2)</f>
         <v>1.7604722665003956</v>
       </c>
-      <c r="F47" s="1">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
       <c r="G47" s="1">
         <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="3"/>
         <v>0.75000000000000033</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>15</v>
       </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="7">
+      <c r="M47" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,00(11)</v>
+      </c>
+      <c r="N47" s="7">
         <v>2.799038105676658</v>
       </c>
-      <c r="O47" s="5">
+      <c r="P47" s="5">
         <v>200</v>
       </c>
-      <c r="P47" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="8">
+      <c r="Q47" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,00(11)</v>
+      </c>
+      <c r="R47" s="8">
         <v>2.6490666646784673</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <f>Pomiary!B48</f>
         <v>225</v>
@@ -9216,38 +10848,44 @@
         <f>Pomiary!C48</f>
         <v>0.4</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11731757469933198</v>
+      </c>
+      <c r="E48" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B48*PI()/180)^2)</f>
         <v>1.5000000000000007</v>
       </c>
-      <c r="F48" s="1">
-        <f t="shared" si="1"/>
-        <v>305</v>
-      </c>
       <c r="G48" s="1">
         <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="3"/>
         <v>0.98696978501149668</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="1">
         <v>20</v>
       </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-      <c r="M48" s="7">
+      <c r="M48" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,00(11)</v>
+      </c>
+      <c r="N48" s="7">
         <v>2.6490666646784673</v>
       </c>
-      <c r="O48" s="5">
+      <c r="P48" s="5">
         <v>205</v>
       </c>
-      <c r="P48" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="8">
+      <c r="Q48" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,00(11)</v>
+      </c>
+      <c r="R48" s="8">
         <v>2.4641814145298095</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <f>Pomiary!B49</f>
         <v>230</v>
@@ -9256,38 +10894,44 @@
         <f>Pomiary!C49</f>
         <v>0.7</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11870321534538707</v>
+      </c>
+      <c r="E49" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B49*PI()/180)^2)</f>
         <v>1.2395277334996051</v>
       </c>
-      <c r="F49" s="1">
-        <f t="shared" si="1"/>
-        <v>310</v>
-      </c>
       <c r="G49" s="1">
         <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="3"/>
         <v>1.2395277334996042</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>25</v>
       </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-      <c r="M49" s="7">
+      <c r="M49" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,00(11)</v>
+      </c>
+      <c r="N49" s="7">
         <v>2.4641814145298087</v>
       </c>
-      <c r="O49" s="5">
+      <c r="P49" s="5">
         <v>210</v>
       </c>
-      <c r="P49" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Q49" s="8">
+      <c r="Q49" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,10(11)</v>
+      </c>
+      <c r="R49" s="8">
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <f>Pomiary!B50</f>
         <v>235</v>
@@ -9296,38 +10940,44 @@
         <f>Pomiary!C50</f>
         <v>0.9</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11962697577609048</v>
+      </c>
+      <c r="E50" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B50*PI()/180)^2)</f>
         <v>0.98696978501149779</v>
       </c>
-      <c r="F50" s="1">
-        <f t="shared" si="1"/>
-        <v>315</v>
-      </c>
       <c r="G50" s="1">
         <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="3"/>
         <v>1.4999999999999993</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <v>30</v>
       </c>
-      <c r="L50" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M50" s="7">
+      <c r="M50" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,10(11)</v>
+      </c>
+      <c r="N50" s="7">
         <v>2.2500000000000004</v>
       </c>
-      <c r="O50" s="5">
+      <c r="P50" s="5">
         <v>215</v>
       </c>
-      <c r="P50" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q50" s="8">
+      <c r="Q50" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,20(11)</v>
+      </c>
+      <c r="R50" s="8">
         <v>2.0130302149885044</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <f>Pomiary!B51</f>
         <v>240</v>
@@ -9336,38 +10986,44 @@
         <f>Pomiary!C51</f>
         <v>1.2</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12101261642214557</v>
+      </c>
+      <c r="E51" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B51*PI()/180)^2)</f>
         <v>0.75000000000000133</v>
       </c>
-      <c r="F51" s="1">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
       <c r="G51" s="1">
         <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="3"/>
         <v>1.7604722665003945</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>35</v>
       </c>
-      <c r="L51" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M51" s="7">
+      <c r="M51" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,20(11)</v>
+      </c>
+      <c r="N51" s="7">
         <v>2.0130302149885031</v>
       </c>
-      <c r="O51" s="5">
+      <c r="P51" s="5">
         <v>220</v>
       </c>
-      <c r="P51" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q51" s="8">
+      <c r="Q51" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,30(11)</v>
+      </c>
+      <c r="R51" s="8">
         <v>1.7604722665003956</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <f>Pomiary!B52</f>
         <v>245</v>
@@ -9376,38 +11032,44 @@
         <f>Pomiary!C52</f>
         <v>1.5</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12239825706820068</v>
+      </c>
+      <c r="E52" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B52*PI()/180)^2)</f>
         <v>0.53581858547019223</v>
       </c>
-      <c r="F52" s="1">
-        <f t="shared" si="1"/>
-        <v>325</v>
-      </c>
       <c r="G52" s="1">
         <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="3"/>
         <v>2.0130302149885022</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <v>40</v>
       </c>
-      <c r="L52" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="M52" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,30(11)</v>
+      </c>
+      <c r="N52" s="7">
         <v>1.7604722665003956</v>
       </c>
-      <c r="O52" s="5">
+      <c r="P52" s="5">
         <v>225</v>
       </c>
-      <c r="P52" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q52" s="8">
+      <c r="Q52" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,40(11)</v>
+      </c>
+      <c r="R52" s="8">
         <v>1.5000000000000007</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <f>Pomiary!B53</f>
         <v>250</v>
@@ -9416,38 +11078,44 @@
         <f>Pomiary!C53</f>
         <v>1.8</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12378389771425577</v>
+      </c>
+      <c r="E53" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B53*PI()/180)^2)</f>
         <v>0.35093333532153426</v>
       </c>
-      <c r="F53" s="1">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
       <c r="G53" s="1">
         <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="3"/>
         <v>2.2499999999999987</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <v>45</v>
       </c>
-      <c r="L53" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M53" s="7">
+      <c r="M53" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,50(11)</v>
+      </c>
+      <c r="N53" s="7">
         <v>1.5000000000000004</v>
       </c>
-      <c r="O53" s="5">
+      <c r="P53" s="5">
         <v>230</v>
       </c>
-      <c r="P53" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="Q53" s="8">
+      <c r="Q53" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,70(11)</v>
+      </c>
+      <c r="R53" s="8">
         <v>1.2395277334996051</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <f>Pomiary!B54</f>
         <v>255</v>
@@ -9456,38 +11124,44 @@
         <f>Pomiary!C54</f>
         <v>2.1</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12516953836031089</v>
+      </c>
+      <c r="E54" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B54*PI()/180)^2)</f>
         <v>0.20096189432334183</v>
       </c>
-      <c r="F54" s="1">
-        <f t="shared" si="1"/>
-        <v>335</v>
-      </c>
       <c r="G54" s="1">
         <f t="shared" si="2"/>
+        <v>335</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="3"/>
         <v>2.4641814145298078</v>
       </c>
-      <c r="K54" s="1">
+      <c r="L54" s="1">
         <v>50</v>
       </c>
-      <c r="L54" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="M54" s="7">
+      <c r="M54" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,70(11)</v>
+      </c>
+      <c r="N54" s="7">
         <v>1.2395277334996044</v>
       </c>
-      <c r="O54" s="5">
+      <c r="P54" s="5">
         <v>235</v>
       </c>
-      <c r="P54" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="Q54" s="8">
+      <c r="Q54" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,90(11)</v>
+      </c>
+      <c r="R54" s="8">
         <v>0.98696978501149779</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <f>Pomiary!B55</f>
         <v>260</v>
@@ -9496,38 +11170,44 @@
         <f>Pomiary!C55</f>
         <v>2.4</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12655517900636598</v>
+      </c>
+      <c r="E55" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B55*PI()/180)^2)</f>
         <v>9.0461068821137414E-2</v>
       </c>
-      <c r="F55" s="1">
-        <f t="shared" si="1"/>
-        <v>340</v>
-      </c>
       <c r="G55" s="1">
         <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="3"/>
         <v>2.6490666646784673</v>
       </c>
-      <c r="K55" s="1">
+      <c r="L55" s="1">
         <v>55</v>
       </c>
-      <c r="L55" s="1">
-        <v>1</v>
-      </c>
-      <c r="M55" s="7">
+      <c r="M55" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1,00(12)</v>
+      </c>
+      <c r="N55" s="7">
         <v>0.98696978501149712</v>
       </c>
-      <c r="O55" s="5">
+      <c r="P55" s="5">
         <v>240</v>
       </c>
-      <c r="P55" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q55" s="8">
+      <c r="Q55" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1,20(12)</v>
+      </c>
+      <c r="R55" s="8">
         <v>0.75000000000000133</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <f>Pomiary!B56</f>
         <v>265</v>
@@ -9536,38 +11216,44 @@
         <f>Pomiary!C56</f>
         <v>2.6</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12747893943706939</v>
+      </c>
+      <c r="E56" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B56*PI()/180)^2)</f>
         <v>2.2788370481687952E-2</v>
       </c>
-      <c r="F56" s="1">
-        <f t="shared" si="1"/>
-        <v>345</v>
-      </c>
       <c r="G56" s="1">
         <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="3"/>
         <v>2.799038105676658</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="1">
         <v>60</v>
       </c>
-      <c r="L56" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="M56" s="7">
+      <c r="M56" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1,30(12)</v>
+      </c>
+      <c r="N56" s="7">
         <v>0.75000000000000033</v>
       </c>
-      <c r="O56" s="5">
+      <c r="P56" s="5">
         <v>245</v>
       </c>
-      <c r="P56" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="Q56" s="8">
+      <c r="Q56" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1,50(12)</v>
+      </c>
+      <c r="R56" s="8">
         <v>0.53581858547019223</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f>Pomiary!B57</f>
         <v>270</v>
@@ -9576,38 +11262,44 @@
         <f>Pomiary!C57</f>
         <v>2.8</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12840269986777278</v>
+      </c>
+      <c r="E57" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B57*PI()/180)^2)</f>
         <v>1.0131673971813608E-31</v>
       </c>
-      <c r="F57" s="1">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
       <c r="G57" s="1">
         <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="3"/>
         <v>2.9095389311788615</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="1">
         <v>65</v>
       </c>
-      <c r="L57" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="M57" s="7">
+      <c r="M57" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1,60(12)</v>
+      </c>
+      <c r="N57" s="7">
         <v>0.53581858547019101</v>
       </c>
-      <c r="O57" s="5">
+      <c r="P57" s="5">
         <v>250</v>
       </c>
-      <c r="P57" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="Q57" s="8">
+      <c r="Q57" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1,80(12)</v>
+      </c>
+      <c r="R57" s="8">
         <v>0.35093333532153426</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <f>Pomiary!B58</f>
         <v>275</v>
@@ -9616,38 +11308,44 @@
         <f>Pomiary!C58</f>
         <v>2.8</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12840269986777278</v>
+      </c>
+      <c r="E58" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B58*PI()/180)^2)</f>
         <v>2.2788370481687761E-2</v>
       </c>
-      <c r="F58" s="1">
-        <f t="shared" si="1"/>
-        <v>355</v>
-      </c>
       <c r="G58" s="1">
         <f t="shared" si="2"/>
+        <v>355</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="3"/>
         <v>2.9772116295183122</v>
       </c>
-      <c r="K58" s="1">
+      <c r="L58" s="1">
         <v>70</v>
       </c>
-      <c r="L58" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="M58" s="7">
+      <c r="M58" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1,90(12)</v>
+      </c>
+      <c r="N58" s="7">
         <v>0.35093333532153315</v>
       </c>
-      <c r="O58" s="5">
+      <c r="P58" s="5">
         <v>255</v>
       </c>
-      <c r="P58" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="Q58" s="8">
+      <c r="Q58" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2,10(12)</v>
+      </c>
+      <c r="R58" s="8">
         <v>0.20096189432334183</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <f>Pomiary!B59</f>
         <v>280</v>
@@ -9656,38 +11354,44 @@
         <f>Pomiary!C59</f>
         <v>2.9</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12886458008312449</v>
+      </c>
+      <c r="E59" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B59*PI()/180)^2)</f>
         <v>9.0461068821137025E-2</v>
       </c>
-      <c r="F59" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="G59" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="1">
         <v>75</v>
       </c>
-      <c r="L59" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M59" s="7">
+      <c r="M59" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2,20(12)</v>
+      </c>
+      <c r="N59" s="7">
         <v>0.20096189432334199</v>
       </c>
-      <c r="O59" s="5">
+      <c r="P59" s="5">
         <v>260</v>
       </c>
-      <c r="P59" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="Q59" s="8">
+      <c r="Q59" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2,40(12)</v>
+      </c>
+      <c r="R59" s="8">
         <v>9.0461068821137414E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <f>Pomiary!B60</f>
         <v>285</v>
@@ -9696,38 +11400,44 @@
         <f>Pomiary!C60</f>
         <v>2.9</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12886458008312449</v>
+      </c>
+      <c r="E60" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B60*PI()/180)^2)</f>
         <v>0.2009618943233426</v>
       </c>
-      <c r="F60" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="G60" s="1">
         <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="3"/>
         <v>2.9772116295183122</v>
       </c>
-      <c r="K60" s="1">
+      <c r="L60" s="1">
         <v>80</v>
       </c>
-      <c r="L60" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="M60" s="7">
+      <c r="M60" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2,50(12)</v>
+      </c>
+      <c r="N60" s="7">
         <v>9.0461068821137497E-2</v>
       </c>
-      <c r="O60" s="5">
+      <c r="P60" s="5">
         <v>265</v>
       </c>
-      <c r="P60" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="Q60" s="8">
+      <c r="Q60" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2,60(12)</v>
+      </c>
+      <c r="R60" s="8">
         <v>2.2788370481687952E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <f>Pomiary!B61</f>
         <v>290</v>
@@ -9736,38 +11446,44 @@
         <f>Pomiary!C61</f>
         <v>2.8</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12840269986777278</v>
+      </c>
+      <c r="E61" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B61*PI()/180)^2)</f>
         <v>0.35093333532153176</v>
       </c>
-      <c r="F61" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
       <c r="G61" s="1">
         <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="3"/>
         <v>2.9095389311788624</v>
       </c>
-      <c r="K61" s="1">
+      <c r="L61" s="1">
         <v>85</v>
       </c>
-      <c r="L61" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="M61" s="7">
+      <c r="M61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2,70(12)</v>
+      </c>
+      <c r="N61" s="7">
         <v>2.2788370481687893E-2</v>
       </c>
-      <c r="O61" s="5">
+      <c r="P61" s="5">
         <v>270</v>
       </c>
-      <c r="P61" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="Q61" s="8">
+      <c r="Q61" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2,80(12)</v>
+      </c>
+      <c r="R61" s="8">
         <v>1.0131673971813608E-31</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <f>Pomiary!B62</f>
         <v>295</v>
@@ -9776,38 +11492,44 @@
         <f>Pomiary!C62</f>
         <v>2.7</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1279408196524211</v>
+      </c>
+      <c r="E62" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B62*PI()/180)^2)</f>
         <v>0.53581858547019146</v>
       </c>
-      <c r="F62" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
       <c r="G62" s="1">
         <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="3"/>
         <v>2.799038105676658</v>
       </c>
-      <c r="K62" s="1">
+      <c r="L62" s="1">
         <v>90</v>
       </c>
-      <c r="L62" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="M62" s="7">
+      <c r="M62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2,80(12)</v>
+      </c>
+      <c r="N62" s="7">
         <v>1.1257415524237342E-32</v>
       </c>
-      <c r="O62" s="5">
+      <c r="P62" s="5">
         <v>275</v>
       </c>
-      <c r="P62" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="Q62" s="8">
+      <c r="Q62" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2,80(12)</v>
+      </c>
+      <c r="R62" s="8">
         <v>2.2788370481687761E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <f>Pomiary!B63</f>
         <v>300</v>
@@ -9816,38 +11538,44 @@
         <f>Pomiary!C63</f>
         <v>2.5</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12701705922171769</v>
+      </c>
+      <c r="E63" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B63*PI()/180)^2)</f>
         <v>0.75000000000000033</v>
       </c>
-      <c r="F63" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
       <c r="G63" s="1">
         <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="3"/>
         <v>2.6490666646784673</v>
       </c>
-      <c r="K63" s="1">
+      <c r="L63" s="1">
         <v>95</v>
       </c>
-      <c r="L63" s="1">
-        <v>3</v>
-      </c>
-      <c r="M63" s="7">
+      <c r="M63" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>3,00(12)</v>
+      </c>
+      <c r="N63" s="7">
         <v>2.2788370481687942E-2</v>
       </c>
-      <c r="O63" s="5">
+      <c r="P63" s="5">
         <v>280</v>
       </c>
-      <c r="P63" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="Q63" s="8">
+      <c r="Q63" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2,90(12)</v>
+      </c>
+      <c r="R63" s="8">
         <v>9.0461068821137025E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <f>Pomiary!B64</f>
         <v>305</v>
@@ -9856,38 +11584,44 @@
         <f>Pomiary!C64</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12609329879101427</v>
+      </c>
+      <c r="E64" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B64*PI()/180)^2)</f>
         <v>0.98696978501149668</v>
       </c>
-      <c r="F64" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
       <c r="G64" s="1">
         <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="3"/>
         <v>2.4641814145298087</v>
       </c>
-      <c r="K64" s="1">
+      <c r="L64" s="1">
         <v>100</v>
       </c>
-      <c r="L64" s="1">
-        <v>3</v>
-      </c>
-      <c r="M64" s="7">
+      <c r="M64" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>3,00(12)</v>
+      </c>
+      <c r="N64" s="7">
         <v>9.0461068821137386E-2</v>
       </c>
-      <c r="O64" s="5">
+      <c r="P64" s="5">
         <v>285</v>
       </c>
-      <c r="P64" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="Q64" s="8">
+      <c r="Q64" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2,90(12)</v>
+      </c>
+      <c r="R64" s="8">
         <v>0.2009618943233426</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <f>Pomiary!B65</f>
         <v>310</v>
@@ -9896,38 +11630,44 @@
         <f>Pomiary!C65</f>
         <v>2</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12470765814495918</v>
+      </c>
+      <c r="E65" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B65*PI()/180)^2)</f>
         <v>1.2395277334996042</v>
       </c>
-      <c r="F65" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
       <c r="G65" s="1">
         <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="3"/>
         <v>2.2500000000000004</v>
       </c>
-      <c r="K65" s="1">
+      <c r="L65" s="1">
         <v>105</v>
       </c>
-      <c r="L65" s="1">
-        <v>3</v>
-      </c>
-      <c r="M65" s="7">
+      <c r="M65" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>3,00(12)</v>
+      </c>
+      <c r="N65" s="7">
         <v>0.20096189432334216</v>
       </c>
-      <c r="O65" s="5">
+      <c r="P65" s="5">
         <v>290</v>
       </c>
-      <c r="P65" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="Q65" s="8">
+      <c r="Q65" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2,80(12)</v>
+      </c>
+      <c r="R65" s="8">
         <v>0.35093333532153176</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <f>Pomiary!B66</f>
         <v>315</v>
@@ -9936,38 +11676,44 @@
         <f>Pomiary!C66</f>
         <v>1.7</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12332201749890408</v>
+      </c>
+      <c r="E66" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B66*PI()/180)^2)</f>
         <v>1.4999999999999993</v>
       </c>
-      <c r="F66" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
       <c r="G66" s="1">
         <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="3"/>
         <v>2.0130302149885031</v>
       </c>
-      <c r="K66" s="1">
+      <c r="L66" s="1">
         <v>110</v>
       </c>
-      <c r="L66" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="M66" s="7">
+      <c r="M66" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2,90(12)</v>
+      </c>
+      <c r="N66" s="7">
         <v>0.35093333532153292</v>
       </c>
-      <c r="O66" s="5">
+      <c r="P66" s="5">
         <v>295</v>
       </c>
-      <c r="P66" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="Q66" s="8">
+      <c r="Q66" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2,70(12)</v>
+      </c>
+      <c r="R66" s="8">
         <v>0.53581858547019146</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <f>Pomiary!B67</f>
         <v>320</v>
@@ -9976,38 +11722,44 @@
         <f>Pomiary!C67</f>
         <v>1.4</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12193637685284897</v>
+      </c>
+      <c r="E67" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B67*PI()/180)^2)</f>
         <v>1.7604722665003945</v>
       </c>
-      <c r="F67" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
       <c r="G67" s="1">
         <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="3"/>
         <v>1.7604722665003956</v>
       </c>
-      <c r="K67" s="1">
+      <c r="L67" s="1">
         <v>115</v>
       </c>
-      <c r="L67" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="M67" s="7">
+      <c r="M67" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2,80(12)</v>
+      </c>
+      <c r="N67" s="7">
         <v>0.53581858547019068</v>
       </c>
-      <c r="O67" s="5">
+      <c r="P67" s="5">
         <v>300</v>
       </c>
-      <c r="P67" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="Q67" s="8">
+      <c r="Q67" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2,50(12)</v>
+      </c>
+      <c r="R67" s="8">
         <v>0.75000000000000033</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <f>Pomiary!B68</f>
         <v>325</v>
@@ -10016,38 +11768,44 @@
         <f>Pomiary!C68</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="1">
+        <f t="shared" ref="D68:D75" si="6">(0.008*C68+2*0.1)/SQRT(3)</f>
+        <v>0.12055073620679388</v>
+      </c>
+      <c r="E68" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B68*PI()/180)^2)</f>
         <v>2.0130302149885022</v>
       </c>
-      <c r="F68" s="1">
-        <f t="shared" ref="F68:F75" si="3">MOD(B68+$E$2,360)</f>
+      <c r="G68" s="1">
+        <f t="shared" ref="G68:G75" si="7">MOD(B68+$F$2,360)</f>
         <v>45</v>
       </c>
-      <c r="G68" s="1">
-        <f t="shared" ref="G68:G75" si="4">MAX($C$3:$C$75)*(COS(F68*PI()/180)^2)</f>
+      <c r="H68" s="1">
+        <f t="shared" ref="H68:H75" si="8">MAX($C$3:$C$75)*(COS(G68*PI()/180)^2)</f>
         <v>1.5000000000000004</v>
       </c>
-      <c r="K68" s="1">
+      <c r="L68" s="1">
         <v>120</v>
       </c>
-      <c r="L68" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="M68" s="7">
+      <c r="M68" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2,60(12)</v>
+      </c>
+      <c r="N68" s="7">
         <v>0.74999999999999933</v>
       </c>
-      <c r="O68" s="5">
+      <c r="P68" s="5">
         <v>305</v>
       </c>
-      <c r="P68" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q68" s="8">
+      <c r="Q68" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2,30(12)</v>
+      </c>
+      <c r="R68" s="8">
         <v>0.98696978501149668</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <f>Pomiary!B69</f>
         <v>330</v>
@@ -10056,38 +11814,44 @@
         <f>Pomiary!C69</f>
         <v>0.9</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="1">
+        <f t="shared" si="6"/>
+        <v>0.11962697577609048</v>
+      </c>
+      <c r="E69" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B69*PI()/180)^2)</f>
         <v>2.2499999999999987</v>
       </c>
-      <c r="F69" s="1">
-        <f t="shared" si="3"/>
+      <c r="G69" s="1">
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2395277334996044</v>
+      </c>
+      <c r="L69" s="1">
+        <v>125</v>
+      </c>
+      <c r="M69" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>1.2395277334996044</v>
-      </c>
-      <c r="K69" s="1">
-        <v>125</v>
-      </c>
-      <c r="L69" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M69" s="7">
+        <v>2,30(12)</v>
+      </c>
+      <c r="N69" s="7">
         <v>0.98696978501149601</v>
       </c>
-      <c r="O69" s="5">
+      <c r="P69" s="5">
         <v>310</v>
       </c>
-      <c r="P69" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q69" s="8">
+      <c r="Q69" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2,00(12)</v>
+      </c>
+      <c r="R69" s="8">
         <v>1.2395277334996042</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <f>Pomiary!B70</f>
         <v>335</v>
@@ -10096,38 +11860,44 @@
         <f>Pomiary!C70</f>
         <v>0.7</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="1">
+        <f t="shared" si="6"/>
+        <v>0.11870321534538707</v>
+      </c>
+      <c r="E70" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B70*PI()/180)^2)</f>
         <v>2.4641814145298078</v>
       </c>
-      <c r="F70" s="1">
-        <f t="shared" si="3"/>
+      <c r="G70" s="1">
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
+        <f t="shared" si="8"/>
+        <v>0.98696978501149712</v>
+      </c>
+      <c r="L70" s="1">
+        <v>130</v>
+      </c>
+      <c r="M70" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.98696978501149712</v>
-      </c>
-      <c r="K70" s="1">
-        <v>130</v>
-      </c>
-      <c r="L70" s="1">
-        <v>2</v>
-      </c>
-      <c r="M70" s="7">
+        <v>2,00(12)</v>
+      </c>
+      <c r="N70" s="7">
         <v>1.2395277334996044</v>
       </c>
-      <c r="O70" s="5">
+      <c r="P70" s="5">
         <v>315</v>
       </c>
-      <c r="P70" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="Q70" s="8">
+      <c r="Q70" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1,70(12)</v>
+      </c>
+      <c r="R70" s="8">
         <v>1.4999999999999993</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <f>Pomiary!B71</f>
         <v>340</v>
@@ -10136,38 +11906,44 @@
         <f>Pomiary!C71</f>
         <v>0.5</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="1">
+        <f t="shared" si="6"/>
+        <v>0.11777945491468367</v>
+      </c>
+      <c r="E71" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B71*PI()/180)^2)</f>
         <v>2.6490666646784673</v>
       </c>
-      <c r="F71" s="1">
-        <f t="shared" si="3"/>
+      <c r="G71" s="1">
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
+        <f t="shared" si="8"/>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="L71" s="1">
+        <v>135</v>
+      </c>
+      <c r="M71" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.75000000000000033</v>
-      </c>
-      <c r="K71" s="1">
-        <v>135</v>
-      </c>
-      <c r="L71" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="M71" s="7">
+        <v>1,70(12)</v>
+      </c>
+      <c r="N71" s="7">
         <v>1.4999999999999996</v>
       </c>
-      <c r="O71" s="5">
+      <c r="P71" s="5">
         <v>320</v>
       </c>
-      <c r="P71" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="Q71" s="8">
+      <c r="Q71" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1,40(12)</v>
+      </c>
+      <c r="R71" s="8">
         <v>1.7604722665003945</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <f>Pomiary!B72</f>
         <v>345</v>
@@ -10176,38 +11952,44 @@
         <f>Pomiary!C72</f>
         <v>0.3</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="1">
+        <f t="shared" si="6"/>
+        <v>0.11685569448398028</v>
+      </c>
+      <c r="E72" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B72*PI()/180)^2)</f>
         <v>2.799038105676658</v>
       </c>
-      <c r="F72" s="1">
-        <f t="shared" si="3"/>
+      <c r="G72" s="1">
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
+        <f t="shared" si="8"/>
+        <v>0.53581858547019101</v>
+      </c>
+      <c r="L72" s="1">
+        <v>140</v>
+      </c>
+      <c r="M72" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.53581858547019101</v>
-      </c>
-      <c r="K72" s="1">
-        <v>140</v>
-      </c>
-      <c r="L72" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="M72" s="7">
+        <v>1,50(12)</v>
+      </c>
+      <c r="N72" s="7">
         <v>1.7604722665003947</v>
       </c>
-      <c r="O72" s="5">
+      <c r="P72" s="5">
         <v>325</v>
       </c>
-      <c r="P72" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q72" s="8">
+      <c r="Q72" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1,10(12)</v>
+      </c>
+      <c r="R72" s="8">
         <v>2.0130302149885022</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <f>Pomiary!B73</f>
         <v>350</v>
@@ -10216,38 +11998,44 @@
         <f>Pomiary!C73</f>
         <v>0.1</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="1">
+        <f t="shared" si="6"/>
+        <v>0.11593193405327687</v>
+      </c>
+      <c r="E73" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B73*PI()/180)^2)</f>
         <v>2.9095389311788615</v>
       </c>
-      <c r="F73" s="1">
-        <f t="shared" si="3"/>
+      <c r="G73" s="1">
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
+        <f t="shared" si="8"/>
+        <v>0.35093333532153315</v>
+      </c>
+      <c r="L73" s="1">
+        <v>145</v>
+      </c>
+      <c r="M73" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.35093333532153315</v>
-      </c>
-      <c r="K73" s="1">
-        <v>145</v>
-      </c>
-      <c r="L73" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="M73" s="7">
+        <v>1,20(12)</v>
+      </c>
+      <c r="N73" s="7">
         <v>2.0130302149885022</v>
       </c>
-      <c r="O73" s="5">
+      <c r="P73" s="5">
         <v>330</v>
       </c>
-      <c r="P73" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="Q73" s="8">
+      <c r="Q73" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,90(11)</v>
+      </c>
+      <c r="R73" s="8">
         <v>2.2499999999999987</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <f>Pomiary!B74</f>
         <v>355</v>
@@ -10256,38 +12044,44 @@
         <f>Pomiary!C74</f>
         <v>0</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="1">
+        <f t="shared" si="6"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E74" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B74*PI()/180)^2)</f>
         <v>2.9772116295183122</v>
       </c>
-      <c r="F74" s="1">
-        <f t="shared" si="3"/>
+      <c r="G74" s="1">
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
+        <f t="shared" si="8"/>
+        <v>0.20096189432334199</v>
+      </c>
+      <c r="L74" s="1">
+        <v>150</v>
+      </c>
+      <c r="M74" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0.20096189432334199</v>
-      </c>
-      <c r="K74" s="1">
-        <v>150</v>
-      </c>
-      <c r="L74" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="M74" s="7">
+        <v>0,90(11)</v>
+      </c>
+      <c r="N74" s="7">
         <v>2.2500000000000004</v>
       </c>
-      <c r="O74" s="5">
+      <c r="P74" s="5">
         <v>335</v>
       </c>
-      <c r="P74" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="Q74" s="8">
+      <c r="Q74" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,70(11)</v>
+      </c>
+      <c r="R74" s="8">
         <v>2.4641814145298078</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <f>Pomiary!B75</f>
         <v>360</v>
@@ -10296,125 +12090,140 @@
         <f>Pomiary!C75</f>
         <v>0</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="1">
+        <f t="shared" si="6"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="E75" s="3">
         <f>MAX(Pomiary!$C$3:$C$75)*(COS(Pomiary!B75*PI()/180)^2)</f>
         <v>3</v>
       </c>
-      <c r="F75" s="1">
-        <f t="shared" si="3"/>
+      <c r="G75" s="1">
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
+        <f t="shared" si="8"/>
+        <v>9.0461068821137497E-2</v>
+      </c>
+      <c r="L75" s="1">
+        <v>155</v>
+      </c>
+      <c r="M75" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>9.0461068821137497E-2</v>
-      </c>
-      <c r="K75" s="1">
-        <v>155</v>
-      </c>
-      <c r="L75" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="M75" s="7">
+        <v>0,70(11)</v>
+      </c>
+      <c r="N75" s="7">
         <v>2.4641814145298087</v>
       </c>
-      <c r="O75" s="5">
+      <c r="P75" s="5">
         <v>340</v>
       </c>
-      <c r="P75" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q75" s="8">
+      <c r="Q75" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,50(11)</v>
+      </c>
+      <c r="R75" s="8">
         <v>2.6490666646784673</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K76" s="1">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L76" s="1">
         <v>160</v>
       </c>
-      <c r="L76" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M76" s="7">
+      <c r="M76" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,40(11)</v>
+      </c>
+      <c r="N76" s="7">
         <v>2.6490666646784664</v>
       </c>
-      <c r="O76" s="5">
+      <c r="P76" s="5">
         <v>345</v>
       </c>
-      <c r="P76" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q76" s="8">
+      <c r="Q76" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,30(11)</v>
+      </c>
+      <c r="R76" s="8">
         <v>2.799038105676658</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K77" s="1">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L77" s="1">
         <v>165</v>
       </c>
-      <c r="L77" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="M77" s="7">
+      <c r="M77" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,30(11)</v>
+      </c>
+      <c r="N77" s="7">
         <v>2.7990381056766576</v>
       </c>
-      <c r="O77" s="5">
+      <c r="P77" s="5">
         <v>350</v>
       </c>
-      <c r="P77" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Q77" s="8">
+      <c r="Q77" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,10(11)</v>
+      </c>
+      <c r="R77" s="8">
         <v>2.9095389311788615</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K78" s="1">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L78" s="1">
         <v>170</v>
       </c>
-      <c r="L78" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M78" s="7">
+      <c r="M78" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,10(11)</v>
+      </c>
+      <c r="N78" s="7">
         <v>2.9095389311788624</v>
       </c>
-      <c r="O78" s="5">
+      <c r="P78" s="5">
         <v>355</v>
       </c>
-      <c r="P78" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="8">
+      <c r="Q78" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,00(11)</v>
+      </c>
+      <c r="R78" s="8">
         <v>2.9772116295183122</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K79" s="1">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L79" s="1">
         <v>175</v>
       </c>
-      <c r="L79" s="1">
-        <v>0</v>
-      </c>
-      <c r="M79" s="7">
+      <c r="M79" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,00(11)</v>
+      </c>
+      <c r="N79" s="7">
         <v>2.9772116295183122</v>
       </c>
-      <c r="O79" s="5">
+      <c r="P79" s="5">
         <v>360</v>
       </c>
-      <c r="P79" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="8">
+      <c r="Q79" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,00(11)</v>
+      </c>
+      <c r="R79" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K80" s="1">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L80" s="1">
         <v>180</v>
       </c>
-      <c r="L80" s="1">
-        <v>0</v>
-      </c>
-      <c r="M80" s="7">
+      <c r="M80" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0,00(11)</v>
+      </c>
+      <c r="N80" s="7">
         <v>3</v>
       </c>
     </row>
@@ -10431,8 +12240,8 @@
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11911,7 +13720,7 @@
         <v>240</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G98" si="4">VLOOKUP(F67,$B$3:$C$75,2)</f>
+        <f t="shared" ref="G67:G75" si="4">VLOOKUP(F67,$B$3:$C$75,2)</f>
         <v>1.2</v>
       </c>
     </row>
@@ -12102,7 +13911,7 @@
   <dimension ref="B2:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
